--- a/investing spreadsheets/KO.xlsx
+++ b/investing spreadsheets/KO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27960" windowHeight="14385" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27960" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>Price</t>
   </si>
@@ -225,13 +225,50 @@
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>PepsiCo, Nestle, DPSG, Groupe Danone, Kraft, Suntory, Unilever</t>
+  </si>
+  <si>
+    <t>2016 E</t>
+  </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>Total WC</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Annual Return</t>
+  </si>
+  <si>
+    <t>Inventory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0&quot;x&quot;"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +295,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aruial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aruial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -290,6 +338,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,14 +418,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -370,8 +436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21393150" y="0"/>
-          <a:ext cx="0" cy="10429875"/>
+          <a:off x="20697825" y="0"/>
+          <a:ext cx="0" cy="10439400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -684,69 +750,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I2:K7"/>
+  <dimension ref="C2:CH18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="56.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I2" s="1" t="s">
+    <row r="2" spans="3:86" ht="15">
+      <c r="C2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>41.84</v>
+      <c r="H2" s="1">
+        <v>42.34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="23">
+        <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I3" s="1" t="s">
+    <row r="3" spans="3:86" ht="15">
+      <c r="C3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="H3" s="2">
         <v>4377</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="23">
+        <v>2.9</v>
+      </c>
     </row>
-    <row r="4" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I4" s="1" t="s">
+    <row r="4" spans="3:86" ht="15">
+      <c r="C4" s="21"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
-        <f>J2*J3</f>
-        <v>183133.68000000002</v>
+      <c r="H4" s="2">
+        <f>H2*H3</f>
+        <v>185322.18000000002</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="23">
+        <v>2.7</v>
       </c>
     </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I5" s="1" t="s">
+    <row r="5" spans="3:86" ht="15">
+      <c r="C5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
+      <c r="H5" s="2">
         <f>9647+11755+2673+16215+1284</f>
         <v>41574</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="23">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I6" s="1" t="s">
+    <row r="6" spans="3:86" ht="15">
+      <c r="C6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="2">
+      <c r="H6" s="2">
         <f>4895+29252</f>
         <v>34147</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="23">
+        <v>12.6</v>
+      </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I7" s="1" t="s">
+    <row r="7" spans="3:86" ht="15">
+      <c r="C7" s="21"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="2">
-        <f>J4-J5+J6</f>
-        <v>175706.68000000002</v>
-      </c>
+      <c r="H7" s="2">
+        <f>H4-H5+H6</f>
+        <v>177895.18000000002</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="23">
+        <f>SUM(K2:K6)</f>
+        <v>26.299999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="3:86" ht="15">
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="3:86" ht="15">
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="J9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:86" ht="15">
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="3:86" ht="15">
+      <c r="C11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="J11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="5">
+        <f>K9/K7</f>
+        <v>0.26615969581749055</v>
+      </c>
+    </row>
+    <row r="13" spans="3:86">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="2"/>
+      <c r="BW13" s="2"/>
+      <c r="BX13" s="2"/>
+      <c r="BY13" s="2"/>
+      <c r="BZ13" s="2"/>
+      <c r="CA13" s="2"/>
+      <c r="CB13" s="2"/>
+      <c r="CC13" s="2"/>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+      <c r="CF13" s="2"/>
+      <c r="CG13" s="2"/>
+      <c r="CH13" s="2"/>
+    </row>
+    <row r="15" spans="3:86">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -758,25 +1011,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:ACJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH39" sqref="AH34:AJ39"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="30" width="9" style="1"/>
     <col min="31" max="31" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="47" width="9" style="1"/>
+    <col min="32" max="46" width="9" style="1"/>
+    <col min="47" max="47" width="11" style="1" customWidth="1"/>
     <col min="48" max="48" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:44">
       <c r="C1" s="3">
         <v>41362</v>
       </c>
@@ -811,7 +1065,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:44">
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
@@ -952,7 +1206,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="2:44" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:44" s="7" customFormat="1" ht="15">
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1006,23 +1260,23 @@
         <v>11427</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:V5" si="1">N5*1</f>
+        <f>N5*1</f>
         <v>10000</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" si="1"/>
+        <f>O5*1</f>
         <v>10282</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" si="1"/>
+        <f>P5*1</f>
         <v>11539</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" si="1"/>
+        <f>Q5*1</f>
         <v>11427</v>
       </c>
       <c r="V5" s="8">
-        <f t="shared" si="1"/>
+        <f>R5*1</f>
         <v>10000</v>
       </c>
       <c r="Y5" s="8">
@@ -1055,55 +1309,55 @@
         <v>43248</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" ref="AG5:AR5" si="2">AF5</f>
+        <f t="shared" ref="AG5:AR5" si="1">AF5</f>
         <v>43248</v>
       </c>
       <c r="AH5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AI5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AJ5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AK5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AL5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AM5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AN5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AO5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AP5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AQ5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
       <c r="AR5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43248</v>
       </c>
     </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:44">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1157,24 +1411,24 @@
         <v>4577</v>
       </c>
       <c r="R6" s="1">
-        <f>N6*0.99</f>
+        <f>N6*1</f>
+        <v>4054</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" ref="S6:V6" si="2">O6*0.99</f>
+        <v>4028.31</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>4426.29</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>4531.2299999999996</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="2"/>
         <v>4013.46</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" ref="S6:V6" si="3">O6*0.99</f>
-        <v>4028.31</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="3"/>
-        <v>4426.29</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="3"/>
-        <v>4531.2299999999996</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="3"/>
-        <v>3973.3254000000002</v>
       </c>
       <c r="Y6" s="2">
         <v>18215</v>
@@ -1195,66 +1449,66 @@
       </c>
       <c r="AD6" s="2">
         <f>SUM(O6:R6)</f>
-        <v>17130.46</v>
+        <v>17171</v>
       </c>
       <c r="AE6" s="2">
         <f>SUM(S6:V6)</f>
-        <v>16959.1554</v>
+        <v>16999.29</v>
       </c>
       <c r="AF6" s="2">
         <f>AE6</f>
-        <v>16959.1554</v>
+        <v>16999.29</v>
       </c>
       <c r="AG6" s="2">
-        <f t="shared" ref="AG6:AR6" si="4">AF6</f>
-        <v>16959.1554</v>
+        <f t="shared" ref="AG6:AR6" si="3">AF6</f>
+        <v>16999.29</v>
       </c>
       <c r="AH6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AI6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AJ6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AK6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AL6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AM6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AN6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AO6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AP6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AQ6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
       <c r="AR6" s="2">
-        <f t="shared" si="4"/>
-        <v>16959.1554</v>
+        <f t="shared" si="3"/>
+        <v>16999.29</v>
       </c>
     </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:44">
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1319,107 +1573,107 @@
         <v>6850</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:V7" si="5">R5-R6</f>
+        <f t="shared" ref="R7:V7" si="4">R5-R6</f>
+        <v>5946</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="4"/>
+        <v>6253.6900000000005</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="4"/>
+        <v>7112.71</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="4"/>
+        <v>6895.77</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="4"/>
         <v>5986.54</v>
       </c>
-      <c r="S7" s="2">
+      <c r="Y7" s="2">
+        <f t="shared" ref="Y7:AE7" si="5">Y5-Y6</f>
+        <v>28327</v>
+      </c>
+      <c r="Z7" s="2">
         <f t="shared" si="5"/>
-        <v>6253.6900000000005</v>
-      </c>
-      <c r="T7" s="2">
+        <v>28964</v>
+      </c>
+      <c r="AA7" s="2">
         <f t="shared" si="5"/>
-        <v>7112.71</v>
-      </c>
-      <c r="U7" s="2">
+        <v>28433</v>
+      </c>
+      <c r="AB7" s="2">
         <f t="shared" si="5"/>
-        <v>6895.77</v>
-      </c>
-      <c r="V7" s="2">
+        <v>28109</v>
+      </c>
+      <c r="AC7" s="2">
         <f t="shared" si="5"/>
-        <v>6026.6746000000003</v>
-      </c>
-      <c r="Y7" s="2">
-        <f>Y5-Y6</f>
-        <v>28327</v>
-      </c>
-      <c r="Z7" s="2">
-        <f>Z5-Z6</f>
-        <v>28964</v>
-      </c>
-      <c r="AA7" s="2">
-        <f>AA5-AA6</f>
-        <v>28433</v>
-      </c>
-      <c r="AB7" s="2">
-        <f>AB5-AB6</f>
-        <v>28109</v>
-      </c>
-      <c r="AC7" s="2">
-        <f>AC5-AC6</f>
         <v>26812</v>
       </c>
       <c r="AD7" s="2">
-        <f>AD5-AD6</f>
-        <v>26117.54</v>
+        <f t="shared" si="5"/>
+        <v>26077</v>
       </c>
       <c r="AE7" s="2">
-        <f>AE5-AE6</f>
-        <v>26288.8446</v>
+        <f t="shared" si="5"/>
+        <v>26248.71</v>
       </c>
       <c r="AF7" s="2">
         <f>AE7</f>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" ref="AG7:AR7" si="6">AF7</f>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AJ7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AK7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AL7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AM7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AN7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AO7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AP7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AQ7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
       <c r="AR7" s="2">
         <f t="shared" si="6"/>
-        <v>26288.8446</v>
+        <v>26248.71</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:44">
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1473,23 +1727,23 @@
         <v>4207</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8:V10" si="7">N8</f>
+        <f>N8</f>
         <v>3937</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="7"/>
+        <f>O8</f>
         <v>3761</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="7"/>
+        <f>P8</f>
         <v>3912</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="7"/>
+        <f>Q8</f>
         <v>4207</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="7"/>
+        <f>R8</f>
         <v>3937</v>
       </c>
       <c r="Y8" s="2">
@@ -1522,55 +1776,55 @@
         <v>15817</v>
       </c>
       <c r="AG8" s="2">
-        <f t="shared" ref="AG8:AR8" si="8">AF8</f>
+        <f t="shared" ref="AG8:AR8" si="7">AF8</f>
         <v>15817</v>
       </c>
       <c r="AH8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AI8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AJ8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AK8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AL8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AM8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AN8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AO8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AP8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AQ8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
       <c r="AR8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15817</v>
       </c>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:44">
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1624,23 +1878,23 @@
         <v>264</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="7"/>
+        <f>N9</f>
         <v>491</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="7"/>
+        <f>O9</f>
         <v>311</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="7"/>
+        <f>P9</f>
         <v>297</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="7"/>
+        <f>Q9</f>
         <v>264</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="7"/>
+        <f>R9</f>
         <v>491</v>
       </c>
       <c r="Y9" s="2">
@@ -1673,55 +1927,55 @@
         <v>1363</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" ref="AG9:AR9" si="9">AF9</f>
+        <f t="shared" ref="AG9:AR9" si="8">AF9</f>
         <v>1363</v>
       </c>
       <c r="AH9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AI9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AJ9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AK9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AM9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AP9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AQ9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
       <c r="AR9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1363</v>
       </c>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:44">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1786,55 +2040,55 @@
         <v>4471</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="7"/>
+        <f>N10</f>
         <v>4428</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="7"/>
+        <f>O10</f>
         <v>4072</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="7"/>
+        <f>P10</f>
         <v>4209</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="7"/>
+        <f>Q10</f>
         <v>4471</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="7"/>
+        <f>R10</f>
         <v>4428</v>
       </c>
       <c r="Y10" s="2">
-        <f>+Y8+Y9</f>
+        <f t="shared" ref="Y10:AF10" si="9">+Y8+Y9</f>
         <v>18154</v>
       </c>
       <c r="Z10" s="2">
-        <f>+Z8+Z9</f>
+        <f t="shared" si="9"/>
         <v>18185</v>
       </c>
       <c r="AA10" s="2">
-        <f>+AA8+AA9</f>
+        <f t="shared" si="9"/>
         <v>18205</v>
       </c>
       <c r="AB10" s="2">
-        <f>+AB8+AB9</f>
+        <f t="shared" si="9"/>
         <v>18401</v>
       </c>
       <c r="AC10" s="2">
-        <f>+AC8+AC9</f>
+        <f t="shared" si="9"/>
         <v>18084</v>
       </c>
       <c r="AD10" s="2">
-        <f>+AD8+AD9</f>
+        <f t="shared" si="9"/>
         <v>17180</v>
       </c>
       <c r="AE10" s="2">
-        <f>+AE8+AE9</f>
+        <f t="shared" si="9"/>
         <v>17180</v>
       </c>
       <c r="AF10" s="2">
-        <f>+AF8+AF9</f>
+        <f t="shared" si="9"/>
         <v>17180</v>
       </c>
       <c r="AG10" s="2">
@@ -1886,7 +2140,7 @@
         <v>17180</v>
       </c>
     </row>
-    <row r="11" spans="2:44" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:44" s="7" customFormat="1" ht="15">
       <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +2206,7 @@
       </c>
       <c r="R11" s="8">
         <f t="shared" ref="R11:V11" si="11">R7-R10</f>
-        <v>1558.54</v>
+        <v>1518</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="11"/>
@@ -1968,90 +2222,90 @@
       </c>
       <c r="V11" s="8">
         <f t="shared" si="11"/>
-        <v>1598.6746000000003</v>
+        <v>1558.54</v>
       </c>
       <c r="Y11" s="8">
-        <f>Y7-Y10</f>
+        <f t="shared" ref="Y11:AF11" si="12">Y7-Y10</f>
         <v>10173</v>
       </c>
       <c r="Z11" s="8">
-        <f>Z7-Z10</f>
+        <f t="shared" si="12"/>
         <v>10779</v>
       </c>
       <c r="AA11" s="8">
-        <f>AA7-AA10</f>
+        <f t="shared" si="12"/>
         <v>10228</v>
       </c>
       <c r="AB11" s="8">
-        <f>AB7-AB10</f>
+        <f t="shared" si="12"/>
         <v>9708</v>
       </c>
       <c r="AC11" s="8">
-        <f>AC7-AC10</f>
+        <f t="shared" si="12"/>
         <v>8728</v>
       </c>
       <c r="AD11" s="8">
-        <f>AD7-AD10</f>
-        <v>8937.5400000000009</v>
+        <f t="shared" si="12"/>
+        <v>8897</v>
       </c>
       <c r="AE11" s="8">
-        <f>AE7-AE10</f>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="12"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AF11" s="8">
-        <f>AF7-AF10</f>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="12"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AG11" s="8">
-        <f t="shared" ref="AG11:AR11" si="12">AG7-AG10</f>
-        <v>9108.8446000000004</v>
+        <f t="shared" ref="AG11:AR11" si="13">AG7-AG10</f>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AH11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AI11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AJ11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AK11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AL11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AM11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AN11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AO11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AP11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AQ11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
       <c r="AR11" s="8">
-        <f t="shared" si="12"/>
-        <v>9108.8446000000004</v>
+        <f t="shared" si="13"/>
+        <v>9068.7099999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:44">
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
@@ -2116,23 +2370,23 @@
         <v>17</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" ref="R12:V12" si="13">N12</f>
+        <f>N12</f>
         <v>11</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="13"/>
+        <f>O12</f>
         <v>3</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="13"/>
+        <f>P12</f>
         <v>2</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="13"/>
+        <f>Q12</f>
         <v>17</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="13"/>
+        <f>R12</f>
         <v>11</v>
       </c>
       <c r="Y12" s="2">
@@ -2165,58 +2419,58 @@
       </c>
       <c r="AF12" s="2">
         <f>AE29*$AV$21</f>
-        <v>261.24229200000008</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2">
         <f t="shared" ref="AG12:AR12" si="14">AF29*$AV$21</f>
-        <v>343.06316092000009</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="2">
         <f t="shared" si="14"/>
-        <v>425.70223852920014</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="14"/>
-        <v>509.16770691449216</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="2">
         <f t="shared" si="14"/>
-        <v>593.4678299836371</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" si="14"/>
-        <v>678.61095428347346</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="2">
         <f t="shared" si="14"/>
-        <v>764.60550982630809</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" si="14"/>
-        <v>851.46001092457129</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="14"/>
-        <v>939.18305703381702</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" si="14"/>
-        <v>1027.7833336041551</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2">
         <f t="shared" si="14"/>
-        <v>1117.2696129401968</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="2">
         <f t="shared" si="14"/>
-        <v>1207.6507550695987</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="2">
         <f t="shared" si="14"/>
-        <v>1298.9357086202947</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:44">
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2270,23 +2524,23 @@
         <v>250</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" ref="R13:V13" si="15">N13+10</f>
+        <f>N13+10</f>
         <v>97</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="15"/>
+        <f>O13+10</f>
         <v>102</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="15"/>
+        <f>P13+10</f>
         <v>315</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="15"/>
+        <f>Q13+10</f>
         <v>260</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="15"/>
+        <f>R13+10</f>
         <v>107</v>
       </c>
       <c r="Y13" s="2">
@@ -2319,55 +2573,55 @@
         <v>784</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" ref="AG13:AR13" si="16">AF13</f>
+        <f t="shared" ref="AG13:AR13" si="15">AF13</f>
         <v>784</v>
       </c>
       <c r="AH13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AI13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AP13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AQ13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:44">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2421,23 +2675,23 @@
         <v>-871</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" ref="R14:V14" si="17">N14</f>
+        <f>N14</f>
         <v>-78</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="17"/>
+        <f>O14</f>
         <v>-342</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="17"/>
+        <f>P14</f>
         <v>1133</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="17"/>
+        <f>Q14</f>
         <v>-871</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="17"/>
+        <f>R14</f>
         <v>-78</v>
       </c>
       <c r="Y14" s="2">
@@ -2470,55 +2724,55 @@
         <v>-158</v>
       </c>
       <c r="AG14" s="2">
-        <f t="shared" ref="AG14:AR14" si="18">AF14</f>
+        <f t="shared" ref="AG14:AR14" si="16">AF14</f>
         <v>-158</v>
       </c>
       <c r="AH14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-158</v>
       </c>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:44">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -2583,107 +2837,107 @@
         <v>1775</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" ref="R15:V15" si="19">SUM(R11:R14)</f>
-        <v>1588.54</v>
+        <f t="shared" ref="R15:V15" si="17">SUM(R11:R14)</f>
+        <v>1548</v>
       </c>
       <c r="S15" s="2">
+        <f t="shared" si="17"/>
+        <v>1944.6900000000005</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="17"/>
+        <v>4353.71</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="17"/>
+        <v>1830.7700000000004</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="17"/>
+        <v>1598.54</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" ref="Y15:AF15" si="18">SUM(Y11:Y14)</f>
+        <v>11458</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="18"/>
+        <v>11809</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="18"/>
+        <v>11477</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="18"/>
+        <v>9325</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="18"/>
+        <v>9605</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="18"/>
+        <v>9516</v>
+      </c>
+      <c r="AE15" s="2">
+        <f t="shared" si="18"/>
+        <v>9727.7099999999991</v>
+      </c>
+      <c r="AF15" s="2">
+        <f t="shared" si="18"/>
+        <v>9694.7099999999991</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" ref="AG15:AR15" si="19">SUM(AG11:AG14)</f>
+        <v>9694.7099999999991</v>
+      </c>
+      <c r="AH15" s="2">
         <f t="shared" si="19"/>
-        <v>1944.6900000000005</v>
-      </c>
-      <c r="T15" s="2">
+        <v>9694.7099999999991</v>
+      </c>
+      <c r="AI15" s="2">
         <f t="shared" si="19"/>
-        <v>4353.71</v>
-      </c>
-      <c r="U15" s="2">
+        <v>9694.7099999999991</v>
+      </c>
+      <c r="AJ15" s="2">
         <f t="shared" si="19"/>
-        <v>1830.7700000000004</v>
-      </c>
-      <c r="V15" s="2">
+        <v>9694.7099999999991</v>
+      </c>
+      <c r="AK15" s="2">
         <f t="shared" si="19"/>
-        <v>1638.6746000000003</v>
-      </c>
-      <c r="Y15" s="2">
-        <f>SUM(Y11:Y14)</f>
-        <v>11458</v>
-      </c>
-      <c r="Z15" s="2">
-        <f>SUM(Z11:Z14)</f>
-        <v>11809</v>
-      </c>
-      <c r="AA15" s="2">
-        <f>SUM(AA11:AA14)</f>
-        <v>11477</v>
-      </c>
-      <c r="AB15" s="2">
-        <f>SUM(AB11:AB14)</f>
-        <v>9325</v>
-      </c>
-      <c r="AC15" s="2">
-        <f>SUM(AC11:AC14)</f>
-        <v>9605</v>
-      </c>
-      <c r="AD15" s="2">
-        <f>SUM(AD11:AD14)</f>
-        <v>9556.5400000000009</v>
-      </c>
-      <c r="AE15" s="2">
-        <f>SUM(AE11:AE14)</f>
-        <v>9767.8446000000004</v>
-      </c>
-      <c r="AF15" s="2">
-        <f>SUM(AF11:AF14)</f>
-        <v>9996.0868920000012</v>
-      </c>
-      <c r="AG15" s="2">
-        <f t="shared" ref="AG15:AR15" si="20">SUM(AG11:AG14)</f>
-        <v>10077.907760920001</v>
-      </c>
-      <c r="AH15" s="2">
-        <f t="shared" si="20"/>
-        <v>10160.546838529201</v>
-      </c>
-      <c r="AI15" s="2">
-        <f t="shared" si="20"/>
-        <v>10244.012306914492</v>
-      </c>
-      <c r="AJ15" s="2">
-        <f t="shared" si="20"/>
-        <v>10328.312429983638</v>
-      </c>
-      <c r="AK15" s="2">
-        <f t="shared" si="20"/>
-        <v>10413.455554283473</v>
+        <v>9694.7099999999991</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="20"/>
-        <v>10499.450109826308</v>
+        <f t="shared" si="19"/>
+        <v>9694.7099999999991</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="20"/>
-        <v>10586.304610924572</v>
+        <f t="shared" si="19"/>
+        <v>9694.7099999999991</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="20"/>
-        <v>10674.027657033817</v>
+        <f t="shared" si="19"/>
+        <v>9694.7099999999991</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="20"/>
-        <v>10762.627933604155</v>
+        <f t="shared" si="19"/>
+        <v>9694.7099999999991</v>
       </c>
       <c r="AP15" s="2">
-        <f t="shared" si="20"/>
-        <v>10852.114212940198</v>
+        <f t="shared" si="19"/>
+        <v>9694.7099999999991</v>
       </c>
       <c r="AQ15" s="2">
-        <f t="shared" si="20"/>
-        <v>10942.495355069599</v>
+        <f t="shared" si="19"/>
+        <v>9694.7099999999991</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" si="20"/>
-        <v>11033.780308620295</v>
+        <f t="shared" si="19"/>
+        <v>9694.7099999999991</v>
       </c>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:44">
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2737,23 +2991,23 @@
         <v>272</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ref="R16:V16" si="21">N16</f>
+        <f>N16</f>
         <v>302</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="21"/>
+        <f>O16</f>
         <v>401</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="21"/>
+        <f>P16</f>
         <v>839</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="21"/>
+        <f>Q16</f>
         <v>272</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="21"/>
+        <f>R16</f>
         <v>302</v>
       </c>
       <c r="Y16" s="2">
@@ -2786,55 +3040,55 @@
         <v>1814</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" ref="AG16:AR16" si="22">AF16</f>
+        <f t="shared" ref="AG16:AR16" si="20">AF16</f>
         <v>1814</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1814</v>
       </c>
     </row>
-    <row r="17" spans="2:764" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:764" s="7" customFormat="1" ht="15">
       <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
@@ -2899,1732 +3153,1732 @@
         <v>1503</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" ref="R17:V17" si="23">R15-R16</f>
-        <v>1286.54</v>
+        <f t="shared" ref="R17:V17" si="21">R15-R16</f>
+        <v>1246</v>
       </c>
       <c r="S17" s="8">
+        <f t="shared" si="21"/>
+        <v>1543.6900000000005</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="21"/>
+        <v>3514.71</v>
+      </c>
+      <c r="U17" s="8">
+        <f t="shared" si="21"/>
+        <v>1558.7700000000004</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="21"/>
+        <v>1296.54</v>
+      </c>
+      <c r="Y17" s="8">
+        <f t="shared" ref="Y17:AF17" si="22">Y15-Y16</f>
+        <v>8646</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="22"/>
+        <v>9086</v>
+      </c>
+      <c r="AA17" s="8">
+        <f t="shared" si="22"/>
+        <v>8626</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" si="22"/>
+        <v>7124</v>
+      </c>
+      <c r="AC17" s="8">
+        <f t="shared" si="22"/>
+        <v>7366</v>
+      </c>
+      <c r="AD17" s="8">
+        <f t="shared" si="22"/>
+        <v>7702</v>
+      </c>
+      <c r="AE17" s="8">
+        <f t="shared" si="22"/>
+        <v>7913.7099999999991</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="22"/>
+        <v>7880.7099999999991</v>
+      </c>
+      <c r="AG17" s="8">
+        <f t="shared" ref="AG17:AR17" si="23">AG15-AG16</f>
+        <v>7880.7099999999991</v>
+      </c>
+      <c r="AH17" s="8">
         <f t="shared" si="23"/>
-        <v>1543.6900000000005</v>
-      </c>
-      <c r="T17" s="8">
+        <v>7880.7099999999991</v>
+      </c>
+      <c r="AI17" s="8">
         <f t="shared" si="23"/>
-        <v>3514.71</v>
-      </c>
-      <c r="U17" s="8">
+        <v>7880.7099999999991</v>
+      </c>
+      <c r="AJ17" s="8">
         <f t="shared" si="23"/>
-        <v>1558.7700000000004</v>
-      </c>
-      <c r="V17" s="8">
+        <v>7880.7099999999991</v>
+      </c>
+      <c r="AK17" s="8">
         <f t="shared" si="23"/>
-        <v>1336.6746000000003</v>
-      </c>
-      <c r="Y17" s="8">
-        <f>Y15-Y16</f>
-        <v>8646</v>
-      </c>
-      <c r="Z17" s="8">
-        <f>Z15-Z16</f>
-        <v>9086</v>
-      </c>
-      <c r="AA17" s="8">
-        <f>AA15-AA16</f>
-        <v>8626</v>
-      </c>
-      <c r="AB17" s="8">
-        <f>AB15-AB16</f>
-        <v>7124</v>
-      </c>
-      <c r="AC17" s="8">
-        <f>AC15-AC16</f>
-        <v>7366</v>
-      </c>
-      <c r="AD17" s="8">
-        <f>AD15-AD16</f>
-        <v>7742.5400000000009</v>
-      </c>
-      <c r="AE17" s="8">
-        <f>AE15-AE16</f>
-        <v>7953.8446000000004</v>
-      </c>
-      <c r="AF17" s="8">
-        <f>AF15-AF16</f>
-        <v>8182.0868920000012</v>
-      </c>
-      <c r="AG17" s="8">
-        <f t="shared" ref="AG17:AR17" si="24">AG15-AG16</f>
-        <v>8263.9077609200012</v>
-      </c>
-      <c r="AH17" s="8">
-        <f t="shared" si="24"/>
-        <v>8346.5468385292006</v>
-      </c>
-      <c r="AI17" s="8">
-        <f t="shared" si="24"/>
-        <v>8430.012306914492</v>
-      </c>
-      <c r="AJ17" s="8">
-        <f t="shared" si="24"/>
-        <v>8514.3124299836381</v>
-      </c>
-      <c r="AK17" s="8">
-        <f t="shared" si="24"/>
-        <v>8599.4555542834732</v>
+        <v>7880.7099999999991</v>
       </c>
       <c r="AL17" s="8">
-        <f t="shared" si="24"/>
-        <v>8685.4501098263081</v>
+        <f t="shared" si="23"/>
+        <v>7880.7099999999991</v>
       </c>
       <c r="AM17" s="8">
-        <f t="shared" si="24"/>
-        <v>8772.3046109245715</v>
+        <f t="shared" si="23"/>
+        <v>7880.7099999999991</v>
       </c>
       <c r="AN17" s="8">
-        <f t="shared" si="24"/>
-        <v>8860.0276570338174</v>
+        <f t="shared" si="23"/>
+        <v>7880.7099999999991</v>
       </c>
       <c r="AO17" s="8">
-        <f t="shared" si="24"/>
-        <v>8948.6279336041553</v>
+        <f t="shared" si="23"/>
+        <v>7880.7099999999991</v>
       </c>
       <c r="AP17" s="8">
-        <f t="shared" si="24"/>
-        <v>9038.1142129401978</v>
+        <f t="shared" si="23"/>
+        <v>7880.7099999999991</v>
       </c>
       <c r="AQ17" s="8">
-        <f t="shared" si="24"/>
-        <v>9128.4953550695991</v>
+        <f t="shared" si="23"/>
+        <v>7880.7099999999991</v>
       </c>
       <c r="AR17" s="8">
-        <f t="shared" si="24"/>
-        <v>9219.7803086202948</v>
+        <f t="shared" si="23"/>
+        <v>7880.7099999999991</v>
       </c>
       <c r="AS17" s="8">
         <f>AR17*(1+$AV$22)</f>
-        <v>9035.3847024478891</v>
+        <v>7723.0957999999991</v>
       </c>
       <c r="AT17" s="8">
-        <f t="shared" ref="AT17:DE17" si="25">AS17*(1+$AV$22)</f>
-        <v>8854.6770083989304</v>
+        <f t="shared" ref="AT17:DE17" si="24">AS17*(1+$AV$22)</f>
+        <v>7568.6338839999989</v>
       </c>
       <c r="AU17" s="8">
+        <f t="shared" si="24"/>
+        <v>7417.2612063199986</v>
+      </c>
+      <c r="AV17" s="8">
+        <f t="shared" si="24"/>
+        <v>7268.9159821935982</v>
+      </c>
+      <c r="AW17" s="8">
+        <f t="shared" si="24"/>
+        <v>7123.5376625497265</v>
+      </c>
+      <c r="AX17" s="8">
+        <f t="shared" si="24"/>
+        <v>6981.0669092987318</v>
+      </c>
+      <c r="AY17" s="8">
+        <f t="shared" si="24"/>
+        <v>6841.4455711127575</v>
+      </c>
+      <c r="AZ17" s="8">
+        <f t="shared" si="24"/>
+        <v>6704.6166596905023</v>
+      </c>
+      <c r="BA17" s="8">
+        <f t="shared" si="24"/>
+        <v>6570.5243264966921</v>
+      </c>
+      <c r="BB17" s="8">
+        <f t="shared" si="24"/>
+        <v>6439.113839966758</v>
+      </c>
+      <c r="BC17" s="8">
+        <f t="shared" si="24"/>
+        <v>6310.3315631674222</v>
+      </c>
+      <c r="BD17" s="8">
+        <f t="shared" si="24"/>
+        <v>6184.1249319040735</v>
+      </c>
+      <c r="BE17" s="8">
+        <f t="shared" si="24"/>
+        <v>6060.4424332659919</v>
+      </c>
+      <c r="BF17" s="8">
+        <f t="shared" si="24"/>
+        <v>5939.2335846006717</v>
+      </c>
+      <c r="BG17" s="8">
+        <f t="shared" si="24"/>
+        <v>5820.4489129086578</v>
+      </c>
+      <c r="BH17" s="8">
+        <f t="shared" si="24"/>
+        <v>5704.0399346504846</v>
+      </c>
+      <c r="BI17" s="8">
+        <f t="shared" si="24"/>
+        <v>5589.9591359574752</v>
+      </c>
+      <c r="BJ17" s="8">
+        <f t="shared" si="24"/>
+        <v>5478.1599532383252</v>
+      </c>
+      <c r="BK17" s="8">
+        <f t="shared" si="24"/>
+        <v>5368.596754173559</v>
+      </c>
+      <c r="BL17" s="8">
+        <f t="shared" si="24"/>
+        <v>5261.2248190900873</v>
+      </c>
+      <c r="BM17" s="8">
+        <f t="shared" si="24"/>
+        <v>5156.0003227082852</v>
+      </c>
+      <c r="BN17" s="8">
+        <f t="shared" si="24"/>
+        <v>5052.8803162541199</v>
+      </c>
+      <c r="BO17" s="8">
+        <f t="shared" si="24"/>
+        <v>4951.822709929037</v>
+      </c>
+      <c r="BP17" s="8">
+        <f t="shared" si="24"/>
+        <v>4852.7862557304561</v>
+      </c>
+      <c r="BQ17" s="8">
+        <f t="shared" si="24"/>
+        <v>4755.7305306158469</v>
+      </c>
+      <c r="BR17" s="8">
+        <f t="shared" si="24"/>
+        <v>4660.6159200035299</v>
+      </c>
+      <c r="BS17" s="8">
+        <f t="shared" si="24"/>
+        <v>4567.4036016034588</v>
+      </c>
+      <c r="BT17" s="8">
+        <f t="shared" si="24"/>
+        <v>4476.0555295713893</v>
+      </c>
+      <c r="BU17" s="8">
+        <f t="shared" si="24"/>
+        <v>4386.5344189799616</v>
+      </c>
+      <c r="BV17" s="8">
+        <f t="shared" si="24"/>
+        <v>4298.8037306003625</v>
+      </c>
+      <c r="BW17" s="8">
+        <f t="shared" si="24"/>
+        <v>4212.8276559883552</v>
+      </c>
+      <c r="BX17" s="8">
+        <f t="shared" si="24"/>
+        <v>4128.5711028685882</v>
+      </c>
+      <c r="BY17" s="8">
+        <f t="shared" si="24"/>
+        <v>4045.9996808112164</v>
+      </c>
+      <c r="BZ17" s="8">
+        <f t="shared" si="24"/>
+        <v>3965.0796871949919</v>
+      </c>
+      <c r="CA17" s="8">
+        <f t="shared" si="24"/>
+        <v>3885.778093451092</v>
+      </c>
+      <c r="CB17" s="8">
+        <f t="shared" si="24"/>
+        <v>3808.0625315820703</v>
+      </c>
+      <c r="CC17" s="8">
+        <f t="shared" si="24"/>
+        <v>3731.9012809504288</v>
+      </c>
+      <c r="CD17" s="8">
+        <f t="shared" si="24"/>
+        <v>3657.2632553314202</v>
+      </c>
+      <c r="CE17" s="8">
+        <f t="shared" si="24"/>
+        <v>3584.1179902247918</v>
+      </c>
+      <c r="CF17" s="8">
+        <f t="shared" si="24"/>
+        <v>3512.4356304202961</v>
+      </c>
+      <c r="CG17" s="8">
+        <f t="shared" si="24"/>
+        <v>3442.18691781189</v>
+      </c>
+      <c r="CH17" s="8">
+        <f t="shared" si="24"/>
+        <v>3373.3431794556523</v>
+      </c>
+      <c r="CI17" s="8">
+        <f t="shared" si="24"/>
+        <v>3305.8763158665392</v>
+      </c>
+      <c r="CJ17" s="8">
+        <f t="shared" si="24"/>
+        <v>3239.7587895492084</v>
+      </c>
+      <c r="CK17" s="8">
+        <f t="shared" si="24"/>
+        <v>3174.9636137582243</v>
+      </c>
+      <c r="CL17" s="8">
+        <f t="shared" si="24"/>
+        <v>3111.4643414830598</v>
+      </c>
+      <c r="CM17" s="8">
+        <f t="shared" si="24"/>
+        <v>3049.2350546533985</v>
+      </c>
+      <c r="CN17" s="8">
+        <f t="shared" si="24"/>
+        <v>2988.2503535603305</v>
+      </c>
+      <c r="CO17" s="8">
+        <f t="shared" si="24"/>
+        <v>2928.4853464891239</v>
+      </c>
+      <c r="CP17" s="8">
+        <f t="shared" si="24"/>
+        <v>2869.9156395593413</v>
+      </c>
+      <c r="CQ17" s="8">
+        <f t="shared" si="24"/>
+        <v>2812.5173267681544</v>
+      </c>
+      <c r="CR17" s="8">
+        <f t="shared" si="24"/>
+        <v>2756.2669802327914</v>
+      </c>
+      <c r="CS17" s="8">
+        <f t="shared" si="24"/>
+        <v>2701.1416406281355</v>
+      </c>
+      <c r="CT17" s="8">
+        <f t="shared" si="24"/>
+        <v>2647.1188078155728</v>
+      </c>
+      <c r="CU17" s="8">
+        <f t="shared" si="24"/>
+        <v>2594.1764316592612</v>
+      </c>
+      <c r="CV17" s="8">
+        <f t="shared" si="24"/>
+        <v>2542.2929030260761</v>
+      </c>
+      <c r="CW17" s="8">
+        <f t="shared" si="24"/>
+        <v>2491.4470449655546</v>
+      </c>
+      <c r="CX17" s="8">
+        <f t="shared" si="24"/>
+        <v>2441.6181040662436</v>
+      </c>
+      <c r="CY17" s="8">
+        <f t="shared" si="24"/>
+        <v>2392.7857419849188</v>
+      </c>
+      <c r="CZ17" s="8">
+        <f t="shared" si="24"/>
+        <v>2344.9300271452203</v>
+      </c>
+      <c r="DA17" s="8">
+        <f t="shared" si="24"/>
+        <v>2298.0314266023156</v>
+      </c>
+      <c r="DB17" s="8">
+        <f t="shared" si="24"/>
+        <v>2252.0707980702691</v>
+      </c>
+      <c r="DC17" s="8">
+        <f t="shared" si="24"/>
+        <v>2207.0293821088635</v>
+      </c>
+      <c r="DD17" s="8">
+        <f t="shared" si="24"/>
+        <v>2162.8887944666862</v>
+      </c>
+      <c r="DE17" s="8">
+        <f t="shared" si="24"/>
+        <v>2119.6310185773523</v>
+      </c>
+      <c r="DF17" s="8">
+        <f t="shared" ref="DF17:FQ17" si="25">DE17*(1+$AV$22)</f>
+        <v>2077.238398205805</v>
+      </c>
+      <c r="DG17" s="8">
         <f t="shared" si="25"/>
-        <v>8677.5834682309523</v>
-      </c>
-      <c r="AV17" s="8">
+        <v>2035.6936302416889</v>
+      </c>
+      <c r="DH17" s="8">
         <f t="shared" si="25"/>
-        <v>8504.0317988663337</v>
-      </c>
-      <c r="AW17" s="8">
+        <v>1994.9797576368551</v>
+      </c>
+      <c r="DI17" s="8">
         <f t="shared" si="25"/>
-        <v>8333.9511628890068</v>
-      </c>
-      <c r="AX17" s="8">
+        <v>1955.0801624841179</v>
+      </c>
+      <c r="DJ17" s="8">
         <f t="shared" si="25"/>
-        <v>8167.2721396312263</v>
-      </c>
-      <c r="AY17" s="8">
+        <v>1915.9785592344356</v>
+      </c>
+      <c r="DK17" s="8">
         <f t="shared" si="25"/>
-        <v>8003.9266968386019</v>
-      </c>
-      <c r="AZ17" s="8">
+        <v>1877.6589880497468</v>
+      </c>
+      <c r="DL17" s="8">
         <f t="shared" si="25"/>
-        <v>7843.8481629018297</v>
-      </c>
-      <c r="BA17" s="8">
+        <v>1840.1058082887519</v>
+      </c>
+      <c r="DM17" s="8">
         <f t="shared" si="25"/>
-        <v>7686.9711996437927</v>
-      </c>
-      <c r="BB17" s="8">
+        <v>1803.3036921229768</v>
+      </c>
+      <c r="DN17" s="8">
         <f t="shared" si="25"/>
-        <v>7533.2317756509165</v>
-      </c>
-      <c r="BC17" s="8">
+        <v>1767.2376182805172</v>
+      </c>
+      <c r="DO17" s="8">
         <f t="shared" si="25"/>
-        <v>7382.5671401378977</v>
-      </c>
-      <c r="BD17" s="8">
+        <v>1731.8928659149067</v>
+      </c>
+      <c r="DP17" s="8">
         <f t="shared" si="25"/>
-        <v>7234.9157973351394</v>
-      </c>
-      <c r="BE17" s="8">
+        <v>1697.2550085966086</v>
+      </c>
+      <c r="DQ17" s="8">
         <f t="shared" si="25"/>
-        <v>7090.2174813884367</v>
-      </c>
-      <c r="BF17" s="8">
+        <v>1663.3099084246765</v>
+      </c>
+      <c r="DR17" s="8">
         <f t="shared" si="25"/>
-        <v>6948.413131760668</v>
-      </c>
-      <c r="BG17" s="8">
+        <v>1630.043710256183</v>
+      </c>
+      <c r="DS17" s="8">
         <f t="shared" si="25"/>
-        <v>6809.4448691254547</v>
-      </c>
-      <c r="BH17" s="8">
+        <v>1597.4428360510592</v>
+      </c>
+      <c r="DT17" s="8">
         <f t="shared" si="25"/>
-        <v>6673.2559717429458</v>
-      </c>
-      <c r="BI17" s="8">
+        <v>1565.493979330038</v>
+      </c>
+      <c r="DU17" s="8">
         <f t="shared" si="25"/>
-        <v>6539.7908523080869</v>
-      </c>
-      <c r="BJ17" s="8">
+        <v>1534.1840997434372</v>
+      </c>
+      <c r="DV17" s="8">
         <f t="shared" si="25"/>
-        <v>6408.9950352619253</v>
-      </c>
-      <c r="BK17" s="8">
+        <v>1503.5004177485685</v>
+      </c>
+      <c r="DW17" s="8">
         <f t="shared" si="25"/>
-        <v>6280.8151345566866</v>
-      </c>
-      <c r="BL17" s="8">
+        <v>1473.4304093935971</v>
+      </c>
+      <c r="DX17" s="8">
         <f t="shared" si="25"/>
-        <v>6155.1988318655531</v>
-      </c>
-      <c r="BM17" s="8">
+        <v>1443.9618012057251</v>
+      </c>
+      <c r="DY17" s="8">
         <f t="shared" si="25"/>
-        <v>6032.0948552282416</v>
-      </c>
-      <c r="BN17" s="8">
+        <v>1415.0825651816106</v>
+      </c>
+      <c r="DZ17" s="8">
         <f t="shared" si="25"/>
-        <v>5911.4529581236766</v>
-      </c>
-      <c r="BO17" s="8">
+        <v>1386.7809138779783</v>
+      </c>
+      <c r="EA17" s="8">
         <f t="shared" si="25"/>
-        <v>5793.2238989612033</v>
-      </c>
-      <c r="BP17" s="8">
+        <v>1359.0452956004187</v>
+      </c>
+      <c r="EB17" s="8">
         <f t="shared" si="25"/>
-        <v>5677.3594209819794</v>
-      </c>
-      <c r="BQ17" s="8">
+        <v>1331.8643896884103</v>
+      </c>
+      <c r="EC17" s="8">
         <f t="shared" si="25"/>
-        <v>5563.8122325623399</v>
-      </c>
-      <c r="BR17" s="8">
+        <v>1305.2271018946419</v>
+      </c>
+      <c r="ED17" s="8">
         <f t="shared" si="25"/>
-        <v>5452.5359879110929</v>
-      </c>
-      <c r="BS17" s="8">
+        <v>1279.1225598567491</v>
+      </c>
+      <c r="EE17" s="8">
         <f t="shared" si="25"/>
-        <v>5343.485268152871</v>
-      </c>
-      <c r="BT17" s="8">
+        <v>1253.5401086596141</v>
+      </c>
+      <c r="EF17" s="8">
         <f t="shared" si="25"/>
-        <v>5236.6155627898133</v>
-      </c>
-      <c r="BU17" s="8">
+        <v>1228.4693064864218</v>
+      </c>
+      <c r="EG17" s="8">
         <f t="shared" si="25"/>
-        <v>5131.8832515340173</v>
-      </c>
-      <c r="BV17" s="8">
+        <v>1203.8999203566934</v>
+      </c>
+      <c r="EH17" s="8">
         <f t="shared" si="25"/>
-        <v>5029.2455865033371</v>
-      </c>
-      <c r="BW17" s="8">
+        <v>1179.8219219495595</v>
+      </c>
+      <c r="EI17" s="8">
         <f t="shared" si="25"/>
-        <v>4928.6606747732703</v>
-      </c>
-      <c r="BX17" s="8">
+        <v>1156.2254835105682</v>
+      </c>
+      <c r="EJ17" s="8">
         <f t="shared" si="25"/>
-        <v>4830.0874612778052</v>
-      </c>
-      <c r="BY17" s="8">
+        <v>1133.1009738403568</v>
+      </c>
+      <c r="EK17" s="8">
         <f t="shared" si="25"/>
-        <v>4733.4857120522493</v>
-      </c>
-      <c r="BZ17" s="8">
+        <v>1110.4389543635496</v>
+      </c>
+      <c r="EL17" s="8">
         <f t="shared" si="25"/>
-        <v>4638.8159978112044</v>
-      </c>
-      <c r="CA17" s="8">
+        <v>1088.2301752762785</v>
+      </c>
+      <c r="EM17" s="8">
         <f t="shared" si="25"/>
-        <v>4546.0396778549803</v>
-      </c>
-      <c r="CB17" s="8">
+        <v>1066.4655717707528</v>
+      </c>
+      <c r="EN17" s="8">
         <f t="shared" si="25"/>
-        <v>4455.1188842978809</v>
-      </c>
-      <c r="CC17" s="8">
+        <v>1045.1362603353377</v>
+      </c>
+      <c r="EO17" s="8">
         <f t="shared" si="25"/>
-        <v>4366.0165066119234</v>
-      </c>
-      <c r="CD17" s="8">
+        <v>1024.233535128631</v>
+      </c>
+      <c r="EP17" s="8">
         <f t="shared" si="25"/>
-        <v>4278.6961764796852</v>
-      </c>
-      <c r="CE17" s="8">
+        <v>1003.7488644260584</v>
+      </c>
+      <c r="EQ17" s="8">
         <f t="shared" si="25"/>
-        <v>4193.122252950091</v>
-      </c>
-      <c r="CF17" s="8">
+        <v>983.67388713753724</v>
+      </c>
+      <c r="ER17" s="8">
         <f t="shared" si="25"/>
-        <v>4109.2598078910887</v>
-      </c>
-      <c r="CG17" s="8">
+        <v>964.00040939478652</v>
+      </c>
+      <c r="ES17" s="8">
         <f t="shared" si="25"/>
-        <v>4027.0746117332669</v>
-      </c>
-      <c r="CH17" s="8">
+        <v>944.72040120689076</v>
+      </c>
+      <c r="ET17" s="8">
         <f t="shared" si="25"/>
-        <v>3946.5331194986015</v>
-      </c>
-      <c r="CI17" s="8">
+        <v>925.82599318275288</v>
+      </c>
+      <c r="EU17" s="8">
         <f t="shared" si="25"/>
-        <v>3867.6024571086296</v>
-      </c>
-      <c r="CJ17" s="8">
+        <v>907.30947331909783</v>
+      </c>
+      <c r="EV17" s="8">
         <f t="shared" si="25"/>
-        <v>3790.2504079664568</v>
-      </c>
-      <c r="CK17" s="8">
+        <v>889.16328385271584</v>
+      </c>
+      <c r="EW17" s="8">
         <f t="shared" si="25"/>
-        <v>3714.4453998071276</v>
-      </c>
-      <c r="CL17" s="8">
+        <v>871.38001817566146</v>
+      </c>
+      <c r="EX17" s="8">
         <f t="shared" si="25"/>
-        <v>3640.1564918109848</v>
-      </c>
-      <c r="CM17" s="8">
+        <v>853.95241781214827</v>
+      </c>
+      <c r="EY17" s="8">
         <f t="shared" si="25"/>
-        <v>3567.353361974765</v>
-      </c>
-      <c r="CN17" s="8">
+        <v>836.87336945590528</v>
+      </c>
+      <c r="EZ17" s="8">
         <f t="shared" si="25"/>
-        <v>3496.0062947352694</v>
-      </c>
-      <c r="CO17" s="8">
+        <v>820.13590206678714</v>
+      </c>
+      <c r="FA17" s="8">
         <f t="shared" si="25"/>
-        <v>3426.0861688405639</v>
-      </c>
-      <c r="CP17" s="8">
+        <v>803.73318402545135</v>
+      </c>
+      <c r="FB17" s="8">
         <f t="shared" si="25"/>
-        <v>3357.5644454637527</v>
-      </c>
-      <c r="CQ17" s="8">
+        <v>787.6585203449423</v>
+      </c>
+      <c r="FC17" s="8">
         <f t="shared" si="25"/>
-        <v>3290.4131565544776</v>
-      </c>
-      <c r="CR17" s="8">
+        <v>771.9053499380434</v>
+      </c>
+      <c r="FD17" s="8">
         <f t="shared" si="25"/>
-        <v>3224.6048934233881</v>
-      </c>
-      <c r="CS17" s="8">
+        <v>756.46724293928253</v>
+      </c>
+      <c r="FE17" s="8">
         <f t="shared" si="25"/>
-        <v>3160.1127955549205</v>
-      </c>
-      <c r="CT17" s="8">
+        <v>741.33789808049687</v>
+      </c>
+      <c r="FF17" s="8">
         <f t="shared" si="25"/>
-        <v>3096.9105396438222</v>
-      </c>
-      <c r="CU17" s="8">
+        <v>726.51114011888694</v>
+      </c>
+      <c r="FG17" s="8">
         <f t="shared" si="25"/>
-        <v>3034.9723288509458</v>
-      </c>
-      <c r="CV17" s="8">
+        <v>711.98091731650914</v>
+      </c>
+      <c r="FH17" s="8">
         <f t="shared" si="25"/>
-        <v>2974.2728822739268</v>
-      </c>
-      <c r="CW17" s="8">
+        <v>697.74129897017895</v>
+      </c>
+      <c r="FI17" s="8">
         <f t="shared" si="25"/>
-        <v>2914.7874246284482</v>
-      </c>
-      <c r="CX17" s="8">
+        <v>683.78647299077534</v>
+      </c>
+      <c r="FJ17" s="8">
         <f t="shared" si="25"/>
-        <v>2856.4916761358791</v>
-      </c>
-      <c r="CY17" s="8">
+        <v>670.11074353095978</v>
+      </c>
+      <c r="FK17" s="8">
         <f t="shared" si="25"/>
-        <v>2799.3618426131616</v>
-      </c>
-      <c r="CZ17" s="8">
+        <v>656.70852866034056</v>
+      </c>
+      <c r="FL17" s="8">
         <f t="shared" si="25"/>
-        <v>2743.3746057608982</v>
-      </c>
-      <c r="DA17" s="8">
+        <v>643.57435808713376</v>
+      </c>
+      <c r="FM17" s="8">
         <f t="shared" si="25"/>
-        <v>2688.5071136456804</v>
-      </c>
-      <c r="DB17" s="8">
+        <v>630.70287092539104</v>
+      </c>
+      <c r="FN17" s="8">
         <f t="shared" si="25"/>
-        <v>2634.7369713727667</v>
-      </c>
-      <c r="DC17" s="8">
+        <v>618.08881350688318</v>
+      </c>
+      <c r="FO17" s="8">
         <f t="shared" si="25"/>
-        <v>2582.0422319453114</v>
-      </c>
-      <c r="DD17" s="8">
+        <v>605.72703723674556</v>
+      </c>
+      <c r="FP17" s="8">
         <f t="shared" si="25"/>
-        <v>2530.401387306405</v>
-      </c>
-      <c r="DE17" s="8">
+        <v>593.61249649201068</v>
+      </c>
+      <c r="FQ17" s="8">
         <f t="shared" si="25"/>
-        <v>2479.7933595602767</v>
-      </c>
-      <c r="DF17" s="8">
-        <f t="shared" ref="DF17:FQ17" si="26">DE17*(1+$AV$22)</f>
-        <v>2430.1974923690709</v>
-      </c>
-      <c r="DG17" s="8">
+        <v>581.74024656217046</v>
+      </c>
+      <c r="FR17" s="8">
+        <f t="shared" ref="FR17:IC17" si="26">FQ17*(1+$AV$22)</f>
+        <v>570.10544163092709</v>
+      </c>
+      <c r="FS17" s="8">
         <f t="shared" si="26"/>
-        <v>2381.5935425216894</v>
-      </c>
-      <c r="DH17" s="8">
+        <v>558.70333279830857</v>
+      </c>
+      <c r="FT17" s="8">
         <f t="shared" si="26"/>
-        <v>2333.9616716712558</v>
-      </c>
-      <c r="DI17" s="8">
+        <v>547.52926614234241</v>
+      </c>
+      <c r="FU17" s="8">
         <f t="shared" si="26"/>
-        <v>2287.2824382378308</v>
-      </c>
-      <c r="DJ17" s="8">
+        <v>536.5786808194955</v>
+      </c>
+      <c r="FV17" s="8">
         <f t="shared" si="26"/>
-        <v>2241.5367894730739</v>
-      </c>
-      <c r="DK17" s="8">
+        <v>525.84710720310557</v>
+      </c>
+      <c r="FW17" s="8">
         <f t="shared" si="26"/>
-        <v>2196.7060536836125</v>
-      </c>
-      <c r="DL17" s="8">
+        <v>515.33016505904345</v>
+      </c>
+      <c r="FX17" s="8">
         <f t="shared" si="26"/>
-        <v>2152.77193260994</v>
-      </c>
-      <c r="DM17" s="8">
+        <v>505.02356175786258</v>
+      </c>
+      <c r="FY17" s="8">
         <f t="shared" si="26"/>
-        <v>2109.716493957741</v>
-      </c>
-      <c r="DN17" s="8">
+        <v>494.92309052270531</v>
+      </c>
+      <c r="FZ17" s="8">
         <f t="shared" si="26"/>
-        <v>2067.5221640785862</v>
-      </c>
-      <c r="DO17" s="8">
+        <v>485.02462871225117</v>
+      </c>
+      <c r="GA17" s="8">
         <f t="shared" si="26"/>
-        <v>2026.1717207970144</v>
-      </c>
-      <c r="DP17" s="8">
+        <v>475.32413613800617</v>
+      </c>
+      <c r="GB17" s="8">
         <f t="shared" si="26"/>
-        <v>1985.6482863810741</v>
-      </c>
-      <c r="DQ17" s="8">
+        <v>465.81765341524601</v>
+      </c>
+      <c r="GC17" s="8">
         <f t="shared" si="26"/>
-        <v>1945.9353206534524</v>
-      </c>
-      <c r="DR17" s="8">
+        <v>456.50130034694109</v>
+      </c>
+      <c r="GD17" s="8">
         <f t="shared" si="26"/>
-        <v>1907.0166142403834</v>
-      </c>
-      <c r="DS17" s="8">
+        <v>447.37127434000229</v>
+      </c>
+      <c r="GE17" s="8">
         <f t="shared" si="26"/>
-        <v>1868.8762819555757</v>
-      </c>
-      <c r="DT17" s="8">
+        <v>438.42384885320223</v>
+      </c>
+      <c r="GF17" s="8">
         <f t="shared" si="26"/>
-        <v>1831.4987563164641</v>
-      </c>
-      <c r="DU17" s="8">
+        <v>429.65537187613819</v>
+      </c>
+      <c r="GG17" s="8">
         <f t="shared" si="26"/>
-        <v>1794.8687811901348</v>
-      </c>
-      <c r="DV17" s="8">
+        <v>421.06226443861544</v>
+      </c>
+      <c r="GH17" s="8">
         <f t="shared" si="26"/>
-        <v>1758.9714055663321</v>
-      </c>
-      <c r="DW17" s="8">
+        <v>412.64101914984315</v>
+      </c>
+      <c r="GI17" s="8">
         <f t="shared" si="26"/>
-        <v>1723.7919774550055</v>
-      </c>
-      <c r="DX17" s="8">
+        <v>404.3881987668463</v>
+      </c>
+      <c r="GJ17" s="8">
         <f t="shared" si="26"/>
-        <v>1689.3161379059054</v>
-      </c>
-      <c r="DY17" s="8">
+        <v>396.30043479150936</v>
+      </c>
+      <c r="GK17" s="8">
         <f t="shared" si="26"/>
-        <v>1655.5298151477873</v>
-      </c>
-      <c r="DZ17" s="8">
+        <v>388.37442609567915</v>
+      </c>
+      <c r="GL17" s="8">
         <f t="shared" si="26"/>
-        <v>1622.4192188448314</v>
-      </c>
-      <c r="EA17" s="8">
+        <v>380.60693757376555</v>
+      </c>
+      <c r="GM17" s="8">
         <f t="shared" si="26"/>
-        <v>1589.9708344679348</v>
-      </c>
-      <c r="EB17" s="8">
+        <v>372.99479882229025</v>
+      </c>
+      <c r="GN17" s="8">
         <f t="shared" si="26"/>
-        <v>1558.1714177785761</v>
-      </c>
-      <c r="EC17" s="8">
+        <v>365.53490284584444</v>
+      </c>
+      <c r="GO17" s="8">
         <f t="shared" si="26"/>
-        <v>1527.0079894230046</v>
-      </c>
-      <c r="ED17" s="8">
+        <v>358.22420478892752</v>
+      </c>
+      <c r="GP17" s="8">
         <f t="shared" si="26"/>
-        <v>1496.4678296345444</v>
-      </c>
-      <c r="EE17" s="8">
+        <v>351.05972069314896</v>
+      </c>
+      <c r="GQ17" s="8">
         <f t="shared" si="26"/>
-        <v>1466.5384730418534</v>
-      </c>
-      <c r="EF17" s="8">
+        <v>344.03852627928597</v>
+      </c>
+      <c r="GR17" s="8">
         <f t="shared" si="26"/>
-        <v>1437.2077035810164</v>
-      </c>
-      <c r="EG17" s="8">
+        <v>337.15775575370026</v>
+      </c>
+      <c r="GS17" s="8">
         <f t="shared" si="26"/>
-        <v>1408.463549509396</v>
-      </c>
-      <c r="EH17" s="8">
+        <v>330.41460063862627</v>
+      </c>
+      <c r="GT17" s="8">
         <f t="shared" si="26"/>
-        <v>1380.2942785192081</v>
-      </c>
-      <c r="EI17" s="8">
+        <v>323.80630862585372</v>
+      </c>
+      <c r="GU17" s="8">
         <f t="shared" si="26"/>
-        <v>1352.688392948824</v>
-      </c>
-      <c r="EJ17" s="8">
+        <v>317.33018245333665</v>
+      </c>
+      <c r="GV17" s="8">
         <f t="shared" si="26"/>
-        <v>1325.6346250898475</v>
-      </c>
-      <c r="EK17" s="8">
+        <v>310.98357880426988</v>
+      </c>
+      <c r="GW17" s="8">
         <f t="shared" si="26"/>
-        <v>1299.1219325880506</v>
-      </c>
-      <c r="EL17" s="8">
+        <v>304.76390722818451</v>
+      </c>
+      <c r="GX17" s="8">
         <f t="shared" si="26"/>
-        <v>1273.1394939362897</v>
-      </c>
-      <c r="EM17" s="8">
+        <v>298.66862908362083</v>
+      </c>
+      <c r="GY17" s="8">
         <f t="shared" si="26"/>
-        <v>1247.6767040575639</v>
-      </c>
-      <c r="EN17" s="8">
+        <v>292.69525650194839</v>
+      </c>
+      <c r="GZ17" s="8">
         <f t="shared" si="26"/>
-        <v>1222.7231699764127</v>
-      </c>
-      <c r="EO17" s="8">
+        <v>286.84135137190941</v>
+      </c>
+      <c r="HA17" s="8">
         <f t="shared" si="26"/>
-        <v>1198.2687065768844</v>
-      </c>
-      <c r="EP17" s="8">
+        <v>281.1045243444712</v>
+      </c>
+      <c r="HB17" s="8">
         <f t="shared" si="26"/>
-        <v>1174.3033324453468</v>
-      </c>
-      <c r="EQ17" s="8">
+        <v>275.48243385758178</v>
+      </c>
+      <c r="HC17" s="8">
         <f t="shared" si="26"/>
-        <v>1150.8172657964399</v>
-      </c>
-      <c r="ER17" s="8">
+        <v>269.97278518043015</v>
+      </c>
+      <c r="HD17" s="8">
         <f t="shared" si="26"/>
-        <v>1127.800920480511</v>
-      </c>
-      <c r="ES17" s="8">
+        <v>264.57332947682153</v>
+      </c>
+      <c r="HE17" s="8">
         <f t="shared" si="26"/>
-        <v>1105.2449020709007</v>
-      </c>
-      <c r="ET17" s="8">
+        <v>259.28186288728511</v>
+      </c>
+      <c r="HF17" s="8">
         <f t="shared" si="26"/>
-        <v>1083.1400040294827</v>
-      </c>
-      <c r="EU17" s="8">
+        <v>254.09622562953942</v>
+      </c>
+      <c r="HG17" s="8">
         <f t="shared" si="26"/>
-        <v>1061.477203948893</v>
-      </c>
-      <c r="EV17" s="8">
+        <v>249.01430111694862</v>
+      </c>
+      <c r="HH17" s="8">
         <f t="shared" si="26"/>
-        <v>1040.2476598699152</v>
-      </c>
-      <c r="EW17" s="8">
+        <v>244.03401509460963</v>
+      </c>
+      <c r="HI17" s="8">
         <f t="shared" si="26"/>
-        <v>1019.4427066725169</v>
-      </c>
-      <c r="EX17" s="8">
+        <v>239.15333479271743</v>
+      </c>
+      <c r="HJ17" s="8">
         <f t="shared" si="26"/>
-        <v>999.05385253906661</v>
-      </c>
-      <c r="EY17" s="8">
+        <v>234.37026809686307</v>
+      </c>
+      <c r="HK17" s="8">
         <f t="shared" si="26"/>
-        <v>979.07277548828529</v>
-      </c>
-      <c r="EZ17" s="8">
+        <v>229.68286273492581</v>
+      </c>
+      <c r="HL17" s="8">
         <f t="shared" si="26"/>
-        <v>959.49131997851953</v>
-      </c>
-      <c r="FA17" s="8">
+        <v>225.08920548022729</v>
+      </c>
+      <c r="HM17" s="8">
         <f t="shared" si="26"/>
-        <v>940.30149357894913</v>
-      </c>
-      <c r="FB17" s="8">
+        <v>220.58742137062274</v>
+      </c>
+      <c r="HN17" s="8">
         <f t="shared" si="26"/>
-        <v>921.49546370737016</v>
-      </c>
-      <c r="FC17" s="8">
+        <v>216.17567294321029</v>
+      </c>
+      <c r="HO17" s="8">
         <f t="shared" si="26"/>
-        <v>903.0655544332227</v>
-      </c>
-      <c r="FD17" s="8">
+        <v>211.85215948434609</v>
+      </c>
+      <c r="HP17" s="8">
         <f t="shared" si="26"/>
-        <v>885.00424334455818</v>
-      </c>
-      <c r="FE17" s="8">
+        <v>207.61511629465917</v>
+      </c>
+      <c r="HQ17" s="8">
         <f t="shared" si="26"/>
-        <v>867.30415847766699</v>
-      </c>
-      <c r="FF17" s="8">
+        <v>203.462813968766</v>
+      </c>
+      <c r="HR17" s="8">
         <f t="shared" si="26"/>
-        <v>849.95807530811362</v>
-      </c>
-      <c r="FG17" s="8">
+        <v>199.39355768939069</v>
+      </c>
+      <c r="HS17" s="8">
         <f t="shared" si="26"/>
-        <v>832.95891380195133</v>
-      </c>
-      <c r="FH17" s="8">
+        <v>195.40568653560288</v>
+      </c>
+      <c r="HT17" s="8">
         <f t="shared" si="26"/>
-        <v>816.2997355259123</v>
-      </c>
-      <c r="FI17" s="8">
+        <v>191.49757280489081</v>
+      </c>
+      <c r="HU17" s="8">
         <f t="shared" si="26"/>
-        <v>799.97374081539408</v>
-      </c>
-      <c r="FJ17" s="8">
+        <v>187.66762134879298</v>
+      </c>
+      <c r="HV17" s="8">
         <f t="shared" si="26"/>
-        <v>783.97426599908613</v>
-      </c>
-      <c r="FK17" s="8">
+        <v>183.91426892181713</v>
+      </c>
+      <c r="HW17" s="8">
         <f t="shared" si="26"/>
-        <v>768.29478067910441</v>
-      </c>
-      <c r="FL17" s="8">
+        <v>180.23598354338077</v>
+      </c>
+      <c r="HX17" s="8">
         <f t="shared" si="26"/>
-        <v>752.92888506552231</v>
-      </c>
-      <c r="FM17" s="8">
+        <v>176.63126387251316</v>
+      </c>
+      <c r="HY17" s="8">
         <f t="shared" si="26"/>
-        <v>737.87030736421184</v>
-      </c>
-      <c r="FN17" s="8">
+        <v>173.09863859506288</v>
+      </c>
+      <c r="HZ17" s="8">
         <f t="shared" si="26"/>
-        <v>723.11290121692764</v>
-      </c>
-      <c r="FO17" s="8">
+        <v>169.63666582316162</v>
+      </c>
+      <c r="IA17" s="8">
         <f t="shared" si="26"/>
-        <v>708.65064319258909</v>
-      </c>
-      <c r="FP17" s="8">
+        <v>166.2439325066984</v>
+      </c>
+      <c r="IB17" s="8">
         <f t="shared" si="26"/>
-        <v>694.47763032873729</v>
-      </c>
-      <c r="FQ17" s="8">
+        <v>162.91905385656443</v>
+      </c>
+      <c r="IC17" s="8">
         <f t="shared" si="26"/>
-        <v>680.58807772216255</v>
-      </c>
-      <c r="FR17" s="8">
-        <f t="shared" ref="FR17:IC17" si="27">FQ17*(1+$AV$22)</f>
-        <v>666.97631616771923</v>
-      </c>
-      <c r="FS17" s="8">
+        <v>159.66067277943313</v>
+      </c>
+      <c r="ID17" s="8">
+        <f t="shared" ref="ID17:KO17" si="27">IC17*(1+$AV$22)</f>
+        <v>156.46745932384445</v>
+      </c>
+      <c r="IE17" s="8">
         <f t="shared" si="27"/>
-        <v>653.63678984436478</v>
-      </c>
-      <c r="FT17" s="8">
+        <v>153.33811013736755</v>
+      </c>
+      <c r="IF17" s="8">
         <f t="shared" si="27"/>
-        <v>640.5640540474775</v>
-      </c>
-      <c r="FU17" s="8">
+        <v>150.2713479346202</v>
+      </c>
+      <c r="IG17" s="8">
         <f t="shared" si="27"/>
-        <v>627.75277296652791</v>
-      </c>
-      <c r="FV17" s="8">
+        <v>147.2659209759278</v>
+      </c>
+      <c r="IH17" s="8">
         <f t="shared" si="27"/>
-        <v>615.19771750719735</v>
-      </c>
-      <c r="FW17" s="8">
+        <v>144.32060255640923</v>
+      </c>
+      <c r="II17" s="8">
         <f t="shared" si="27"/>
-        <v>602.8937631570534</v>
-      </c>
-      <c r="FX17" s="8">
+        <v>141.43419050528104</v>
+      </c>
+      <c r="IJ17" s="8">
         <f t="shared" si="27"/>
-        <v>590.83588789391229</v>
-      </c>
-      <c r="FY17" s="8">
+        <v>138.60550669517542</v>
+      </c>
+      <c r="IK17" s="8">
         <f t="shared" si="27"/>
-        <v>579.01917013603406</v>
-      </c>
-      <c r="FZ17" s="8">
+        <v>135.83339656127191</v>
+      </c>
+      <c r="IL17" s="8">
         <f t="shared" si="27"/>
-        <v>567.43878673331335</v>
-      </c>
-      <c r="GA17" s="8">
+        <v>133.11672863004648</v>
+      </c>
+      <c r="IM17" s="8">
         <f t="shared" si="27"/>
-        <v>556.09001099864702</v>
-      </c>
-      <c r="GB17" s="8">
+        <v>130.45439405744554</v>
+      </c>
+      <c r="IN17" s="8">
         <f t="shared" si="27"/>
-        <v>544.96821077867412</v>
-      </c>
-      <c r="GC17" s="8">
+        <v>127.84530617629663</v>
+      </c>
+      <c r="IO17" s="8">
         <f t="shared" si="27"/>
-        <v>534.06884656310058</v>
-      </c>
-      <c r="GD17" s="8">
+        <v>125.2884000527707</v>
+      </c>
+      <c r="IP17" s="8">
         <f t="shared" si="27"/>
-        <v>523.3874696318386</v>
-      </c>
-      <c r="GE17" s="8">
+        <v>122.78263205171528</v>
+      </c>
+      <c r="IQ17" s="8">
         <f t="shared" si="27"/>
-        <v>512.91972023920187</v>
-      </c>
-      <c r="GF17" s="8">
+        <v>120.32697941068098</v>
+      </c>
+      <c r="IR17" s="8">
         <f t="shared" si="27"/>
-        <v>502.66132583441782</v>
-      </c>
-      <c r="GG17" s="8">
+        <v>117.92043982246736</v>
+      </c>
+      <c r="IS17" s="8">
         <f t="shared" si="27"/>
-        <v>492.60809931772945</v>
-      </c>
-      <c r="GH17" s="8">
+        <v>115.562031026018</v>
+      </c>
+      <c r="IT17" s="8">
         <f t="shared" si="27"/>
-        <v>482.75593733137487</v>
-      </c>
-      <c r="GI17" s="8">
+        <v>113.25079040549764</v>
+      </c>
+      <c r="IU17" s="8">
         <f t="shared" si="27"/>
-        <v>473.10081858474734</v>
-      </c>
-      <c r="GJ17" s="8">
+        <v>110.98577459738769</v>
+      </c>
+      <c r="IV17" s="8">
         <f t="shared" si="27"/>
-        <v>463.63880221305237</v>
-      </c>
-      <c r="GK17" s="8">
+        <v>108.76605910543994</v>
+      </c>
+      <c r="IW17" s="8">
         <f t="shared" si="27"/>
-        <v>454.36602616879134</v>
-      </c>
-      <c r="GL17" s="8">
+        <v>106.59073792333113</v>
+      </c>
+      <c r="IX17" s="8">
         <f t="shared" si="27"/>
-        <v>445.27870564541553</v>
-      </c>
-      <c r="GM17" s="8">
+        <v>104.45892316486452</v>
+      </c>
+      <c r="IY17" s="8">
         <f t="shared" si="27"/>
-        <v>436.37313153250722</v>
-      </c>
-      <c r="GN17" s="8">
+        <v>102.36974470156723</v>
+      </c>
+      <c r="IZ17" s="8">
         <f t="shared" si="27"/>
-        <v>427.64566890185705</v>
-      </c>
-      <c r="GO17" s="8">
+        <v>100.32234980753589</v>
+      </c>
+      <c r="JA17" s="8">
         <f t="shared" si="27"/>
-        <v>419.0927555238199</v>
-      </c>
-      <c r="GP17" s="8">
+        <v>98.315902811385172</v>
+      </c>
+      <c r="JB17" s="8">
         <f t="shared" si="27"/>
-        <v>410.7109004133435</v>
-      </c>
-      <c r="GQ17" s="8">
+        <v>96.349584755157466</v>
+      </c>
+      <c r="JC17" s="8">
         <f t="shared" si="27"/>
-        <v>402.49668240507663</v>
-      </c>
-      <c r="GR17" s="8">
+        <v>94.422593060054311</v>
+      </c>
+      <c r="JD17" s="8">
         <f t="shared" si="27"/>
-        <v>394.44674875697507</v>
-      </c>
-      <c r="GS17" s="8">
+        <v>92.53414119885322</v>
+      </c>
+      <c r="JE17" s="8">
         <f t="shared" si="27"/>
-        <v>386.55781378183553</v>
-      </c>
-      <c r="GT17" s="8">
+        <v>90.683458374876153</v>
+      </c>
+      <c r="JF17" s="8">
         <f t="shared" si="27"/>
-        <v>378.82665750619884</v>
-      </c>
-      <c r="GU17" s="8">
+        <v>88.869789207378631</v>
+      </c>
+      <c r="JG17" s="8">
         <f t="shared" si="27"/>
-        <v>371.25012435607488</v>
-      </c>
-      <c r="GV17" s="8">
+        <v>87.092393423231059</v>
+      </c>
+      <c r="JH17" s="8">
         <f t="shared" si="27"/>
-        <v>363.82512186895337</v>
-      </c>
-      <c r="GW17" s="8">
+        <v>85.350545554766441</v>
+      </c>
+      <c r="JI17" s="8">
         <f t="shared" si="27"/>
-        <v>356.54861943157431</v>
-      </c>
-      <c r="GX17" s="8">
+        <v>83.643534643671117</v>
+      </c>
+      <c r="JJ17" s="8">
         <f t="shared" si="27"/>
-        <v>349.4176470429428</v>
-      </c>
-      <c r="GY17" s="8">
+        <v>81.9706639507977</v>
+      </c>
+      <c r="JK17" s="8">
         <f t="shared" si="27"/>
-        <v>342.42929410208393</v>
-      </c>
-      <c r="GZ17" s="8">
+        <v>80.331250671781746</v>
+      </c>
+      <c r="JL17" s="8">
         <f t="shared" si="27"/>
-        <v>335.58070822004225</v>
-      </c>
-      <c r="HA17" s="8">
+        <v>78.724625658346113</v>
+      </c>
+      <c r="JM17" s="8">
         <f t="shared" si="27"/>
-        <v>328.86909405564143</v>
-      </c>
-      <c r="HB17" s="8">
+        <v>77.150133145179183</v>
+      </c>
+      <c r="JN17" s="8">
         <f t="shared" si="27"/>
-        <v>322.29171217452858</v>
-      </c>
-      <c r="HC17" s="8">
+        <v>75.607130482275593</v>
+      </c>
+      <c r="JO17" s="8">
         <f t="shared" si="27"/>
-        <v>315.84587793103799</v>
-      </c>
-      <c r="HD17" s="8">
+        <v>74.094987872630085</v>
+      </c>
+      <c r="JP17" s="8">
         <f t="shared" si="27"/>
-        <v>309.5289603724172</v>
-      </c>
-      <c r="HE17" s="8">
+        <v>72.613088115177476</v>
+      </c>
+      <c r="JQ17" s="8">
         <f t="shared" si="27"/>
-        <v>303.33838116496884</v>
-      </c>
-      <c r="HF17" s="8">
+        <v>71.160826352873926</v>
+      </c>
+      <c r="JR17" s="8">
         <f t="shared" si="27"/>
-        <v>297.27161354166947</v>
-      </c>
-      <c r="HG17" s="8">
+        <v>69.737609825816449</v>
+      </c>
+      <c r="JS17" s="8">
         <f t="shared" si="27"/>
-        <v>291.32618127083606</v>
-      </c>
-      <c r="HH17" s="8">
+        <v>68.342857629300113</v>
+      </c>
+      <c r="JT17" s="8">
         <f t="shared" si="27"/>
-        <v>285.49965764541935</v>
-      </c>
-      <c r="HI17" s="8">
+        <v>66.976000476714106</v>
+      </c>
+      <c r="JU17" s="8">
         <f t="shared" si="27"/>
-        <v>279.78966449251095</v>
-      </c>
-      <c r="HJ17" s="8">
+        <v>65.636480467179823</v>
+      </c>
+      <c r="JV17" s="8">
         <f t="shared" si="27"/>
-        <v>274.19387120266072</v>
-      </c>
-      <c r="HK17" s="8">
+        <v>64.323750857836231</v>
+      </c>
+      <c r="JW17" s="8">
         <f t="shared" si="27"/>
-        <v>268.7099937786075</v>
-      </c>
-      <c r="HL17" s="8">
+        <v>63.037275840679506</v>
+      </c>
+      <c r="JX17" s="8">
         <f t="shared" si="27"/>
-        <v>263.33579390303532</v>
-      </c>
-      <c r="HM17" s="8">
+        <v>61.776530323865913</v>
+      </c>
+      <c r="JY17" s="8">
         <f t="shared" si="27"/>
-        <v>258.0690780249746</v>
-      </c>
-      <c r="HN17" s="8">
+        <v>60.540999717388594</v>
+      </c>
+      <c r="JZ17" s="8">
         <f t="shared" si="27"/>
-        <v>252.90769646447509</v>
-      </c>
-      <c r="HO17" s="8">
+        <v>59.330179723040821</v>
+      </c>
+      <c r="KA17" s="8">
         <f t="shared" si="27"/>
-        <v>247.84954253518558</v>
-      </c>
-      <c r="HP17" s="8">
+        <v>58.143576128580001</v>
+      </c>
+      <c r="KB17" s="8">
         <f t="shared" si="27"/>
-        <v>242.89255168448187</v>
-      </c>
-      <c r="HQ17" s="8">
+        <v>56.980704606008402</v>
+      </c>
+      <c r="KC17" s="8">
         <f t="shared" si="27"/>
-        <v>238.03470065079222</v>
-      </c>
-      <c r="HR17" s="8">
+        <v>55.841090513888233</v>
+      </c>
+      <c r="KD17" s="8">
         <f t="shared" si="27"/>
-        <v>233.27400663777638</v>
-      </c>
-      <c r="HS17" s="8">
+        <v>54.72426870361047</v>
+      </c>
+      <c r="KE17" s="8">
         <f t="shared" si="27"/>
-        <v>228.60852650502085</v>
-      </c>
-      <c r="HT17" s="8">
+        <v>53.629783329538256</v>
+      </c>
+      <c r="KF17" s="8">
         <f t="shared" si="27"/>
-        <v>224.03635597492044</v>
-      </c>
-      <c r="HU17" s="8">
+        <v>52.557187662947491</v>
+      </c>
+      <c r="KG17" s="8">
         <f t="shared" si="27"/>
-        <v>219.55562885542201</v>
-      </c>
-      <c r="HV17" s="8">
+        <v>51.506043909688543</v>
+      </c>
+      <c r="KH17" s="8">
         <f t="shared" si="27"/>
-        <v>215.16451627831358</v>
-      </c>
-      <c r="HW17" s="8">
+        <v>50.475923031494773</v>
+      </c>
+      <c r="KI17" s="8">
         <f t="shared" si="27"/>
-        <v>210.8612259527473</v>
-      </c>
-      <c r="HX17" s="8">
+        <v>49.466404570864874</v>
+      </c>
+      <c r="KJ17" s="8">
         <f t="shared" si="27"/>
-        <v>206.64400143369235</v>
-      </c>
-      <c r="HY17" s="8">
+        <v>48.477076479447575</v>
+      </c>
+      <c r="KK17" s="8">
         <f t="shared" si="27"/>
-        <v>202.51112140501851</v>
-      </c>
-      <c r="HZ17" s="8">
+        <v>47.507534949858623</v>
+      </c>
+      <c r="KL17" s="8">
         <f t="shared" si="27"/>
-        <v>198.46089897691814</v>
-      </c>
-      <c r="IA17" s="8">
+        <v>46.557384250861453</v>
+      </c>
+      <c r="KM17" s="8">
         <f t="shared" si="27"/>
-        <v>194.49168099737977</v>
-      </c>
-      <c r="IB17" s="8">
+        <v>45.626236565844223</v>
+      </c>
+      <c r="KN17" s="8">
         <f t="shared" si="27"/>
-        <v>190.60184737743216</v>
-      </c>
-      <c r="IC17" s="8">
+        <v>44.713711834527338</v>
+      </c>
+      <c r="KO17" s="8">
         <f t="shared" si="27"/>
-        <v>186.78981042988352</v>
-      </c>
-      <c r="ID17" s="8">
-        <f t="shared" ref="ID17:KO17" si="28">IC17*(1+$AV$22)</f>
-        <v>183.05401422128585</v>
-      </c>
-      <c r="IE17" s="8">
+        <v>43.819437597836789</v>
+      </c>
+      <c r="KP17" s="8">
+        <f t="shared" ref="KP17:NA17" si="28">KO17*(1+$AV$22)</f>
+        <v>42.94304884588005</v>
+      </c>
+      <c r="KQ17" s="8">
         <f t="shared" si="28"/>
-        <v>179.39293393686015</v>
-      </c>
-      <c r="IF17" s="8">
+        <v>42.084187868962445</v>
+      </c>
+      <c r="KR17" s="8">
         <f t="shared" si="28"/>
-        <v>175.80507525812294</v>
-      </c>
-      <c r="IG17" s="8">
+        <v>41.242504111583195</v>
+      </c>
+      <c r="KS17" s="8">
         <f t="shared" si="28"/>
-        <v>172.28897375296049</v>
-      </c>
-      <c r="IH17" s="8">
+        <v>40.417654029351532</v>
+      </c>
+      <c r="KT17" s="8">
         <f t="shared" si="28"/>
-        <v>168.84319427790126</v>
-      </c>
-      <c r="II17" s="8">
+        <v>39.609300948764499</v>
+      </c>
+      <c r="KU17" s="8">
         <f t="shared" si="28"/>
-        <v>165.46633039234322</v>
-      </c>
-      <c r="IJ17" s="8">
+        <v>38.817114929789206</v>
+      </c>
+      <c r="KV17" s="8">
         <f t="shared" si="28"/>
-        <v>162.15700378449637</v>
-      </c>
-      <c r="IK17" s="8">
+        <v>38.04077263119342</v>
+      </c>
+      <c r="KW17" s="8">
         <f t="shared" si="28"/>
-        <v>158.91386370880645</v>
-      </c>
-      <c r="IL17" s="8">
+        <v>37.279957178569553</v>
+      </c>
+      <c r="KX17" s="8">
         <f t="shared" si="28"/>
-        <v>155.73558643463031</v>
-      </c>
-      <c r="IM17" s="8">
+        <v>36.534358034998164</v>
+      </c>
+      <c r="KY17" s="8">
         <f t="shared" si="28"/>
-        <v>152.62087470593769</v>
-      </c>
-      <c r="IN17" s="8">
+        <v>35.803670874298199</v>
+      </c>
+      <c r="KZ17" s="8">
         <f t="shared" si="28"/>
-        <v>149.56845721181895</v>
-      </c>
-      <c r="IO17" s="8">
+        <v>35.087597456812233</v>
+      </c>
+      <c r="LA17" s="8">
         <f t="shared" si="28"/>
-        <v>146.57708806758257</v>
-      </c>
-      <c r="IP17" s="8">
+        <v>34.385845507675988</v>
+      </c>
+      <c r="LB17" s="8">
         <f t="shared" si="28"/>
-        <v>143.6455463062309</v>
-      </c>
-      <c r="IQ17" s="8">
+        <v>33.698128597522469</v>
+      </c>
+      <c r="LC17" s="8">
         <f t="shared" si="28"/>
-        <v>140.77263538010627</v>
-      </c>
-      <c r="IR17" s="8">
+        <v>33.024166025572022</v>
+      </c>
+      <c r="LD17" s="8">
         <f t="shared" si="28"/>
-        <v>137.95718267250413</v>
-      </c>
-      <c r="IS17" s="8">
+        <v>32.363682705060583</v>
+      </c>
+      <c r="LE17" s="8">
         <f t="shared" si="28"/>
-        <v>135.19803901905405</v>
-      </c>
-      <c r="IT17" s="8">
+        <v>31.716409050959371</v>
+      </c>
+      <c r="LF17" s="8">
         <f t="shared" si="28"/>
-        <v>132.49407823867296</v>
-      </c>
-      <c r="IU17" s="8">
+        <v>31.082080869940182</v>
+      </c>
+      <c r="LG17" s="8">
         <f t="shared" si="28"/>
-        <v>129.84419667389949</v>
-      </c>
-      <c r="IV17" s="8">
+        <v>30.460439252541377</v>
+      </c>
+      <c r="LH17" s="8">
         <f t="shared" si="28"/>
-        <v>127.24731274042149</v>
-      </c>
-      <c r="IW17" s="8">
+        <v>29.851230467490549</v>
+      </c>
+      <c r="LI17" s="8">
         <f t="shared" si="28"/>
-        <v>124.70236648561306</v>
-      </c>
-      <c r="IX17" s="8">
+        <v>29.254205858140736</v>
+      </c>
+      <c r="LJ17" s="8">
         <f t="shared" si="28"/>
-        <v>122.2083191559008</v>
-      </c>
-      <c r="IY17" s="8">
+        <v>28.669121740977921</v>
+      </c>
+      <c r="LK17" s="8">
         <f t="shared" si="28"/>
-        <v>119.76415277278278</v>
-      </c>
-      <c r="IZ17" s="8">
+        <v>28.095739306158361</v>
+      </c>
+      <c r="LL17" s="8">
         <f t="shared" si="28"/>
-        <v>117.36886971732712</v>
-      </c>
-      <c r="JA17" s="8">
+        <v>27.533824520035193</v>
+      </c>
+      <c r="LM17" s="8">
         <f t="shared" si="28"/>
-        <v>115.02149232298058</v>
-      </c>
-      <c r="JB17" s="8">
+        <v>26.983148029634489</v>
+      </c>
+      <c r="LN17" s="8">
         <f t="shared" si="28"/>
-        <v>112.72106247652097</v>
-      </c>
-      <c r="JC17" s="8">
+        <v>26.443485069041799</v>
+      </c>
+      <c r="LO17" s="8">
         <f t="shared" si="28"/>
-        <v>110.46664122699055</v>
-      </c>
-      <c r="JD17" s="8">
+        <v>25.914615367660961</v>
+      </c>
+      <c r="LP17" s="8">
         <f t="shared" si="28"/>
-        <v>108.25730840245073</v>
-      </c>
-      <c r="JE17" s="8">
+        <v>25.39632306030774</v>
+      </c>
+      <c r="LQ17" s="8">
         <f t="shared" si="28"/>
-        <v>106.09216223440171</v>
-      </c>
-      <c r="JF17" s="8">
+        <v>24.888396599101586</v>
+      </c>
+      <c r="LR17" s="8">
         <f t="shared" si="28"/>
-        <v>103.97031898971368</v>
-      </c>
-      <c r="JG17" s="8">
+        <v>24.390628667119554</v>
+      </c>
+      <c r="LS17" s="8">
         <f t="shared" si="28"/>
-        <v>101.8909126099194</v>
-      </c>
-      <c r="JH17" s="8">
+        <v>23.902816093777162</v>
+      </c>
+      <c r="LT17" s="8">
         <f t="shared" si="28"/>
-        <v>99.853094357721005</v>
-      </c>
-      <c r="JI17" s="8">
+        <v>23.424759771901616</v>
+      </c>
+      <c r="LU17" s="8">
         <f t="shared" si="28"/>
-        <v>97.856032470566589</v>
-      </c>
-      <c r="JJ17" s="8">
+        <v>22.956264576463585</v>
+      </c>
+      <c r="LV17" s="8">
         <f t="shared" si="28"/>
-        <v>95.898911821155252</v>
-      </c>
-      <c r="JK17" s="8">
+        <v>22.497139284934313</v>
+      </c>
+      <c r="LW17" s="8">
         <f t="shared" si="28"/>
-        <v>93.980933584732142</v>
-      </c>
-      <c r="JL17" s="8">
+        <v>22.047196499235625</v>
+      </c>
+      <c r="LX17" s="8">
         <f t="shared" si="28"/>
-        <v>92.101314913037498</v>
-      </c>
-      <c r="JM17" s="8">
+        <v>21.606252569250913</v>
+      </c>
+      <c r="LY17" s="8">
         <f t="shared" si="28"/>
-        <v>90.25928861477675</v>
-      </c>
-      <c r="JN17" s="8">
+        <v>21.174127517865895</v>
+      </c>
+      <c r="LZ17" s="8">
         <f t="shared" si="28"/>
-        <v>88.45410284248122</v>
-      </c>
-      <c r="JO17" s="8">
+        <v>20.750644967508578</v>
+      </c>
+      <c r="MA17" s="8">
         <f t="shared" si="28"/>
-        <v>86.685020785631593</v>
-      </c>
-      <c r="JP17" s="8">
+        <v>20.335632068158407</v>
+      </c>
+      <c r="MB17" s="8">
         <f t="shared" si="28"/>
-        <v>84.95132036991896</v>
-      </c>
-      <c r="JQ17" s="8">
+        <v>19.92891942679524</v>
+      </c>
+      <c r="MC17" s="8">
         <f t="shared" si="28"/>
-        <v>83.252293962520582</v>
-      </c>
-      <c r="JR17" s="8">
+        <v>19.530341038259333</v>
+      </c>
+      <c r="MD17" s="8">
         <f t="shared" si="28"/>
-        <v>81.587248083270168</v>
-      </c>
-      <c r="JS17" s="8">
+        <v>19.139734217494148</v>
+      </c>
+      <c r="ME17" s="8">
         <f t="shared" si="28"/>
-        <v>79.955503121604764</v>
-      </c>
-      <c r="JT17" s="8">
+        <v>18.756939533144266</v>
+      </c>
+      <c r="MF17" s="8">
         <f t="shared" si="28"/>
-        <v>78.35639305917266</v>
-      </c>
-      <c r="JU17" s="8">
+        <v>18.381800742481381</v>
+      </c>
+      <c r="MG17" s="8">
         <f t="shared" si="28"/>
-        <v>76.789265197989209</v>
-      </c>
-      <c r="JV17" s="8">
+        <v>18.014164727631755</v>
+      </c>
+      <c r="MH17" s="8">
         <f t="shared" si="28"/>
-        <v>75.253479894029425</v>
-      </c>
-      <c r="JW17" s="8">
+        <v>17.653881433079121</v>
+      </c>
+      <c r="MI17" s="8">
         <f t="shared" si="28"/>
-        <v>73.748410296148833</v>
-      </c>
-      <c r="JX17" s="8">
+        <v>17.300803804417537</v>
+      </c>
+      <c r="MJ17" s="8">
         <f t="shared" si="28"/>
-        <v>72.273442090225856</v>
-      </c>
-      <c r="JY17" s="8">
+        <v>16.954787728329187</v>
+      </c>
+      <c r="MK17" s="8">
         <f t="shared" si="28"/>
-        <v>70.827973248421344</v>
-      </c>
-      <c r="JZ17" s="8">
+        <v>16.615691973762601</v>
+      </c>
+      <c r="ML17" s="8">
         <f t="shared" si="28"/>
-        <v>69.411413783452915</v>
-      </c>
-      <c r="KA17" s="8">
+        <v>16.28337813428735</v>
+      </c>
+      <c r="MM17" s="8">
         <f t="shared" si="28"/>
-        <v>68.02318550778385</v>
-      </c>
-      <c r="KB17" s="8">
+        <v>15.957710571601602</v>
+      </c>
+      <c r="MN17" s="8">
         <f t="shared" si="28"/>
-        <v>66.662721797628166</v>
-      </c>
-      <c r="KC17" s="8">
+        <v>15.63855636016957</v>
+      </c>
+      <c r="MO17" s="8">
         <f t="shared" si="28"/>
-        <v>65.329467361675597</v>
-      </c>
-      <c r="KD17" s="8">
+        <v>15.325785232966178</v>
+      </c>
+      <c r="MP17" s="8">
         <f t="shared" si="28"/>
-        <v>64.022878014442085</v>
-      </c>
-      <c r="KE17" s="8">
+        <v>15.019269528306854</v>
+      </c>
+      <c r="MQ17" s="8">
         <f t="shared" si="28"/>
-        <v>62.74242045415324</v>
-      </c>
-      <c r="KF17" s="8">
+        <v>14.718884137740716</v>
+      </c>
+      <c r="MR17" s="8">
         <f t="shared" si="28"/>
-        <v>61.487572045070173</v>
-      </c>
-      <c r="KG17" s="8">
+        <v>14.424506454985901</v>
+      </c>
+      <c r="MS17" s="8">
         <f t="shared" si="28"/>
-        <v>60.257820604168771</v>
-      </c>
-      <c r="KH17" s="8">
+        <v>14.136016325886182</v>
+      </c>
+      <c r="MT17" s="8">
         <f t="shared" si="28"/>
-        <v>59.052664192085395</v>
-      </c>
-      <c r="KI17" s="8">
+        <v>13.853295999368457</v>
+      </c>
+      <c r="MU17" s="8">
         <f t="shared" si="28"/>
-        <v>57.871610908243689</v>
-      </c>
-      <c r="KJ17" s="8">
+        <v>13.576230079381087</v>
+      </c>
+      <c r="MV17" s="8">
         <f t="shared" si="28"/>
-        <v>56.714178690078811</v>
-      </c>
-      <c r="KK17" s="8">
+        <v>13.304705477793465</v>
+      </c>
+      <c r="MW17" s="8">
         <f t="shared" si="28"/>
-        <v>55.579895116277235</v>
-      </c>
-      <c r="KL17" s="8">
+        <v>13.038611368237596</v>
+      </c>
+      <c r="MX17" s="8">
         <f t="shared" si="28"/>
-        <v>54.468297213951686</v>
-      </c>
-      <c r="KM17" s="8">
+        <v>12.777839140872844</v>
+      </c>
+      <c r="MY17" s="8">
         <f t="shared" si="28"/>
-        <v>53.378931269672648</v>
-      </c>
-      <c r="KN17" s="8">
+        <v>12.522282358055387</v>
+      </c>
+      <c r="MZ17" s="8">
         <f t="shared" si="28"/>
-        <v>52.311352644279197</v>
-      </c>
-      <c r="KO17" s="8">
+        <v>12.271836710894279</v>
+      </c>
+      <c r="NA17" s="8">
         <f t="shared" si="28"/>
-        <v>51.265125591393613</v>
-      </c>
-      <c r="KP17" s="8">
-        <f t="shared" ref="KP17:NA17" si="29">KO17*(1+$AV$22)</f>
-        <v>50.239823079565738</v>
-      </c>
-      <c r="KQ17" s="8">
+        <v>12.026399976676393</v>
+      </c>
+      <c r="NB17" s="8">
+        <f t="shared" ref="NB17:PM17" si="29">NA17*(1+$AV$22)</f>
+        <v>11.785871977142865</v>
+      </c>
+      <c r="NC17" s="8">
         <f t="shared" si="29"/>
-        <v>49.23502661797442</v>
-      </c>
-      <c r="KR17" s="8">
+        <v>11.550154537600006</v>
+      </c>
+      <c r="ND17" s="8">
         <f t="shared" si="29"/>
-        <v>48.25032608561493</v>
-      </c>
-      <c r="KS17" s="8">
+        <v>11.319151446848005</v>
+      </c>
+      <c r="NE17" s="8">
         <f t="shared" si="29"/>
-        <v>47.285319563902632</v>
-      </c>
-      <c r="KT17" s="8">
+        <v>11.092768417911046</v>
+      </c>
+      <c r="NF17" s="8">
         <f t="shared" si="29"/>
-        <v>46.339613172624581</v>
-      </c>
-      <c r="KU17" s="8">
+        <v>10.870913049552824</v>
+      </c>
+      <c r="NG17" s="8">
         <f t="shared" si="29"/>
-        <v>45.41282090917209</v>
-      </c>
-      <c r="KV17" s="8">
+        <v>10.653494788561767</v>
+      </c>
+      <c r="NH17" s="8">
         <f t="shared" si="29"/>
-        <v>44.504564490988649</v>
-      </c>
-      <c r="KW17" s="8">
+        <v>10.440424892790531</v>
+      </c>
+      <c r="NI17" s="8">
         <f t="shared" si="29"/>
-        <v>43.614473201168877</v>
-      </c>
-      <c r="KX17" s="8">
+        <v>10.23161639493472</v>
+      </c>
+      <c r="NJ17" s="8">
         <f t="shared" si="29"/>
-        <v>42.742183737145496</v>
-      </c>
-      <c r="KY17" s="8">
+        <v>10.026984067036025</v>
+      </c>
+      <c r="NK17" s="8">
         <f t="shared" si="29"/>
-        <v>41.887340062402586</v>
-      </c>
-      <c r="KZ17" s="8">
+        <v>9.8264443856953054</v>
+      </c>
+      <c r="NL17" s="8">
         <f t="shared" si="29"/>
-        <v>41.049593261154534</v>
-      </c>
-      <c r="LA17" s="8">
+        <v>9.6299154979813988</v>
+      </c>
+      <c r="NM17" s="8">
         <f t="shared" si="29"/>
-        <v>40.228601395931442</v>
-      </c>
-      <c r="LB17" s="8">
+        <v>9.4373171880217708</v>
+      </c>
+      <c r="NN17" s="8">
         <f t="shared" si="29"/>
-        <v>39.42402936801281</v>
-      </c>
-      <c r="LC17" s="8">
+        <v>9.2485708442613355</v>
+      </c>
+      <c r="NO17" s="8">
         <f t="shared" si="29"/>
-        <v>38.635548780652556</v>
-      </c>
-      <c r="LD17" s="8">
+        <v>9.0635994273761078</v>
+      </c>
+      <c r="NP17" s="8">
         <f t="shared" si="29"/>
-        <v>37.862837805039504</v>
-      </c>
-      <c r="LE17" s="8">
+        <v>8.882327438828586</v>
+      </c>
+      <c r="NQ17" s="8">
         <f t="shared" si="29"/>
-        <v>37.105581048938717</v>
-      </c>
-      <c r="LF17" s="8">
+        <v>8.7046808900520141</v>
+      </c>
+      <c r="NR17" s="8">
         <f t="shared" si="29"/>
-        <v>36.363469427959942</v>
-      </c>
-      <c r="LG17" s="8">
+        <v>8.5305872722509744</v>
+      </c>
+      <c r="NS17" s="8">
         <f t="shared" si="29"/>
-        <v>35.636200039400741</v>
-      </c>
-      <c r="LH17" s="8">
+        <v>8.3599755268059539</v>
+      </c>
+      <c r="NT17" s="8">
         <f t="shared" si="29"/>
-        <v>34.923476038612726</v>
-      </c>
-      <c r="LI17" s="8">
+        <v>8.1927760162698355</v>
+      </c>
+      <c r="NU17" s="8">
         <f t="shared" si="29"/>
-        <v>34.22500651784047</v>
-      </c>
-      <c r="LJ17" s="8">
+        <v>8.0289204959444387</v>
+      </c>
+      <c r="NV17" s="8">
         <f t="shared" si="29"/>
-        <v>33.54050638748366</v>
-      </c>
-      <c r="LK17" s="8">
+        <v>7.8683420860255495</v>
+      </c>
+      <c r="NW17" s="8">
         <f t="shared" si="29"/>
-        <v>32.869696259733985</v>
-      </c>
-      <c r="LL17" s="8">
+        <v>7.7109752443050388</v>
+      </c>
+      <c r="NX17" s="8">
         <f t="shared" si="29"/>
-        <v>32.212302334539302</v>
-      </c>
-      <c r="LM17" s="8">
+        <v>7.5567557394189375</v>
+      </c>
+      <c r="NY17" s="8">
         <f t="shared" si="29"/>
-        <v>31.568056287848517</v>
-      </c>
-      <c r="LN17" s="8">
+        <v>7.4056206246305587</v>
+      </c>
+      <c r="NZ17" s="8">
         <f t="shared" si="29"/>
-        <v>30.936695162091546</v>
-      </c>
-      <c r="LO17" s="8">
+        <v>7.2575082121379477</v>
+      </c>
+      <c r="OA17" s="8">
         <f t="shared" si="29"/>
-        <v>30.317961258849714</v>
-      </c>
-      <c r="LP17" s="8">
+        <v>7.1123580478951887</v>
+      </c>
+      <c r="OB17" s="8">
         <f t="shared" si="29"/>
-        <v>29.711602033672719</v>
-      </c>
-      <c r="LQ17" s="8">
+        <v>6.9701108869372845</v>
+      </c>
+      <c r="OC17" s="8">
         <f t="shared" si="29"/>
-        <v>29.117369992999265</v>
-      </c>
-      <c r="LR17" s="8">
+        <v>6.8307086691985388</v>
+      </c>
+      <c r="OD17" s="8">
         <f t="shared" si="29"/>
-        <v>28.535022593139278</v>
-      </c>
-      <c r="LS17" s="8">
+        <v>6.6940944958145678</v>
+      </c>
+      <c r="OE17" s="8">
         <f t="shared" si="29"/>
-        <v>27.96432214127649</v>
-      </c>
-      <c r="LT17" s="8">
+        <v>6.5602126058982764</v>
+      </c>
+      <c r="OF17" s="8">
         <f t="shared" si="29"/>
-        <v>27.405035698450959</v>
-      </c>
-      <c r="LU17" s="8">
+        <v>6.4290083537803104</v>
+      </c>
+      <c r="OG17" s="8">
         <f t="shared" si="29"/>
-        <v>26.856934984481938</v>
-      </c>
-      <c r="LV17" s="8">
+        <v>6.3004281867047043</v>
+      </c>
+      <c r="OH17" s="8">
         <f t="shared" si="29"/>
-        <v>26.3197962847923</v>
-      </c>
-      <c r="LW17" s="8">
+        <v>6.1744196229706096</v>
+      </c>
+      <c r="OI17" s="8">
         <f t="shared" si="29"/>
-        <v>25.793400359096452</v>
-      </c>
-      <c r="LX17" s="8">
+        <v>6.0509312305111971</v>
+      </c>
+      <c r="OJ17" s="8">
         <f t="shared" si="29"/>
-        <v>25.277532351914523</v>
-      </c>
-      <c r="LY17" s="8">
+        <v>5.9299126059009728</v>
+      </c>
+      <c r="OK17" s="8">
         <f t="shared" si="29"/>
-        <v>24.771981704876232</v>
-      </c>
-      <c r="LZ17" s="8">
+        <v>5.8113143537829535</v>
+      </c>
+      <c r="OL17" s="8">
         <f t="shared" si="29"/>
-        <v>24.276542070778707</v>
-      </c>
-      <c r="MA17" s="8">
+        <v>5.6950880667072941</v>
+      </c>
+      <c r="OM17" s="8">
         <f t="shared" si="29"/>
-        <v>23.791011229363132</v>
-      </c>
-      <c r="MB17" s="8">
+        <v>5.5811863053731479</v>
+      </c>
+      <c r="ON17" s="8">
         <f t="shared" si="29"/>
-        <v>23.315191004775869</v>
-      </c>
-      <c r="MC17" s="8">
+        <v>5.469562579265685</v>
+      </c>
+      <c r="OO17" s="8">
         <f t="shared" si="29"/>
-        <v>22.848887184680351</v>
-      </c>
-      <c r="MD17" s="8">
+        <v>5.3601713276803711</v>
+      </c>
+      <c r="OP17" s="8">
         <f t="shared" si="29"/>
-        <v>22.391909440986744</v>
-      </c>
-      <c r="ME17" s="8">
+        <v>5.2529679011267634</v>
+      </c>
+      <c r="OQ17" s="8">
         <f t="shared" si="29"/>
-        <v>21.94407125216701</v>
-      </c>
-      <c r="MF17" s="8">
+        <v>5.1479085431042284</v>
+      </c>
+      <c r="OR17" s="8">
         <f t="shared" si="29"/>
-        <v>21.505189827123669</v>
-      </c>
-      <c r="MG17" s="8">
+        <v>5.0449503722421438</v>
+      </c>
+      <c r="OS17" s="8">
         <f t="shared" si="29"/>
-        <v>21.075086030581193</v>
-      </c>
-      <c r="MH17" s="8">
+        <v>4.9440513647973008</v>
+      </c>
+      <c r="OT17" s="8">
         <f t="shared" si="29"/>
-        <v>20.65358430996957</v>
-      </c>
-      <c r="MI17" s="8">
+        <v>4.8451703375013544</v>
+      </c>
+      <c r="OU17" s="8">
         <f t="shared" si="29"/>
-        <v>20.240512623770179</v>
-      </c>
-      <c r="MJ17" s="8">
+        <v>4.7482669307513277</v>
+      </c>
+      <c r="OV17" s="8">
         <f t="shared" si="29"/>
-        <v>19.835702371294776</v>
-      </c>
-      <c r="MK17" s="8">
+        <v>4.6533015921363008</v>
+      </c>
+      <c r="OW17" s="8">
         <f t="shared" si="29"/>
-        <v>19.43898832386888</v>
-      </c>
-      <c r="ML17" s="8">
+        <v>4.5602355602935747</v>
+      </c>
+      <c r="OX17" s="8">
         <f t="shared" si="29"/>
-        <v>19.050208557391503</v>
-      </c>
-      <c r="MM17" s="8">
+        <v>4.4690308490877033</v>
+      </c>
+      <c r="OY17" s="8">
         <f t="shared" si="29"/>
-        <v>18.669204386243674</v>
-      </c>
-      <c r="MN17" s="8">
+        <v>4.3796502321059494</v>
+      </c>
+      <c r="OZ17" s="8">
         <f t="shared" si="29"/>
-        <v>18.295820298518802</v>
-      </c>
-      <c r="MO17" s="8">
+        <v>4.2920572274638307</v>
+      </c>
+      <c r="PA17" s="8">
         <f t="shared" si="29"/>
-        <v>17.929903892548424</v>
-      </c>
-      <c r="MP17" s="8">
+        <v>4.2062160829145538</v>
+      </c>
+      <c r="PB17" s="8">
         <f t="shared" si="29"/>
-        <v>17.571305814697457</v>
-      </c>
-      <c r="MQ17" s="8">
+        <v>4.1220917612562626</v>
+      </c>
+      <c r="PC17" s="8">
         <f t="shared" si="29"/>
-        <v>17.219879698403506</v>
-      </c>
-      <c r="MR17" s="8">
+        <v>4.0396499260311369</v>
+      </c>
+      <c r="PD17" s="8">
         <f t="shared" si="29"/>
-        <v>16.875482104435434</v>
-      </c>
-      <c r="MS17" s="8">
+        <v>3.9588569275105141</v>
+      </c>
+      <c r="PE17" s="8">
         <f t="shared" si="29"/>
-        <v>16.537972462346726</v>
-      </c>
-      <c r="MT17" s="8">
+        <v>3.8796797889603036</v>
+      </c>
+      <c r="PF17" s="8">
         <f t="shared" si="29"/>
-        <v>16.207213013099793</v>
-      </c>
-      <c r="MU17" s="8">
+        <v>3.8020861931810974</v>
+      </c>
+      <c r="PG17" s="8">
         <f t="shared" si="29"/>
-        <v>15.883068752837797</v>
-      </c>
-      <c r="MV17" s="8">
+        <v>3.7260444693174755</v>
+      </c>
+      <c r="PH17" s="8">
         <f t="shared" si="29"/>
-        <v>15.565407377781041</v>
-      </c>
-      <c r="MW17" s="8">
+        <v>3.6515235799311259</v>
+      </c>
+      <c r="PI17" s="8">
         <f t="shared" si="29"/>
-        <v>15.254099230225419</v>
-      </c>
-      <c r="MX17" s="8">
+        <v>3.5784931083325033</v>
+      </c>
+      <c r="PJ17" s="8">
         <f t="shared" si="29"/>
-        <v>14.94901724562091</v>
-      </c>
-      <c r="MY17" s="8">
+        <v>3.506923246165853</v>
+      </c>
+      <c r="PK17" s="8">
         <f t="shared" si="29"/>
-        <v>14.650036900708491</v>
-      </c>
-      <c r="MZ17" s="8">
+        <v>3.4367847812425358</v>
+      </c>
+      <c r="PL17" s="8">
         <f t="shared" si="29"/>
-        <v>14.357036162694321</v>
-      </c>
-      <c r="NA17" s="8">
+        <v>3.368049085617685</v>
+      </c>
+      <c r="PM17" s="8">
         <f t="shared" si="29"/>
-        <v>14.069895439440435</v>
-      </c>
-      <c r="NB17" s="8">
-        <f t="shared" ref="NB17:PM17" si="30">NA17*(1+$AV$22)</f>
-        <v>13.788497530651625</v>
-      </c>
-      <c r="NC17" s="8">
+        <v>3.3006881039053311</v>
+      </c>
+      <c r="PN17" s="8">
+        <f t="shared" ref="PN17:QI17" si="30">PM17*(1+$AV$22)</f>
+        <v>3.2346743418272244</v>
+      </c>
+      <c r="PO17" s="8">
         <f t="shared" si="30"/>
-        <v>13.512727580038593</v>
-      </c>
-      <c r="ND17" s="8">
+        <v>3.1699808549906798</v>
+      </c>
+      <c r="PP17" s="8">
         <f t="shared" si="30"/>
-        <v>13.242473028437821</v>
-      </c>
-      <c r="NE17" s="8">
+        <v>3.1065812378908664</v>
+      </c>
+      <c r="PQ17" s="8">
         <f t="shared" si="30"/>
-        <v>12.977623567869065</v>
-      </c>
-      <c r="NF17" s="8">
+        <v>3.044449613133049</v>
+      </c>
+      <c r="PR17" s="8">
         <f t="shared" si="30"/>
-        <v>12.718071096511684</v>
-      </c>
-      <c r="NG17" s="8">
+        <v>2.9835606208703878</v>
+      </c>
+      <c r="PS17" s="8">
         <f t="shared" si="30"/>
-        <v>12.46370967458145</v>
-      </c>
-      <c r="NH17" s="8">
+        <v>2.9238894084529798</v>
+      </c>
+      <c r="PT17" s="8">
         <f t="shared" si="30"/>
-        <v>12.21443548108982</v>
-      </c>
-      <c r="NI17" s="8">
+        <v>2.8654116202839202</v>
+      </c>
+      <c r="PU17" s="8">
         <f t="shared" si="30"/>
-        <v>11.970146771468023</v>
-      </c>
-      <c r="NJ17" s="8">
+        <v>2.8081033878782415</v>
+      </c>
+      <c r="PV17" s="8">
         <f t="shared" si="30"/>
-        <v>11.730743836038663</v>
-      </c>
-      <c r="NK17" s="8">
+        <v>2.7519413201206766</v>
+      </c>
+      <c r="PW17" s="8">
         <f t="shared" si="30"/>
-        <v>11.49612895931789</v>
-      </c>
-      <c r="NL17" s="8">
+        <v>2.6969024937182628</v>
+      </c>
+      <c r="PX17" s="8">
         <f t="shared" si="30"/>
-        <v>11.266206380131532</v>
-      </c>
-      <c r="NM17" s="8">
+        <v>2.6429644438438977</v>
+      </c>
+      <c r="PY17" s="8">
         <f t="shared" si="30"/>
-        <v>11.040882252528901</v>
-      </c>
-      <c r="NN17" s="8">
+        <v>2.5901051549670195</v>
+      </c>
+      <c r="PZ17" s="8">
         <f t="shared" si="30"/>
-        <v>10.820064607478322</v>
-      </c>
-      <c r="NO17" s="8">
+        <v>2.538303051867679</v>
+      </c>
+      <c r="QA17" s="8">
         <f t="shared" si="30"/>
-        <v>10.603663315328756</v>
-      </c>
-      <c r="NP17" s="8">
+        <v>2.4875369908303253</v>
+      </c>
+      <c r="QB17" s="8">
         <f t="shared" si="30"/>
-        <v>10.391590049022181</v>
-      </c>
-      <c r="NQ17" s="8">
+        <v>2.4377862510137187</v>
+      </c>
+      <c r="QC17" s="8">
         <f t="shared" si="30"/>
-        <v>10.183758248041737</v>
-      </c>
-      <c r="NR17" s="8">
+        <v>2.3890305259934443</v>
+      </c>
+      <c r="QD17" s="8">
         <f t="shared" si="30"/>
-        <v>9.9800830830809026</v>
-      </c>
-      <c r="NS17" s="8">
+        <v>2.3412499154735755</v>
+      </c>
+      <c r="QE17" s="8">
         <f t="shared" si="30"/>
-        <v>9.7804814214192852</v>
-      </c>
-      <c r="NT17" s="8">
+        <v>2.294424917164104</v>
+      </c>
+      <c r="QF17" s="8">
         <f t="shared" si="30"/>
-        <v>9.5848717929908993</v>
-      </c>
-      <c r="NU17" s="8">
+        <v>2.2485364188208221</v>
+      </c>
+      <c r="QG17" s="8">
         <f t="shared" si="30"/>
-        <v>9.3931743571310804</v>
-      </c>
-      <c r="NV17" s="8">
+        <v>2.2035656904444054</v>
+      </c>
+      <c r="QH17" s="8">
         <f t="shared" si="30"/>
-        <v>9.2053108699884589</v>
-      </c>
-      <c r="NW17" s="8">
+        <v>2.1594943766355175</v>
+      </c>
+      <c r="QI17" s="8">
         <f t="shared" si="30"/>
-        <v>9.0212046525886898</v>
-      </c>
-      <c r="NX17" s="8">
-        <f t="shared" si="30"/>
-        <v>8.8407805595369151</v>
-      </c>
-      <c r="NY17" s="8">
-        <f t="shared" si="30"/>
-        <v>8.6639649483461767</v>
-      </c>
-      <c r="NZ17" s="8">
-        <f t="shared" si="30"/>
-        <v>8.4906856493792535</v>
-      </c>
-      <c r="OA17" s="8">
-        <f t="shared" si="30"/>
-        <v>8.3208719363916686</v>
-      </c>
-      <c r="OB17" s="8">
-        <f t="shared" si="30"/>
-        <v>8.1544544976638349</v>
-      </c>
-      <c r="OC17" s="8">
-        <f t="shared" si="30"/>
-        <v>7.9913654077105578</v>
-      </c>
-      <c r="OD17" s="8">
-        <f t="shared" si="30"/>
-        <v>7.8315380995563464</v>
-      </c>
-      <c r="OE17" s="8">
-        <f t="shared" si="30"/>
-        <v>7.6749073375652195</v>
-      </c>
-      <c r="OF17" s="8">
-        <f t="shared" si="30"/>
-        <v>7.5214091908139151</v>
-      </c>
-      <c r="OG17" s="8">
-        <f t="shared" si="30"/>
-        <v>7.3709810069976367</v>
-      </c>
-      <c r="OH17" s="8">
-        <f t="shared" si="30"/>
-        <v>7.2235613868576838</v>
-      </c>
-      <c r="OI17" s="8">
-        <f t="shared" si="30"/>
-        <v>7.07909015912053</v>
-      </c>
-      <c r="OJ17" s="8">
-        <f t="shared" si="30"/>
-        <v>6.9375083559381192</v>
-      </c>
-      <c r="OK17" s="8">
-        <f t="shared" si="30"/>
-        <v>6.7987581888193569</v>
-      </c>
-      <c r="OL17" s="8">
-        <f t="shared" si="30"/>
-        <v>6.6627830250429696</v>
-      </c>
-      <c r="OM17" s="8">
-        <f t="shared" si="30"/>
-        <v>6.5295273645421101</v>
-      </c>
-      <c r="ON17" s="8">
-        <f t="shared" si="30"/>
-        <v>6.3989368172512675</v>
-      </c>
-      <c r="OO17" s="8">
-        <f t="shared" si="30"/>
-        <v>6.270958080906242</v>
-      </c>
-      <c r="OP17" s="8">
-        <f t="shared" si="30"/>
-        <v>6.1455389192881169</v>
-      </c>
-      <c r="OQ17" s="8">
-        <f t="shared" si="30"/>
-        <v>6.0226281409023548</v>
-      </c>
-      <c r="OR17" s="8">
-        <f t="shared" si="30"/>
-        <v>5.9021755780843073</v>
-      </c>
-      <c r="OS17" s="8">
-        <f t="shared" si="30"/>
-        <v>5.7841320665226208</v>
-      </c>
-      <c r="OT17" s="8">
-        <f t="shared" si="30"/>
-        <v>5.6684494251921684</v>
-      </c>
-      <c r="OU17" s="8">
-        <f t="shared" si="30"/>
-        <v>5.5550804366883249</v>
-      </c>
-      <c r="OV17" s="8">
-        <f t="shared" si="30"/>
-        <v>5.4439788279545587</v>
-      </c>
-      <c r="OW17" s="8">
-        <f t="shared" si="30"/>
-        <v>5.3350992513954676</v>
-      </c>
-      <c r="OX17" s="8">
-        <f t="shared" si="30"/>
-        <v>5.2283972663675584</v>
-      </c>
-      <c r="OY17" s="8">
-        <f t="shared" si="30"/>
-        <v>5.1238293210402075</v>
-      </c>
-      <c r="OZ17" s="8">
-        <f t="shared" si="30"/>
-        <v>5.0213527346194029</v>
-      </c>
-      <c r="PA17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.9209256799270147</v>
-      </c>
-      <c r="PB17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.8225071663284744</v>
-      </c>
-      <c r="PC17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.7260570230019052</v>
-      </c>
-      <c r="PD17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.6315358825418667</v>
-      </c>
-      <c r="PE17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.5389051648910295</v>
-      </c>
-      <c r="PF17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.4481270615932091</v>
-      </c>
-      <c r="PG17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.3591645203613449</v>
-      </c>
-      <c r="PH17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.2719812299541182</v>
-      </c>
-      <c r="PI17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.1865416053550355</v>
-      </c>
-      <c r="PJ17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.1028107732479349</v>
-      </c>
-      <c r="PK17" s="8">
-        <f t="shared" si="30"/>
-        <v>4.0207545577829764</v>
-      </c>
-      <c r="PL17" s="8">
-        <f t="shared" si="30"/>
-        <v>3.9403394666273166</v>
-      </c>
-      <c r="PM17" s="8">
-        <f t="shared" si="30"/>
-        <v>3.86153267729477</v>
-      </c>
-      <c r="PN17" s="8">
-        <f t="shared" ref="PN17:RY17" si="31">PM17*(1+$AV$22)</f>
-        <v>3.7843020237488747</v>
-      </c>
-      <c r="PO17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.708615983273897</v>
-      </c>
-      <c r="PP17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.634443663608419</v>
-      </c>
-      <c r="PQ17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.5617547903362503</v>
-      </c>
-      <c r="PR17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.4905196945295254</v>
-      </c>
-      <c r="PS17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.4207093006389346</v>
-      </c>
-      <c r="PT17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.3522951146261559</v>
-      </c>
-      <c r="PU17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.2852492123336328</v>
-      </c>
-      <c r="PV17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.2195442280869599</v>
-      </c>
-      <c r="PW17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.1551533435252206</v>
-      </c>
-      <c r="PX17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.092050276654716</v>
-      </c>
-      <c r="PY17" s="8">
-        <f t="shared" si="31"/>
-        <v>3.0302092711216218</v>
-      </c>
-      <c r="PZ17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.9696050856991891</v>
-      </c>
-      <c r="QA17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.9102129839852053</v>
-      </c>
-      <c r="QB17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.852008724305501</v>
-      </c>
-      <c r="QC17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.7949685498193908</v>
-      </c>
-      <c r="QD17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.7390691788230028</v>
-      </c>
-      <c r="QE17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.6842877952465427</v>
-      </c>
-      <c r="QF17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.6306020393416119</v>
-      </c>
-      <c r="QG17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.5779899985547794</v>
-      </c>
-      <c r="QH17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.5264301985836837</v>
-      </c>
-      <c r="QI17" s="8">
-        <f t="shared" si="31"/>
-        <v>2.4759015946120098</v>
+        <v>2.1163044891028071</v>
       </c>
       <c r="QJ17" s="8"/>
       <c r="QK17" s="8"/>
@@ -4940,73 +5194,73 @@
       <c r="ACI17" s="8"/>
       <c r="ACJ17" s="8"/>
     </row>
-    <row r="18" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:764">
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="4">
-        <f>C17/C19</f>
+        <f t="shared" ref="C18:Q18" si="31">C17/C19</f>
         <v>0.39050772626931568</v>
       </c>
       <c r="D18" s="4">
-        <f>D17/D19</f>
+        <f t="shared" si="31"/>
         <v>0.59509609012591125</v>
       </c>
       <c r="E18" s="4">
-        <f>E17/E19</f>
+        <f t="shared" si="31"/>
         <v>0.54579813250333487</v>
       </c>
       <c r="F18" s="4">
-        <f>F17/F19</f>
+        <f t="shared" si="31"/>
         <v>0.37879795963628299</v>
       </c>
       <c r="G18" s="4">
-        <f>G17/G19</f>
+        <f t="shared" si="31"/>
         <v>0.35413839891451832</v>
       </c>
       <c r="H18" s="4">
-        <f>H17/H19</f>
+        <f t="shared" si="31"/>
         <v>0.58486753480017961</v>
       </c>
       <c r="I18" s="4">
-        <f>I17/I19</f>
+        <f t="shared" si="31"/>
         <v>0.47631874298540966</v>
       </c>
       <c r="J18" s="4">
-        <f>J17/J19</f>
+        <f t="shared" si="31"/>
         <v>0.18674157303370786</v>
       </c>
       <c r="K18" s="4">
-        <f>K17/K19</f>
+        <f t="shared" si="31"/>
         <v>0.35413839891451832</v>
       </c>
       <c r="L18" s="4">
-        <f>L17/L19</f>
+        <f t="shared" si="31"/>
         <v>0.70576225045372054</v>
       </c>
       <c r="M18" s="4">
-        <f>M17/M19</f>
+        <f t="shared" si="31"/>
         <v>0.33030234144123666</v>
       </c>
       <c r="N18" s="4">
-        <f>N17/N19</f>
+        <f t="shared" si="31"/>
         <v>0.28059023836549374</v>
       </c>
       <c r="O18" s="4">
-        <f>O17/O19</f>
+        <f t="shared" si="31"/>
         <v>0.34071200365130078</v>
       </c>
       <c r="P18" s="4">
-        <f>P17/P19</f>
+        <f t="shared" si="31"/>
         <v>0.79049577336074939</v>
       </c>
       <c r="Q18" s="4">
-        <f>Q17/Q19</f>
+        <f t="shared" si="31"/>
         <v>0.34338588074023302</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" ref="R18:V18" si="32">R17/R19</f>
-        <v>0.29393191683801689</v>
+        <v>0.28466986520447796</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="32"/>
@@ -5022,90 +5276,90 @@
       </c>
       <c r="V18" s="4">
         <f t="shared" si="32"/>
-        <v>0.30538601782042502</v>
+        <v>0.29621658670322137</v>
       </c>
       <c r="Y18" s="4">
-        <f>Y17/Y19</f>
+        <f t="shared" ref="Y18:AF18" si="33">Y17/Y19</f>
         <v>1.8609556607834696</v>
       </c>
       <c r="Z18" s="4">
-        <f>Z17/Z19</f>
+        <f t="shared" si="33"/>
         <v>1.9821116928446771</v>
       </c>
       <c r="AA18" s="4">
-        <f>AA17/AA19</f>
+        <f t="shared" si="33"/>
         <v>1.9130627633621646</v>
       </c>
       <c r="AB18" s="4">
-        <f>AB17/AB19</f>
+        <f t="shared" si="33"/>
         <v>1.6008988764044945</v>
       </c>
       <c r="AC18" s="4">
-        <f>AC17/AC19</f>
+        <f t="shared" si="33"/>
         <v>1.6657620985979196</v>
       </c>
       <c r="AD18" s="4">
-        <f>AD17/AD19</f>
-        <v>1.7689147818140281</v>
+        <f t="shared" si="33"/>
+        <v>1.759652730180489</v>
       </c>
       <c r="AE18" s="4">
-        <f>AE17/AE19</f>
-        <v>1.8171909070139365</v>
+        <f t="shared" si="33"/>
+        <v>1.8080214758967328</v>
       </c>
       <c r="AF18" s="4">
-        <f>AF17/AF19</f>
-        <v>1.869336735663697</v>
+        <f t="shared" si="33"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" ref="AG18:AR18" si="33">AG17/AG19</f>
-        <v>1.8880301030203339</v>
+        <f t="shared" ref="AG18:AR18" si="34">AG17/AG19</f>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="33"/>
-        <v>1.9069104040505371</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="33"/>
-        <v>1.9259795080910422</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="33"/>
-        <v>1.945239303171953</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="33"/>
-        <v>1.9646916962036722</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="33"/>
-        <v>1.984338613165709</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="33"/>
-        <v>2.0041819992973662</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="33"/>
-        <v>2.0242238192903397</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="33"/>
-        <v>2.0444660574832429</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AP18" s="4">
-        <f t="shared" si="33"/>
-        <v>2.0649107180580759</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AQ18" s="4">
-        <f t="shared" si="33"/>
-        <v>2.0855598252386565</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
       <c r="AR18" s="4">
-        <f t="shared" si="33"/>
-        <v>2.1064154234910428</v>
+        <f t="shared" si="34"/>
+        <v>1.8004820653415579</v>
       </c>
     </row>
-    <row r="19" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:764">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -5230,7 +5484,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="20" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:764">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5248,7 +5502,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:764">
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
@@ -5273,39 +5527,39 @@
         <v>0.61693586033050141</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" ref="H21:P21" si="34">H7/H5</f>
+        <f>H7/H5</f>
         <v>0.61674884682678544</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="34"/>
+        <f>I7/I5</f>
         <v>0.61339345357381425</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="34"/>
+        <f>J7/J5</f>
         <v>0.5960696656421719</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="34"/>
+        <f>K7/K5</f>
         <v>0.61693586033050141</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="34"/>
+        <f>L7/L5</f>
         <v>0.60941099045738734</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="34"/>
+        <f>M7/M5</f>
         <v>0.59945742539599189</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="34"/>
+        <f>N7/N5</f>
         <v>0.59460000000000002</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="34"/>
+        <f>O7/O5</f>
         <v>0.60425987162030736</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="34"/>
+        <f>P7/P5</f>
         <v>0.61253141520062393</v>
       </c>
       <c r="Q21" s="5">
@@ -5314,7 +5568,7 @@
       </c>
       <c r="R21" s="5">
         <f t="shared" si="35"/>
-        <v>0.59865400000000002</v>
+        <v>0.59460000000000002</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="35"/>
@@ -5330,7 +5584,7 @@
       </c>
       <c r="V21" s="5">
         <f t="shared" si="35"/>
-        <v>0.60266746000000004</v>
+        <v>0.59865400000000002</v>
       </c>
       <c r="Y21" s="5">
         <f t="shared" ref="Y21:AC21" si="36">Y7/Y5</f>
@@ -5354,72 +5608,79 @@
       </c>
       <c r="AD21" s="5">
         <f t="shared" ref="AD21:AE21" si="37">AD7/AD5</f>
-        <v>0.6039016833148354</v>
+        <v>0.602964298927118</v>
       </c>
       <c r="AE21" s="5">
         <f t="shared" si="37"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AF21" s="5">
         <f t="shared" ref="AF21:AR21" si="38">AF7/AF5</f>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AG21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AH21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AI21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AJ21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AK21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AL21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AM21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AN21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AO21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AP21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AQ21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AR21" s="5">
         <f t="shared" si="38"/>
-        <v>0.60786266648168708</v>
+        <v>0.60693465593784679</v>
       </c>
       <c r="AU21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AV21" s="5">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY21" s="14">
+        <f>Main!H7</f>
+        <v>177895.18000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:764">
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
@@ -5444,144 +5705,144 @@
         <v>0.21435907011483521</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" ref="H22:P22" si="39">H11/H5</f>
+        <f>H11/H5</f>
         <v>0.25210752346111021</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="39"/>
+        <f>I11/I5</f>
         <v>0.22636940547762191</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="39"/>
+        <f>J11/J5</f>
         <v>0.14259104032783831</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="39"/>
+        <f>K11/K5</f>
         <v>0.21435907011483521</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="39"/>
+        <f>L11/L5</f>
         <v>0.20853899308983218</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="39"/>
+        <f>M11/M5</f>
         <v>0.20819112627986347</v>
       </c>
       <c r="N22" s="5">
+        <f>N11/N5</f>
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="O22" s="5">
+        <f>O11/O5</f>
+        <v>0.20822797121182648</v>
+      </c>
+      <c r="P22" s="5">
+        <f>P11/P5</f>
+        <v>0.24776843747291794</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" ref="Q22:V22" si="39">Q11/Q5</f>
+        <v>0.20819112627986347</v>
+      </c>
+      <c r="R22" s="5">
         <f t="shared" si="39"/>
         <v>0.15179999999999999</v>
       </c>
-      <c r="O22" s="5">
+      <c r="S22" s="5">
         <f t="shared" si="39"/>
-        <v>0.20822797121182648</v>
-      </c>
-      <c r="P22" s="5">
+        <v>0.21218537249562347</v>
+      </c>
+      <c r="T22" s="5">
         <f t="shared" si="39"/>
-        <v>0.24776843747291794</v>
-      </c>
-      <c r="Q22" s="5">
-        <f t="shared" ref="Q22:V22" si="40">Q11/Q5</f>
-        <v>0.20819112627986347</v>
-      </c>
-      <c r="R22" s="5">
+        <v>0.25164312332091171</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="39"/>
+        <v>0.2121965520259036</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="39"/>
+        <v>0.15585399999999999</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" ref="Y22:AC22" si="40">Y11/Y5</f>
+        <v>0.21857676936960166</v>
+      </c>
+      <c r="Z22" s="5">
         <f t="shared" si="40"/>
-        <v>0.15585399999999999</v>
-      </c>
-      <c r="S22" s="5">
+        <v>0.22448299560572296</v>
+      </c>
+      <c r="AA22" s="5">
         <f t="shared" si="40"/>
-        <v>0.21218537249562347</v>
-      </c>
-      <c r="T22" s="5">
+        <v>0.21829512955137234</v>
+      </c>
+      <c r="AB22" s="5">
         <f t="shared" si="40"/>
-        <v>0.25164312332091171</v>
-      </c>
-      <c r="U22" s="5">
+        <v>0.21105265446323754</v>
+      </c>
+      <c r="AC22" s="5">
         <f t="shared" si="40"/>
-        <v>0.2121965520259036</v>
-      </c>
-      <c r="V22" s="5">
-        <f t="shared" si="40"/>
-        <v>0.15986746000000002</v>
-      </c>
-      <c r="Y22" s="5">
-        <f t="shared" ref="Y22:AC22" si="41">Y11/Y5</f>
-        <v>0.21857676936960166</v>
-      </c>
-      <c r="Z22" s="5">
+        <v>0.19704700410890866</v>
+      </c>
+      <c r="AD22" s="5">
+        <f t="shared" ref="AD22:AE22" si="41">AD11/AD5</f>
+        <v>0.205720495745468</v>
+      </c>
+      <c r="AE22" s="5">
         <f t="shared" si="41"/>
-        <v>0.22448299560572296</v>
-      </c>
-      <c r="AA22" s="5">
-        <f t="shared" si="41"/>
-        <v>0.21829512955137234</v>
-      </c>
-      <c r="AB22" s="5">
-        <f t="shared" si="41"/>
-        <v>0.21105265446323754</v>
-      </c>
-      <c r="AC22" s="5">
-        <f t="shared" si="41"/>
-        <v>0.19704700410890866</v>
-      </c>
-      <c r="AD22" s="5">
-        <f t="shared" ref="AD22:AE22" si="42">AD11/AD5</f>
-        <v>0.20665788013318537</v>
-      </c>
-      <c r="AE22" s="5">
+        <v>0.20969085275619681</v>
+      </c>
+      <c r="AF22" s="5">
+        <f t="shared" ref="AF22:AR22" si="42">AF11/AF5</f>
+        <v>0.20969085275619681</v>
+      </c>
+      <c r="AG22" s="5">
         <f t="shared" si="42"/>
-        <v>0.21061886330003701</v>
-      </c>
-      <c r="AF22" s="5">
-        <f t="shared" ref="AF22:AR22" si="43">AF11/AF5</f>
-        <v>0.21061886330003701</v>
-      </c>
-      <c r="AG22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AH22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AI22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AJ22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AK22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AL22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AM22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AN22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AO22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AP22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AQ22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AR22" s="5">
-        <f t="shared" si="43"/>
-        <v>0.21061886330003701</v>
+        <f t="shared" si="42"/>
+        <v>0.20969085275619681</v>
       </c>
       <c r="AU22" s="1" t="s">
         <v>63</v>
@@ -5589,8 +5850,15 @@
       <c r="AV22" s="5">
         <v>-0.02</v>
       </c>
+      <c r="AX22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY22" s="16">
+        <f>AD17</f>
+        <v>7702</v>
+      </c>
     </row>
-    <row r="23" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:764">
       <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5615,144 +5883,144 @@
         <v>0.1462048361497526</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" ref="H23:P23" si="44">H17/H5</f>
+        <f>H17/H5</f>
         <v>0.20717353268649594</v>
       </c>
       <c r="I23" s="5">
+        <f>I17/I5</f>
+        <v>0.177187708750835</v>
+      </c>
+      <c r="J23" s="5">
+        <f>J17/J5</f>
+        <v>7.7395920648225758E-2</v>
+      </c>
+      <c r="K23" s="5">
+        <f>K17/K5</f>
+        <v>0.1462048361497526</v>
+      </c>
+      <c r="L23" s="5">
+        <f>L17/L5</f>
+        <v>0.2559230009871668</v>
+      </c>
+      <c r="M23" s="5">
+        <f>M17/M5</f>
+        <v>0.1271549838102739</v>
+      </c>
+      <c r="N23" s="5">
+        <f>N17/N5</f>
+        <v>0.1236</v>
+      </c>
+      <c r="O23" s="5">
+        <f>O17/O5</f>
+        <v>0.14520521299358102</v>
+      </c>
+      <c r="P23" s="5">
+        <f>P17/P5</f>
+        <v>0.29985267354190137</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" ref="Q23:V23" si="43">Q17/Q5</f>
+        <v>0.13153058545550014</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="43"/>
+        <v>0.1246</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" si="43"/>
+        <v>0.15013518770667189</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="43"/>
+        <v>0.30459398561400469</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="43"/>
+        <v>0.13641113153058548</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="43"/>
+        <v>0.12965399999999999</v>
+      </c>
+      <c r="Y23" s="5">
+        <f t="shared" ref="Y23:AC23" si="44">Y17/Y5</f>
+        <v>0.18576769369601651</v>
+      </c>
+      <c r="Z23" s="5">
         <f t="shared" si="44"/>
-        <v>0.177187708750835</v>
-      </c>
-      <c r="J23" s="5">
+        <v>0.18922464960326552</v>
+      </c>
+      <c r="AA23" s="5">
         <f t="shared" si="44"/>
-        <v>7.7395920648225758E-2</v>
-      </c>
-      <c r="K23" s="5">
+        <v>0.18410381184103811</v>
+      </c>
+      <c r="AB23" s="5">
         <f t="shared" si="44"/>
-        <v>0.1462048361497526</v>
-      </c>
-      <c r="L23" s="5">
+        <v>0.1548762989695204</v>
+      </c>
+      <c r="AC23" s="5">
         <f t="shared" si="44"/>
-        <v>0.2559230009871668</v>
-      </c>
-      <c r="M23" s="5">
-        <f t="shared" si="44"/>
-        <v>0.1271549838102739</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" si="44"/>
-        <v>0.1236</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" si="44"/>
-        <v>0.14520521299358102</v>
-      </c>
-      <c r="P23" s="5">
-        <f t="shared" si="44"/>
-        <v>0.29985267354190137</v>
-      </c>
-      <c r="Q23" s="5">
-        <f t="shared" ref="Q23:V23" si="45">Q17/Q5</f>
-        <v>0.13153058545550014</v>
-      </c>
-      <c r="R23" s="5">
+        <v>0.16629791845396669</v>
+      </c>
+      <c r="AD23" s="5">
+        <f t="shared" ref="AD23:AE23" si="45">AD17/AD5</f>
+        <v>0.17808916019237883</v>
+      </c>
+      <c r="AE23" s="5">
         <f t="shared" si="45"/>
-        <v>0.12865399999999999</v>
-      </c>
-      <c r="S23" s="5">
-        <f t="shared" si="45"/>
-        <v>0.15013518770667189</v>
-      </c>
-      <c r="T23" s="5">
-        <f t="shared" si="45"/>
-        <v>0.30459398561400469</v>
-      </c>
-      <c r="U23" s="5">
-        <f t="shared" si="45"/>
-        <v>0.13641113153058548</v>
-      </c>
-      <c r="V23" s="5">
-        <f t="shared" si="45"/>
-        <v>0.13366746000000002</v>
-      </c>
-      <c r="Y23" s="5">
-        <f t="shared" ref="Y23:AC23" si="46">Y17/Y5</f>
-        <v>0.18576769369601651</v>
-      </c>
-      <c r="Z23" s="5">
+        <v>0.18298441546429892</v>
+      </c>
+      <c r="AF23" s="5">
+        <f t="shared" ref="AF23:AR23" si="46">AF17/AF5</f>
+        <v>0.18222137439881611</v>
+      </c>
+      <c r="AG23" s="5">
         <f t="shared" si="46"/>
-        <v>0.18922464960326552</v>
-      </c>
-      <c r="AA23" s="5">
+        <v>0.18222137439881611</v>
+      </c>
+      <c r="AH23" s="5">
         <f t="shared" si="46"/>
-        <v>0.18410381184103811</v>
-      </c>
-      <c r="AB23" s="5">
+        <v>0.18222137439881611</v>
+      </c>
+      <c r="AI23" s="5">
         <f t="shared" si="46"/>
-        <v>0.1548762989695204</v>
-      </c>
-      <c r="AC23" s="5">
+        <v>0.18222137439881611</v>
+      </c>
+      <c r="AJ23" s="5">
         <f t="shared" si="46"/>
-        <v>0.16629791845396669</v>
-      </c>
-      <c r="AD23" s="5">
-        <f t="shared" ref="AD23:AE23" si="47">AD17/AD5</f>
-        <v>0.1790265445800962</v>
-      </c>
-      <c r="AE23" s="5">
-        <f t="shared" si="47"/>
-        <v>0.18391242600813912</v>
-      </c>
-      <c r="AF23" s="5">
-        <f t="shared" ref="AF23:AR23" si="48">AF17/AF5</f>
-        <v>0.18918994848316689</v>
-      </c>
-      <c r="AG23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.19108184796799854</v>
-      </c>
-      <c r="AH23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.19299266644767851</v>
-      </c>
-      <c r="AI23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.19492259311215529</v>
-      </c>
-      <c r="AJ23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.19687181904327686</v>
+        <v>0.18222137439881611</v>
       </c>
       <c r="AK23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.19884053723370962</v>
+        <f t="shared" si="46"/>
+        <v>0.18222137439881611</v>
       </c>
       <c r="AL23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.20082894260604672</v>
+        <f t="shared" si="46"/>
+        <v>0.18222137439881611</v>
       </c>
       <c r="AM23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.20283723203210718</v>
+        <f t="shared" si="46"/>
+        <v>0.18222137439881611</v>
       </c>
       <c r="AN23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.20486560435242826</v>
+        <f t="shared" si="46"/>
+        <v>0.18222137439881611</v>
       </c>
       <c r="AO23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.20691426039595254</v>
+        <f t="shared" si="46"/>
+        <v>0.18222137439881611</v>
       </c>
       <c r="AP23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.20898340299991208</v>
+        <f t="shared" si="46"/>
+        <v>0.18222137439881611</v>
       </c>
       <c r="AQ23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.21107323702991118</v>
+        <f t="shared" si="46"/>
+        <v>0.18222137439881611</v>
       </c>
       <c r="AR23" s="5">
-        <f t="shared" si="48"/>
-        <v>0.21318396940021028</v>
+        <f t="shared" si="46"/>
+        <v>0.18222137439881611</v>
       </c>
       <c r="AU23" s="1" t="s">
         <v>65</v>
@@ -5760,8 +6028,15 @@
       <c r="AV23" s="5">
         <v>0.03</v>
       </c>
+      <c r="AX23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY23" s="17">
+        <f>AY21/AY22</f>
+        <v>23.097270838743185</v>
+      </c>
     </row>
-    <row r="24" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:764">
       <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
@@ -5786,165 +6061,174 @@
         <v>0.20949015648662292</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" ref="H24:P24" si="49">H16/H15</f>
+        <f>H16/H15</f>
         <v>0.23020094562647755</v>
       </c>
       <c r="I24" s="5">
+        <f>I16/I15</f>
+        <v>0.20225563909774436</v>
+      </c>
+      <c r="J24" s="5">
+        <f>J16/J15</f>
+        <v>0.36076923076923079</v>
+      </c>
+      <c r="K24" s="5">
+        <f>K16/K15</f>
+        <v>0.20949015648662292</v>
+      </c>
+      <c r="L24" s="5">
+        <f>L16/L15</f>
+        <v>0.28663150653519837</v>
+      </c>
+      <c r="M24" s="5">
+        <f>M16/M15</f>
+        <v>0.15768115942028985</v>
+      </c>
+      <c r="N24" s="5">
+        <f>N16/N15</f>
+        <v>0.19635890767230169</v>
+      </c>
+      <c r="O24" s="5">
+        <f>O16/O15</f>
+        <v>0.21172122492080253</v>
+      </c>
+      <c r="P24" s="5">
+        <f>P16/P15</f>
+        <v>0.1951616655036055</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" ref="Q24:V24" si="47">Q16/Q15</f>
+        <v>0.15323943661971831</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="47"/>
+        <v>0.19509043927648578</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="47"/>
+        <v>0.20620253099465718</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="47"/>
+        <v>0.19270920663066671</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" si="47"/>
+        <v>0.14857136614648478</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="47"/>
+        <v>0.18892239168241021</v>
+      </c>
+      <c r="Y24" s="5">
+        <f t="shared" ref="Y24:AC24" si="48">Y16/Y15</f>
+        <v>0.245418048525048</v>
+      </c>
+      <c r="Z24" s="5">
+        <f t="shared" si="48"/>
+        <v>0.23058684054534678</v>
+      </c>
+      <c r="AA24" s="5">
+        <f t="shared" si="48"/>
+        <v>0.24840986320467021</v>
+      </c>
+      <c r="AB24" s="5">
+        <f t="shared" si="48"/>
+        <v>0.23603217158176942</v>
+      </c>
+      <c r="AC24" s="5">
+        <f t="shared" si="48"/>
+        <v>0.23310775637688705</v>
+      </c>
+      <c r="AD24" s="5">
+        <f t="shared" ref="AD24:AE24" si="49">AD16/AD15</f>
+        <v>0.19062631357713325</v>
+      </c>
+      <c r="AE24" s="5">
         <f t="shared" si="49"/>
-        <v>0.20225563909774436</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="49"/>
-        <v>0.36076923076923079</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="49"/>
-        <v>0.20949015648662292</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="49"/>
-        <v>0.28663150653519837</v>
-      </c>
-      <c r="M24" s="5">
-        <f t="shared" si="49"/>
-        <v>0.15768115942028985</v>
-      </c>
-      <c r="N24" s="5">
-        <f t="shared" si="49"/>
-        <v>0.19635890767230169</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="49"/>
-        <v>0.21172122492080253</v>
-      </c>
-      <c r="P24" s="5">
-        <f t="shared" si="49"/>
-        <v>0.1951616655036055</v>
-      </c>
-      <c r="Q24" s="5">
-        <f t="shared" ref="Q24:V24" si="50">Q16/Q15</f>
-        <v>0.15323943661971831</v>
-      </c>
-      <c r="R24" s="5">
+        <v>0.18647759853038384</v>
+      </c>
+      <c r="AF24" s="5">
+        <f t="shared" ref="AF24:AR24" si="50">AF16/AF15</f>
+        <v>0.18711235302551599</v>
+      </c>
+      <c r="AG24" s="5">
         <f t="shared" si="50"/>
-        <v>0.19011167487126546</v>
-      </c>
-      <c r="S24" s="5">
+        <v>0.18711235302551599</v>
+      </c>
+      <c r="AH24" s="5">
         <f t="shared" si="50"/>
-        <v>0.20620253099465718</v>
-      </c>
-      <c r="T24" s="5">
+        <v>0.18711235302551599</v>
+      </c>
+      <c r="AI24" s="5">
         <f t="shared" si="50"/>
-        <v>0.19270920663066671</v>
-      </c>
-      <c r="U24" s="5">
+        <v>0.18711235302551599</v>
+      </c>
+      <c r="AJ24" s="5">
         <f t="shared" si="50"/>
-        <v>0.14857136614648478</v>
-      </c>
-      <c r="V24" s="5">
+        <v>0.18711235302551599</v>
+      </c>
+      <c r="AK24" s="5">
         <f t="shared" si="50"/>
-        <v>0.18429528351754518</v>
-      </c>
-      <c r="Y24" s="5">
-        <f t="shared" ref="Y24:AC24" si="51">Y16/Y15</f>
-        <v>0.245418048525048</v>
-      </c>
-      <c r="Z24" s="5">
-        <f t="shared" si="51"/>
-        <v>0.23058684054534678</v>
-      </c>
-      <c r="AA24" s="5">
-        <f t="shared" si="51"/>
-        <v>0.24840986320467021</v>
-      </c>
-      <c r="AB24" s="5">
-        <f t="shared" si="51"/>
-        <v>0.23603217158176942</v>
-      </c>
-      <c r="AC24" s="5">
-        <f t="shared" si="51"/>
-        <v>0.23310775637688705</v>
-      </c>
-      <c r="AD24" s="5">
-        <f t="shared" ref="AD24:AE24" si="52">AD16/AD15</f>
-        <v>0.18981765366963355</v>
-      </c>
-      <c r="AE24" s="5">
-        <f t="shared" si="52"/>
-        <v>0.18571139020782537</v>
-      </c>
-      <c r="AF24" s="5">
-        <f t="shared" ref="AF24:AR24" si="53">AF16/AF15</f>
-        <v>0.18147101156671297</v>
-      </c>
-      <c r="AG24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.17999767839057915</v>
-      </c>
-      <c r="AH24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.17853369792275739</v>
-      </c>
-      <c r="AI24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.17707905317290457</v>
-      </c>
-      <c r="AJ24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.17563372644826875</v>
-      </c>
-      <c r="AK24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.17419769936539739</v>
+        <v>0.18711235302551599</v>
       </c>
       <c r="AL24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.172770952861836</v>
+        <f t="shared" si="50"/>
+        <v>0.18711235302551599</v>
       </c>
       <c r="AM24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.17135346720781458</v>
+        <f t="shared" si="50"/>
+        <v>0.18711235302551599</v>
       </c>
       <c r="AN24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.16994522201791715</v>
+        <f t="shared" si="50"/>
+        <v>0.18711235302551599</v>
       </c>
       <c r="AO24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.16854619626273129</v>
+        <f t="shared" si="50"/>
+        <v>0.18711235302551599</v>
       </c>
       <c r="AP24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.1671563682804742</v>
+        <f t="shared" si="50"/>
+        <v>0.18711235302551599</v>
       </c>
       <c r="AQ24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.16577571578859146</v>
+        <f t="shared" si="50"/>
+        <v>0.18711235302551599</v>
       </c>
       <c r="AR24" s="5">
-        <f t="shared" si="53"/>
-        <v>0.16440421589532531</v>
+        <f t="shared" si="50"/>
+        <v>0.18711235302551599</v>
       </c>
       <c r="AU24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AV24" s="9">
         <f>NPV(AV23,AD17:QI17)</f>
-        <v>217773.54411827819</v>
+        <v>193080.23127204677</v>
+      </c>
+      <c r="AX24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY24" s="18">
+        <f>AY22/AY21</f>
+        <v>4.3295158418569853E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:764">
       <c r="L25" s="2"/>
       <c r="P25" s="2"/>
       <c r="AU25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AV25" s="2">
-        <f>Main!J5-Main!J6</f>
+        <f>Main!H5-Main!H6</f>
         <v>7427</v>
       </c>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="19"/>
     </row>
-    <row r="26" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:764" ht="15">
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
@@ -5991,27 +6275,103 @@
         <v>-5.075682790391578E-2</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" ref="Q26:V26" si="54">Q5/M5-1</f>
+        <f>Q5/M5-1</f>
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="54"/>
+        <f>R5/N5-1</f>
         <v>0</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="54"/>
+        <f>S5/O5-1</f>
         <v>0</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="54"/>
+        <f>T5/P5-1</f>
         <v>0</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" si="54"/>
+        <f>U5/Q5-1</f>
         <v>0</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="54"/>
+        <f>V5/R5-1</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <f>Z5/Y5-1</f>
+        <v>3.169180525117099E-2</v>
+      </c>
+      <c r="AA26" s="5">
+        <f t="shared" ref="AA26:AR26" si="51">AA5/Z5-1</f>
+        <v>-2.4220588541558175E-2</v>
+      </c>
+      <c r="AB26" s="5">
+        <f t="shared" si="51"/>
+        <v>-1.8269518077432045E-2</v>
+      </c>
+      <c r="AC26" s="5">
+        <f t="shared" si="51"/>
+        <v>-3.7045088916909386E-2</v>
+      </c>
+      <c r="AD26" s="5">
+        <f t="shared" si="51"/>
+        <v>-2.3614936560256483E-2</v>
+      </c>
+      <c r="AE26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="5">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="5">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AU26" s="1" t="s">
@@ -6019,21 +6379,23 @@
       </c>
       <c r="AV26" s="9">
         <f>AV24+AV25</f>
-        <v>225200.54411827819</v>
-      </c>
+        <v>200507.23127204677</v>
+      </c>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="11"/>
     </row>
-    <row r="27" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:764">
       <c r="P27" s="2"/>
       <c r="T27" s="2"/>
       <c r="AU27" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AV27" s="4">
-        <f>AV26/Main!J3</f>
-        <v>51.450889677468176</v>
+        <f>AV26/Main!H3</f>
+        <v>45.809282904283016</v>
       </c>
     </row>
-    <row r="28" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:764">
       <c r="P28" s="2"/>
       <c r="T28" s="2"/>
       <c r="AU28" s="1" t="s">
@@ -6043,7 +6405,7 @@
         <v>41.73</v>
       </c>
     </row>
-    <row r="29" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:764">
       <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
@@ -6061,86 +6423,86 @@
       </c>
       <c r="R29" s="2">
         <f>Q29+R17</f>
-        <v>10216.540000000001</v>
+        <v>10176</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" ref="S29:V29" si="55">R29+S17</f>
-        <v>11760.230000000001</v>
+        <f t="shared" ref="S29:V29" si="52">R29+S17</f>
+        <v>11719.69</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="55"/>
-        <v>15274.940000000002</v>
+        <f t="shared" si="52"/>
+        <v>15234.400000000001</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="55"/>
-        <v>16833.710000000003</v>
+        <f t="shared" si="52"/>
+        <v>16793.170000000002</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="55"/>
-        <v>18170.384600000005</v>
+        <f t="shared" si="52"/>
+        <v>18089.710000000003</v>
       </c>
       <c r="AD29" s="2">
         <f>V29</f>
-        <v>18170.384600000005</v>
+        <v>18089.710000000003</v>
       </c>
       <c r="AE29" s="2">
         <f>AD29+AE17</f>
-        <v>26124.229200000005</v>
+        <v>26003.420000000002</v>
       </c>
       <c r="AF29" s="2">
-        <f t="shared" ref="AF29:AR29" si="56">AE29+AF17</f>
-        <v>34306.316092000008</v>
+        <f t="shared" ref="AF29:AR29" si="53">AE29+AF17</f>
+        <v>33884.130000000005</v>
       </c>
       <c r="AG29" s="2">
-        <f t="shared" si="56"/>
-        <v>42570.223852920011</v>
+        <f t="shared" si="53"/>
+        <v>41764.840000000004</v>
       </c>
       <c r="AH29" s="2">
-        <f t="shared" si="56"/>
-        <v>50916.770691449216</v>
+        <f t="shared" si="53"/>
+        <v>49645.55</v>
       </c>
       <c r="AI29" s="2">
-        <f t="shared" si="56"/>
-        <v>59346.782998363706</v>
+        <f t="shared" si="53"/>
+        <v>57526.26</v>
       </c>
       <c r="AJ29" s="2">
-        <f t="shared" si="56"/>
-        <v>67861.09542834734</v>
+        <f t="shared" si="53"/>
+        <v>65406.97</v>
       </c>
       <c r="AK29" s="2">
-        <f t="shared" si="56"/>
-        <v>76460.550982630812</v>
+        <f t="shared" si="53"/>
+        <v>73287.679999999993</v>
       </c>
       <c r="AL29" s="2">
-        <f t="shared" si="56"/>
-        <v>85146.001092457125</v>
+        <f t="shared" si="53"/>
+        <v>81168.389999999985</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" si="56"/>
-        <v>93918.305703381702</v>
+        <f t="shared" si="53"/>
+        <v>89049.099999999977</v>
       </c>
       <c r="AN29" s="2">
-        <f t="shared" si="56"/>
-        <v>102778.33336041552</v>
+        <f t="shared" si="53"/>
+        <v>96929.809999999969</v>
       </c>
       <c r="AO29" s="2">
-        <f t="shared" si="56"/>
-        <v>111726.96129401968</v>
+        <f t="shared" si="53"/>
+        <v>104810.51999999996</v>
       </c>
       <c r="AP29" s="2">
-        <f t="shared" si="56"/>
-        <v>120765.07550695988</v>
+        <f t="shared" si="53"/>
+        <v>112691.22999999995</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="56"/>
-        <v>129893.57086202948</v>
+        <f t="shared" si="53"/>
+        <v>120571.93999999994</v>
       </c>
       <c r="AR29" s="2">
-        <f t="shared" si="56"/>
-        <v>139113.35117064978</v>
+        <f t="shared" si="53"/>
+        <v>128452.64999999994</v>
       </c>
     </row>
-    <row r="30" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:764">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6166,8 +6528,12 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
+      <c r="AV30" s="5">
+        <f>AV27/AV28-1</f>
+        <v>9.7754203313755506E-2</v>
+      </c>
     </row>
-    <row r="31" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:764">
       <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
@@ -6176,8 +6542,6 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -6192,7 +6556,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:764" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:764">
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
@@ -6201,8 +6565,6 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -6217,7 +6579,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:35">
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
@@ -6226,8 +6588,6 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -6242,7 +6602,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:35">
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
@@ -6251,8 +6611,6 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -6267,7 +6625,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:35">
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
@@ -6276,8 +6634,6 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -6293,7 +6649,7 @@
       <c r="R35" s="2"/>
       <c r="AI35" s="5"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:35">
       <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
@@ -6302,8 +6658,6 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -6318,7 +6672,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:35">
       <c r="B37" s="1" t="s">
         <v>29</v>
       </c>
@@ -6327,8 +6681,6 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -6344,7 +6696,7 @@
       <c r="R37" s="2"/>
       <c r="AI37" s="5"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:35">
       <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
@@ -6353,8 +6705,6 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -6369,7 +6719,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:35">
       <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
@@ -6396,7 +6746,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:35">
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -6423,7 +6773,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:35">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -6441,7 +6791,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:35">
       <c r="B42" s="1" t="s">
         <v>32</v>
       </c>
@@ -6466,7 +6816,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:35">
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
@@ -6491,7 +6841,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:35">
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
@@ -6518,7 +6868,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:35">
       <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
@@ -6543,7 +6893,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:35">
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
@@ -6568,7 +6918,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:35">
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
@@ -6593,7 +6943,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:35">
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
@@ -6618,7 +6968,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18">
       <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
@@ -6643,7 +6993,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:18">
       <c r="B50" s="1" t="s">
         <v>39</v>
       </c>

--- a/investing spreadsheets/KO.xlsx
+++ b/investing spreadsheets/KO.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billymbp/stock-exchange-berkeley/investing spreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27960" windowHeight="14385"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27960" windowHeight="14380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -265,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0&quot;x&quot;"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0&quot;x&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,15 +306,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aruial"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Aruial"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,19 +354,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,7 +552,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,27 +763,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:CH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="56.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="56.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
     <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="6" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:86" ht="15">
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="3:86" ht="15" x14ac:dyDescent="0.2">
+      <c r="C2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,16 +793,16 @@
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="16">
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="3:86" ht="15">
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="3:86" ht="15" x14ac:dyDescent="0.2">
+      <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
@@ -801,14 +812,14 @@
       <c r="J3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="16">
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="3:86" ht="15">
-      <c r="C4" s="21"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+    <row r="4" spans="3:86" ht="15" x14ac:dyDescent="0.2">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
@@ -819,14 +830,14 @@
       <c r="J4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="16">
         <v>2.7</v>
       </c>
     </row>
-    <row r="5" spans="3:86" ht="15">
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+    <row r="5" spans="3:86" ht="15" x14ac:dyDescent="0.2">
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
@@ -838,14 +849,14 @@
       <c r="J5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="16">
         <v>4.2</v>
       </c>
     </row>
-    <row r="6" spans="3:86" ht="15">
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+    <row r="6" spans="3:86" ht="15" x14ac:dyDescent="0.2">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
@@ -856,14 +867,14 @@
       <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="16">
         <v>12.6</v>
       </c>
     </row>
-    <row r="7" spans="3:86" ht="15">
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+    <row r="7" spans="3:86" ht="15" x14ac:dyDescent="0.2">
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
@@ -874,21 +885,21 @@
       <c r="J7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="16">
         <f>SUM(K2:K6)</f>
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="8" spans="3:86" ht="15">
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+    <row r="8" spans="3:86" ht="15" x14ac:dyDescent="0.2">
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="3:86" ht="15">
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+    <row r="9" spans="3:86" ht="15" x14ac:dyDescent="0.2">
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="J9" s="2" t="s">
         <v>78</v>
       </c>
@@ -896,12 +907,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:86" ht="15">
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+    <row r="10" spans="3:86" ht="15" x14ac:dyDescent="0.2">
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="3:86" ht="15">
+    <row r="11" spans="3:86" ht="15" x14ac:dyDescent="0.2">
       <c r="C11" s="10"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -913,7 +924,7 @@
         <v>0.26615969581749055</v>
       </c>
     </row>
-    <row r="13" spans="3:86">
+    <row r="13" spans="3:86" x14ac:dyDescent="0.15">
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -995,11 +1006,11 @@
       <c r="CG13" s="2"/>
       <c r="CH13" s="2"/>
     </row>
-    <row r="15" spans="3:86">
+    <row r="15" spans="3:86" x14ac:dyDescent="0.15">
       <c r="F15" s="5"/>
     </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="22"/>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1011,26 +1022,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:ACJ50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="AY24" sqref="AY24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="30" width="9" style="1"/>
-    <col min="31" max="31" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="46" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="30" width="8.83203125" style="1"/>
+    <col min="31" max="31" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="46" width="8.83203125" style="1"/>
     <col min="47" max="47" width="11" style="1" customWidth="1"/>
     <col min="48" max="48" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9" style="1"/>
+    <col min="49" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44">
+    <row r="1" spans="2:44" x14ac:dyDescent="0.15">
       <c r="C1" s="3">
         <v>41362</v>
       </c>
@@ -1065,7 +1076,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="2" spans="2:44">
+    <row r="2" spans="2:44" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1206,7 +1217,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="2:44" s="7" customFormat="1" ht="15">
+    <row r="5" spans="2:44" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1256,27 +1267,27 @@
         <v>11539</v>
       </c>
       <c r="Q5" s="8">
-        <f>M5*1</f>
+        <f t="shared" ref="Q5:V5" si="1">M5*1</f>
         <v>11427</v>
       </c>
       <c r="R5" s="8">
-        <f>N5*1</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="S5" s="8">
-        <f>O5*1</f>
+        <f t="shared" si="1"/>
         <v>10282</v>
       </c>
       <c r="T5" s="8">
-        <f>P5*1</f>
+        <f t="shared" si="1"/>
         <v>11539</v>
       </c>
       <c r="U5" s="8">
-        <f>Q5*1</f>
+        <f t="shared" si="1"/>
         <v>11427</v>
       </c>
       <c r="V5" s="8">
-        <f>R5*1</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="Y5" s="8">
@@ -1309,55 +1320,55 @@
         <v>43248</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" ref="AG5:AR5" si="1">AF5</f>
+        <f t="shared" ref="AG5:AR5" si="2">AF5</f>
         <v>43248</v>
       </c>
       <c r="AH5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AI5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AJ5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AK5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AL5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AM5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AN5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AO5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AP5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AQ5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
       <c r="AR5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43248</v>
       </c>
     </row>
-    <row r="6" spans="2:44">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1415,19 +1426,19 @@
         <v>4054</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" ref="S6:V6" si="2">O6*0.99</f>
+        <f t="shared" ref="S6:V6" si="3">O6*0.99</f>
         <v>4028.31</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4426.29</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4531.2299999999996</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4013.46</v>
       </c>
       <c r="Y6" s="2">
@@ -1460,164 +1471,164 @@
         <v>16999.29</v>
       </c>
       <c r="AG6" s="2">
-        <f t="shared" ref="AG6:AR6" si="3">AF6</f>
+        <f t="shared" ref="AG6:AR6" si="4">AF6</f>
         <v>16999.29</v>
       </c>
       <c r="AH6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AI6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AJ6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AK6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AL6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AM6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AN6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AO6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AP6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AQ6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
       <c r="AR6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16999.29</v>
       </c>
     </row>
-    <row r="7" spans="2:44">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="2">
-        <f>C5-C6</f>
+        <f t="shared" ref="C7:Q7" si="5">C5-C6</f>
         <v>6711</v>
       </c>
       <c r="D7" s="2">
-        <f>D5-D6</f>
+        <f t="shared" si="5"/>
         <v>7760</v>
       </c>
       <c r="E7" s="2">
-        <f>E5-E6</f>
+        <f t="shared" si="5"/>
         <v>7237</v>
       </c>
       <c r="F7" s="2">
-        <f>F5-F6</f>
+        <f t="shared" si="5"/>
         <v>6725</v>
       </c>
       <c r="G7" s="2">
-        <f>G5-G6</f>
+        <f t="shared" si="5"/>
         <v>6608</v>
       </c>
       <c r="H7" s="2">
-        <f>H5-H6</f>
+        <f t="shared" si="5"/>
         <v>7755</v>
       </c>
       <c r="I7" s="2">
-        <f>I5-I6</f>
+        <f t="shared" si="5"/>
         <v>7346</v>
       </c>
       <c r="J7" s="2">
-        <f>J5-J6</f>
+        <f t="shared" si="5"/>
         <v>6400</v>
       </c>
       <c r="K7" s="2">
-        <f>K5-K6</f>
+        <f t="shared" si="5"/>
         <v>6608</v>
       </c>
       <c r="L7" s="2">
-        <f>L5-L6</f>
+        <f t="shared" si="5"/>
         <v>7408</v>
       </c>
       <c r="M7" s="2">
-        <f>M5-M6</f>
+        <f t="shared" si="5"/>
         <v>6850</v>
       </c>
       <c r="N7" s="2">
-        <f>N5-N6</f>
+        <f t="shared" si="5"/>
         <v>5946</v>
       </c>
       <c r="O7" s="2">
-        <f>O5-O6</f>
+        <f t="shared" si="5"/>
         <v>6213</v>
       </c>
       <c r="P7" s="2">
-        <f>P5-P6</f>
+        <f t="shared" si="5"/>
         <v>7068</v>
       </c>
       <c r="Q7" s="2">
-        <f>Q5-Q6</f>
+        <f t="shared" si="5"/>
         <v>6850</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:V7" si="4">R5-R6</f>
+        <f t="shared" ref="R7:V7" si="6">R5-R6</f>
         <v>5946</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6253.6900000000005</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7112.71</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6895.77</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5986.54</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" ref="Y7:AE7" si="5">Y5-Y6</f>
+        <f t="shared" ref="Y7:AE7" si="7">Y5-Y6</f>
         <v>28327</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28964</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28433</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28109</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26812</v>
       </c>
       <c r="AD7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26077</v>
       </c>
       <c r="AE7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26248.71</v>
       </c>
       <c r="AF7" s="2">
@@ -1625,55 +1636,55 @@
         <v>26248.71</v>
       </c>
       <c r="AG7" s="2">
-        <f t="shared" ref="AG7:AR7" si="6">AF7</f>
+        <f t="shared" ref="AG7:AR7" si="8">AF7</f>
         <v>26248.71</v>
       </c>
       <c r="AH7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AI7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AJ7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AK7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AL7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AM7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AP7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AQ7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
       <c r="AR7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26248.71</v>
       </c>
     </row>
-    <row r="8" spans="2:44">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1723,27 +1734,27 @@
         <v>3912</v>
       </c>
       <c r="Q8" s="2">
-        <f>M8</f>
+        <f t="shared" ref="Q8:V10" si="9">M8</f>
         <v>4207</v>
       </c>
       <c r="R8" s="2">
-        <f>N8</f>
+        <f t="shared" si="9"/>
         <v>3937</v>
       </c>
       <c r="S8" s="2">
-        <f>O8</f>
+        <f t="shared" si="9"/>
         <v>3761</v>
       </c>
       <c r="T8" s="2">
-        <f>P8</f>
+        <f t="shared" si="9"/>
         <v>3912</v>
       </c>
       <c r="U8" s="2">
-        <f>Q8</f>
+        <f t="shared" si="9"/>
         <v>4207</v>
       </c>
       <c r="V8" s="2">
-        <f>R8</f>
+        <f t="shared" si="9"/>
         <v>3937</v>
       </c>
       <c r="Y8" s="2">
@@ -1776,55 +1787,55 @@
         <v>15817</v>
       </c>
       <c r="AG8" s="2">
-        <f t="shared" ref="AG8:AR8" si="7">AF8</f>
+        <f t="shared" ref="AG8:AR8" si="10">AF8</f>
         <v>15817</v>
       </c>
       <c r="AH8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AI8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AJ8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AK8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AL8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AM8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AN8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AO8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AP8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AQ8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
       <c r="AR8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15817</v>
       </c>
     </row>
-    <row r="9" spans="2:44">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1874,27 +1885,27 @@
         <v>297</v>
       </c>
       <c r="Q9" s="2">
-        <f>M9</f>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="R9" s="2">
-        <f>N9</f>
+        <f t="shared" si="9"/>
         <v>491</v>
       </c>
       <c r="S9" s="2">
-        <f>O9</f>
+        <f t="shared" si="9"/>
         <v>311</v>
       </c>
       <c r="T9" s="2">
-        <f>P9</f>
+        <f t="shared" si="9"/>
         <v>297</v>
       </c>
       <c r="U9" s="2">
-        <f>Q9</f>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="V9" s="2">
-        <f>R9</f>
+        <f t="shared" si="9"/>
         <v>491</v>
       </c>
       <c r="Y9" s="2">
@@ -1927,385 +1938,385 @@
         <v>1363</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" ref="AG9:AR9" si="8">AF9</f>
+        <f t="shared" ref="AG9:AR9" si="11">AF9</f>
         <v>1363</v>
       </c>
       <c r="AH9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AI9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AJ9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AK9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AM9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AP9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AQ9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
       <c r="AR9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1363</v>
       </c>
     </row>
-    <row r="10" spans="2:44">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="2">
-        <f>+C8+C9</f>
+        <f t="shared" ref="C10:P10" si="12">+C8+C9</f>
         <v>4303</v>
       </c>
       <c r="D10" s="2">
-        <f>+D8+D9</f>
+        <f t="shared" si="12"/>
         <v>4517</v>
       </c>
       <c r="E10" s="2">
-        <f>+E8+E9</f>
+        <f t="shared" si="12"/>
         <v>4765</v>
       </c>
       <c r="F10" s="2">
-        <f>+F8+F9</f>
+        <f t="shared" si="12"/>
         <v>4620</v>
       </c>
       <c r="G10" s="2">
-        <f>+G8+G9</f>
+        <f t="shared" si="12"/>
         <v>4312</v>
       </c>
       <c r="H10" s="2">
-        <f>+H8+H9</f>
+        <f t="shared" si="12"/>
         <v>4585</v>
       </c>
       <c r="I10" s="2">
-        <f>+I8+I9</f>
+        <f t="shared" si="12"/>
         <v>4635</v>
       </c>
       <c r="J10" s="2">
-        <f>+J8+J9</f>
+        <f t="shared" si="12"/>
         <v>4869</v>
       </c>
       <c r="K10" s="2">
-        <f>+K8+K9</f>
+        <f t="shared" si="12"/>
         <v>4312</v>
       </c>
       <c r="L10" s="2">
-        <f>+L8+L9</f>
+        <f t="shared" si="12"/>
         <v>4873</v>
       </c>
       <c r="M10" s="2">
-        <f>+M8+M9</f>
+        <f t="shared" si="12"/>
         <v>4471</v>
       </c>
       <c r="N10" s="2">
-        <f>+N8+N9</f>
+        <f t="shared" si="12"/>
         <v>4428</v>
       </c>
       <c r="O10" s="2">
-        <f>+O8+O9</f>
+        <f t="shared" si="12"/>
         <v>4072</v>
       </c>
       <c r="P10" s="2">
-        <f>+P8+P9</f>
+        <f t="shared" si="12"/>
         <v>4209</v>
       </c>
       <c r="Q10" s="2">
-        <f>M10</f>
+        <f t="shared" si="9"/>
         <v>4471</v>
       </c>
       <c r="R10" s="2">
-        <f>N10</f>
+        <f t="shared" si="9"/>
         <v>4428</v>
       </c>
       <c r="S10" s="2">
-        <f>O10</f>
+        <f t="shared" si="9"/>
         <v>4072</v>
       </c>
       <c r="T10" s="2">
-        <f>P10</f>
+        <f t="shared" si="9"/>
         <v>4209</v>
       </c>
       <c r="U10" s="2">
-        <f>Q10</f>
+        <f t="shared" si="9"/>
         <v>4471</v>
       </c>
       <c r="V10" s="2">
-        <f>R10</f>
+        <f t="shared" si="9"/>
         <v>4428</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" ref="Y10:AF10" si="9">+Y8+Y9</f>
+        <f t="shared" ref="Y10:AF10" si="13">+Y8+Y9</f>
         <v>18154</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18185</v>
       </c>
       <c r="AA10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18205</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18401</v>
       </c>
       <c r="AC10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18084</v>
       </c>
       <c r="AD10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17180</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17180</v>
       </c>
       <c r="AF10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17180</v>
       </c>
       <c r="AG10" s="2">
-        <f t="shared" ref="AG10:AR10" si="10">+AG8+AG9</f>
+        <f t="shared" ref="AG10:AR10" si="14">+AG8+AG9</f>
         <v>17180</v>
       </c>
       <c r="AH10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AI10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AJ10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AK10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AL10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AM10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AN10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AO10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AP10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AQ10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
       <c r="AR10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17180</v>
       </c>
     </row>
-    <row r="11" spans="2:44" s="7" customFormat="1" ht="15">
+    <row r="11" spans="2:44" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="8">
-        <f>C7-C10</f>
+        <f t="shared" ref="C11:Q11" si="15">C7-C10</f>
         <v>2408</v>
       </c>
       <c r="D11" s="8">
-        <f>D7-D10</f>
+        <f t="shared" si="15"/>
         <v>3243</v>
       </c>
       <c r="E11" s="8">
-        <f>E7-E10</f>
+        <f t="shared" si="15"/>
         <v>2472</v>
       </c>
       <c r="F11" s="8">
-        <f>F7-F10</f>
+        <f t="shared" si="15"/>
         <v>2105</v>
       </c>
       <c r="G11" s="8">
-        <f>G7-G10</f>
+        <f t="shared" si="15"/>
         <v>2296</v>
       </c>
       <c r="H11" s="8">
-        <f>H7-H10</f>
+        <f t="shared" si="15"/>
         <v>3170</v>
       </c>
       <c r="I11" s="8">
-        <f>I7-I10</f>
+        <f t="shared" si="15"/>
         <v>2711</v>
       </c>
       <c r="J11" s="8">
-        <f>J7-J10</f>
+        <f t="shared" si="15"/>
         <v>1531</v>
       </c>
       <c r="K11" s="8">
-        <f>K7-K10</f>
+        <f t="shared" si="15"/>
         <v>2296</v>
       </c>
       <c r="L11" s="8">
-        <f>L7-L10</f>
+        <f t="shared" si="15"/>
         <v>2535</v>
       </c>
       <c r="M11" s="8">
-        <f>M7-M10</f>
+        <f t="shared" si="15"/>
         <v>2379</v>
       </c>
       <c r="N11" s="8">
-        <f>N7-N10</f>
+        <f t="shared" si="15"/>
         <v>1518</v>
       </c>
       <c r="O11" s="8">
-        <f>O7-O10</f>
+        <f t="shared" si="15"/>
         <v>2141</v>
       </c>
       <c r="P11" s="8">
-        <f>P7-P10</f>
+        <f t="shared" si="15"/>
         <v>2859</v>
       </c>
       <c r="Q11" s="8">
-        <f>Q7-Q10</f>
+        <f t="shared" si="15"/>
         <v>2379</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" ref="R11:V11" si="11">R7-R10</f>
+        <f t="shared" ref="R11:V11" si="16">R7-R10</f>
         <v>1518</v>
       </c>
       <c r="S11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2181.6900000000005</v>
       </c>
       <c r="T11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2903.71</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2424.7700000000004</v>
       </c>
       <c r="V11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1558.54</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" ref="Y11:AF11" si="12">Y7-Y10</f>
+        <f t="shared" ref="Y11:AF11" si="17">Y7-Y10</f>
         <v>10173</v>
       </c>
       <c r="Z11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>10779</v>
       </c>
       <c r="AA11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>10228</v>
       </c>
       <c r="AB11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>9708</v>
       </c>
       <c r="AC11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8728</v>
       </c>
       <c r="AD11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8897</v>
       </c>
       <c r="AE11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AF11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AG11" s="8">
-        <f t="shared" ref="AG11:AR11" si="13">AG7-AG10</f>
+        <f t="shared" ref="AG11:AR11" si="18">AG7-AG10</f>
         <v>9068.7099999999991</v>
       </c>
       <c r="AH11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AI11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AJ11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AK11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AL11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AM11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AN11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AO11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AP11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AQ11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
       <c r="AR11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9068.7099999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:44">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
@@ -2366,27 +2377,27 @@
         <v>2</v>
       </c>
       <c r="Q12" s="2">
-        <f>M12</f>
+        <f t="shared" ref="Q12:V12" si="19">M12</f>
         <v>17</v>
       </c>
       <c r="R12" s="2">
-        <f>N12</f>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="S12" s="2">
-        <f>O12</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="T12" s="2">
-        <f>P12</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="U12" s="2">
-        <f>Q12</f>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="V12" s="2">
-        <f>R12</f>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="Y12" s="2">
@@ -2422,55 +2433,55 @@
         <v>0</v>
       </c>
       <c r="AG12" s="2">
-        <f t="shared" ref="AG12:AR12" si="14">AF29*$AV$21</f>
+        <f t="shared" ref="AG12:AR12" si="20">AF29*$AV$21</f>
         <v>0</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AI12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AM12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AP12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AR12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:44">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2573,55 +2584,55 @@
         <v>784</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" ref="AG13:AR13" si="15">AF13</f>
+        <f t="shared" ref="AG13:AR13" si="21">AF13</f>
         <v>784</v>
       </c>
       <c r="AH13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AI13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AP13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AQ13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="2:44">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2671,27 +2682,27 @@
         <v>1133</v>
       </c>
       <c r="Q14" s="2">
-        <f>M14</f>
+        <f t="shared" ref="Q14:V14" si="22">M14</f>
         <v>-871</v>
       </c>
       <c r="R14" s="2">
-        <f>N14</f>
+        <f t="shared" si="22"/>
         <v>-78</v>
       </c>
       <c r="S14" s="2">
-        <f>O14</f>
+        <f t="shared" si="22"/>
         <v>-342</v>
       </c>
       <c r="T14" s="2">
-        <f>P14</f>
+        <f t="shared" si="22"/>
         <v>1133</v>
       </c>
       <c r="U14" s="2">
-        <f>Q14</f>
+        <f t="shared" si="22"/>
         <v>-871</v>
       </c>
       <c r="V14" s="2">
-        <f>R14</f>
+        <f t="shared" si="22"/>
         <v>-78</v>
       </c>
       <c r="Y14" s="2">
@@ -2724,220 +2735,220 @@
         <v>-158</v>
       </c>
       <c r="AG14" s="2">
-        <f t="shared" ref="AG14:AR14" si="16">AF14</f>
+        <f t="shared" ref="AG14:AR14" si="23">AF14</f>
         <v>-158</v>
       </c>
       <c r="AH14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-158</v>
       </c>
     </row>
-    <row r="15" spans="2:44">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="2">
-        <f>SUM(C11:C14)</f>
+        <f t="shared" ref="C15:Q15" si="24">SUM(C11:C14)</f>
         <v>2344</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(D11:D14)</f>
+        <f t="shared" si="24"/>
         <v>3525</v>
       </c>
       <c r="E15" s="2">
-        <f>SUM(E11:E14)</f>
+        <f t="shared" si="24"/>
         <v>3380</v>
       </c>
       <c r="F15" s="2">
-        <f>SUM(F11:F14)</f>
+        <f t="shared" si="24"/>
         <v>2228</v>
       </c>
       <c r="G15" s="2">
-        <f>SUM(G11:G14)</f>
+        <f t="shared" si="24"/>
         <v>1981</v>
       </c>
       <c r="H15" s="2">
-        <f>SUM(H11:H14)</f>
+        <f t="shared" si="24"/>
         <v>3384</v>
       </c>
       <c r="I15" s="2">
-        <f>SUM(I11:I14)</f>
+        <f t="shared" si="24"/>
         <v>2660</v>
       </c>
       <c r="J15" s="2">
-        <f>SUM(J11:J14)</f>
+        <f t="shared" si="24"/>
         <v>1300</v>
       </c>
       <c r="K15" s="2">
-        <f>SUM(K11:K14)</f>
+        <f t="shared" si="24"/>
         <v>1981</v>
       </c>
       <c r="L15" s="2">
-        <f>SUM(L11:L14)</f>
+        <f t="shared" si="24"/>
         <v>4361</v>
       </c>
       <c r="M15" s="2">
-        <f>SUM(M11:M14)</f>
+        <f t="shared" si="24"/>
         <v>1725</v>
       </c>
       <c r="N15" s="2">
-        <f>SUM(N11:N14)</f>
+        <f t="shared" si="24"/>
         <v>1538</v>
       </c>
       <c r="O15" s="2">
-        <f>SUM(O11:O14)</f>
+        <f t="shared" si="24"/>
         <v>1894</v>
       </c>
       <c r="P15" s="2">
-        <f>SUM(P11:P14)</f>
+        <f t="shared" si="24"/>
         <v>4299</v>
       </c>
       <c r="Q15" s="2">
-        <f>SUM(Q11:Q14)</f>
+        <f t="shared" si="24"/>
         <v>1775</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" ref="R15:V15" si="17">SUM(R11:R14)</f>
+        <f t="shared" ref="R15:V15" si="25">SUM(R11:R14)</f>
         <v>1548</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1944.6900000000005</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>4353.71</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1830.7700000000004</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1598.54</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" ref="Y15:AF15" si="18">SUM(Y11:Y14)</f>
+        <f t="shared" ref="Y15:AF15" si="26">SUM(Y11:Y14)</f>
         <v>11458</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>11809</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>11477</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9325</v>
       </c>
       <c r="AC15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9605</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9516</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9727.7099999999991</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AG15" s="2">
-        <f t="shared" ref="AG15:AR15" si="19">SUM(AG11:AG14)</f>
+        <f t="shared" ref="AG15:AR15" si="27">SUM(AG11:AG14)</f>
         <v>9694.7099999999991</v>
       </c>
       <c r="AH15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AI15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AJ15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AP15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AQ15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>9694.7099999999991</v>
       </c>
     </row>
-    <row r="16" spans="2:44">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2987,27 +2998,27 @@
         <v>839</v>
       </c>
       <c r="Q16" s="2">
-        <f>M16</f>
+        <f t="shared" ref="Q16:V16" si="28">M16</f>
         <v>272</v>
       </c>
       <c r="R16" s="2">
-        <f>N16</f>
+        <f t="shared" si="28"/>
         <v>302</v>
       </c>
       <c r="S16" s="2">
-        <f>O16</f>
+        <f t="shared" si="28"/>
         <v>401</v>
       </c>
       <c r="T16" s="2">
-        <f>P16</f>
+        <f t="shared" si="28"/>
         <v>839</v>
       </c>
       <c r="U16" s="2">
-        <f>Q16</f>
+        <f t="shared" si="28"/>
         <v>272</v>
       </c>
       <c r="V16" s="2">
-        <f>R16</f>
+        <f t="shared" si="28"/>
         <v>302</v>
       </c>
       <c r="Y16" s="2">
@@ -3040,216 +3051,216 @@
         <v>1814</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" ref="AG16:AR16" si="20">AF16</f>
+        <f t="shared" ref="AG16:AR16" si="29">AF16</f>
         <v>1814</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1814</v>
       </c>
     </row>
-    <row r="17" spans="2:764" s="7" customFormat="1" ht="15">
+    <row r="17" spans="2:764" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="8">
-        <f>C15-C16</f>
+        <f t="shared" ref="C17:Q17" si="30">C15-C16</f>
         <v>1769</v>
       </c>
       <c r="D17" s="8">
-        <f>D15-D16</f>
+        <f t="shared" si="30"/>
         <v>2694</v>
       </c>
       <c r="E17" s="8">
-        <f>E15-E16</f>
+        <f t="shared" si="30"/>
         <v>2455</v>
       </c>
       <c r="F17" s="8">
-        <f>F15-F16</f>
+        <f t="shared" si="30"/>
         <v>1708</v>
       </c>
       <c r="G17" s="8">
-        <f>G15-G16</f>
+        <f t="shared" si="30"/>
         <v>1566</v>
       </c>
       <c r="H17" s="8">
-        <f>H15-H16</f>
+        <f t="shared" si="30"/>
         <v>2605</v>
       </c>
       <c r="I17" s="8">
-        <f>I15-I16</f>
+        <f t="shared" si="30"/>
         <v>2122</v>
       </c>
       <c r="J17" s="8">
-        <f>J15-J16</f>
+        <f t="shared" si="30"/>
         <v>831</v>
       </c>
       <c r="K17" s="8">
-        <f>K15-K16</f>
+        <f t="shared" si="30"/>
         <v>1566</v>
       </c>
       <c r="L17" s="8">
-        <f>L15-L16</f>
+        <f t="shared" si="30"/>
         <v>3111</v>
       </c>
       <c r="M17" s="8">
-        <f>M15-M16</f>
+        <f t="shared" si="30"/>
         <v>1453</v>
       </c>
       <c r="N17" s="8">
-        <f>N15-N16</f>
+        <f t="shared" si="30"/>
         <v>1236</v>
       </c>
       <c r="O17" s="8">
-        <f>O15-O16</f>
+        <f t="shared" si="30"/>
         <v>1493</v>
       </c>
       <c r="P17" s="8">
-        <f>P15-P16</f>
+        <f t="shared" si="30"/>
         <v>3460</v>
       </c>
       <c r="Q17" s="8">
-        <f>Q15-Q16</f>
+        <f t="shared" si="30"/>
         <v>1503</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" ref="R17:V17" si="21">R15-R16</f>
+        <f t="shared" ref="R17:V17" si="31">R15-R16</f>
         <v>1246</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1543.6900000000005</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>3514.71</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1558.7700000000004</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1296.54</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" ref="Y17:AF17" si="22">Y15-Y16</f>
+        <f t="shared" ref="Y17:AF17" si="32">Y15-Y16</f>
         <v>8646</v>
       </c>
       <c r="Z17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>9086</v>
       </c>
       <c r="AA17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>8626</v>
       </c>
       <c r="AB17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>7124</v>
       </c>
       <c r="AC17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>7366</v>
       </c>
       <c r="AD17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>7702</v>
       </c>
       <c r="AE17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>7913.7099999999991</v>
       </c>
       <c r="AF17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AG17" s="8">
-        <f t="shared" ref="AG17:AR17" si="23">AG15-AG16</f>
+        <f t="shared" ref="AG17:AR17" si="33">AG15-AG16</f>
         <v>7880.7099999999991</v>
       </c>
       <c r="AH17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AI17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AJ17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AK17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AL17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AM17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AN17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AO17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AP17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AQ17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AR17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7880.7099999999991</v>
       </c>
       <c r="AS17" s="8">
@@ -3257,1627 +3268,1627 @@
         <v>7723.0957999999991</v>
       </c>
       <c r="AT17" s="8">
-        <f t="shared" ref="AT17:DE17" si="24">AS17*(1+$AV$22)</f>
+        <f t="shared" ref="AT17:DE17" si="34">AS17*(1+$AV$22)</f>
         <v>7568.6338839999989</v>
       </c>
       <c r="AU17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>7417.2612063199986</v>
       </c>
       <c r="AV17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>7268.9159821935982</v>
       </c>
       <c r="AW17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>7123.5376625497265</v>
       </c>
       <c r="AX17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>6981.0669092987318</v>
       </c>
       <c r="AY17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>6841.4455711127575</v>
       </c>
       <c r="AZ17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>6704.6166596905023</v>
       </c>
       <c r="BA17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>6570.5243264966921</v>
       </c>
       <c r="BB17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>6439.113839966758</v>
       </c>
       <c r="BC17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>6310.3315631674222</v>
       </c>
       <c r="BD17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>6184.1249319040735</v>
       </c>
       <c r="BE17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>6060.4424332659919</v>
       </c>
       <c r="BF17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>5939.2335846006717</v>
       </c>
       <c r="BG17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>5820.4489129086578</v>
       </c>
       <c r="BH17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>5704.0399346504846</v>
       </c>
       <c r="BI17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>5589.9591359574752</v>
       </c>
       <c r="BJ17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>5478.1599532383252</v>
       </c>
       <c r="BK17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>5368.596754173559</v>
       </c>
       <c r="BL17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>5261.2248190900873</v>
       </c>
       <c r="BM17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>5156.0003227082852</v>
       </c>
       <c r="BN17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>5052.8803162541199</v>
       </c>
       <c r="BO17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4951.822709929037</v>
       </c>
       <c r="BP17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4852.7862557304561</v>
       </c>
       <c r="BQ17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4755.7305306158469</v>
       </c>
       <c r="BR17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4660.6159200035299</v>
       </c>
       <c r="BS17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4567.4036016034588</v>
       </c>
       <c r="BT17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4476.0555295713893</v>
       </c>
       <c r="BU17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4386.5344189799616</v>
       </c>
       <c r="BV17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4298.8037306003625</v>
       </c>
       <c r="BW17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4212.8276559883552</v>
       </c>
       <c r="BX17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4128.5711028685882</v>
       </c>
       <c r="BY17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4045.9996808112164</v>
       </c>
       <c r="BZ17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3965.0796871949919</v>
       </c>
       <c r="CA17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3885.778093451092</v>
       </c>
       <c r="CB17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3808.0625315820703</v>
       </c>
       <c r="CC17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3731.9012809504288</v>
       </c>
       <c r="CD17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3657.2632553314202</v>
       </c>
       <c r="CE17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3584.1179902247918</v>
       </c>
       <c r="CF17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3512.4356304202961</v>
       </c>
       <c r="CG17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3442.18691781189</v>
       </c>
       <c r="CH17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3373.3431794556523</v>
       </c>
       <c r="CI17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3305.8763158665392</v>
       </c>
       <c r="CJ17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3239.7587895492084</v>
       </c>
       <c r="CK17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3174.9636137582243</v>
       </c>
       <c r="CL17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3111.4643414830598</v>
       </c>
       <c r="CM17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3049.2350546533985</v>
       </c>
       <c r="CN17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2988.2503535603305</v>
       </c>
       <c r="CO17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2928.4853464891239</v>
       </c>
       <c r="CP17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2869.9156395593413</v>
       </c>
       <c r="CQ17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2812.5173267681544</v>
       </c>
       <c r="CR17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2756.2669802327914</v>
       </c>
       <c r="CS17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2701.1416406281355</v>
       </c>
       <c r="CT17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2647.1188078155728</v>
       </c>
       <c r="CU17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2594.1764316592612</v>
       </c>
       <c r="CV17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2542.2929030260761</v>
       </c>
       <c r="CW17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2491.4470449655546</v>
       </c>
       <c r="CX17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2441.6181040662436</v>
       </c>
       <c r="CY17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2392.7857419849188</v>
       </c>
       <c r="CZ17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2344.9300271452203</v>
       </c>
       <c r="DA17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2298.0314266023156</v>
       </c>
       <c r="DB17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2252.0707980702691</v>
       </c>
       <c r="DC17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2207.0293821088635</v>
       </c>
       <c r="DD17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2162.8887944666862</v>
       </c>
       <c r="DE17" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2119.6310185773523</v>
       </c>
       <c r="DF17" s="8">
-        <f t="shared" ref="DF17:FQ17" si="25">DE17*(1+$AV$22)</f>
+        <f t="shared" ref="DF17:FQ17" si="35">DE17*(1+$AV$22)</f>
         <v>2077.238398205805</v>
       </c>
       <c r="DG17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>2035.6936302416889</v>
       </c>
       <c r="DH17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1994.9797576368551</v>
       </c>
       <c r="DI17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1955.0801624841179</v>
       </c>
       <c r="DJ17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1915.9785592344356</v>
       </c>
       <c r="DK17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1877.6589880497468</v>
       </c>
       <c r="DL17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1840.1058082887519</v>
       </c>
       <c r="DM17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1803.3036921229768</v>
       </c>
       <c r="DN17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1767.2376182805172</v>
       </c>
       <c r="DO17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1731.8928659149067</v>
       </c>
       <c r="DP17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1697.2550085966086</v>
       </c>
       <c r="DQ17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1663.3099084246765</v>
       </c>
       <c r="DR17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1630.043710256183</v>
       </c>
       <c r="DS17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1597.4428360510592</v>
       </c>
       <c r="DT17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1565.493979330038</v>
       </c>
       <c r="DU17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1534.1840997434372</v>
       </c>
       <c r="DV17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1503.5004177485685</v>
       </c>
       <c r="DW17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1473.4304093935971</v>
       </c>
       <c r="DX17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1443.9618012057251</v>
       </c>
       <c r="DY17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1415.0825651816106</v>
       </c>
       <c r="DZ17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1386.7809138779783</v>
       </c>
       <c r="EA17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1359.0452956004187</v>
       </c>
       <c r="EB17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1331.8643896884103</v>
       </c>
       <c r="EC17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1305.2271018946419</v>
       </c>
       <c r="ED17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1279.1225598567491</v>
       </c>
       <c r="EE17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1253.5401086596141</v>
       </c>
       <c r="EF17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1228.4693064864218</v>
       </c>
       <c r="EG17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1203.8999203566934</v>
       </c>
       <c r="EH17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1179.8219219495595</v>
       </c>
       <c r="EI17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1156.2254835105682</v>
       </c>
       <c r="EJ17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1133.1009738403568</v>
       </c>
       <c r="EK17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1110.4389543635496</v>
       </c>
       <c r="EL17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1088.2301752762785</v>
       </c>
       <c r="EM17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1066.4655717707528</v>
       </c>
       <c r="EN17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1045.1362603353377</v>
       </c>
       <c r="EO17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1024.233535128631</v>
       </c>
       <c r="EP17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1003.7488644260584</v>
       </c>
       <c r="EQ17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>983.67388713753724</v>
       </c>
       <c r="ER17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>964.00040939478652</v>
       </c>
       <c r="ES17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>944.72040120689076</v>
       </c>
       <c r="ET17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>925.82599318275288</v>
       </c>
       <c r="EU17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>907.30947331909783</v>
       </c>
       <c r="EV17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>889.16328385271584</v>
       </c>
       <c r="EW17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>871.38001817566146</v>
       </c>
       <c r="EX17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>853.95241781214827</v>
       </c>
       <c r="EY17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>836.87336945590528</v>
       </c>
       <c r="EZ17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>820.13590206678714</v>
       </c>
       <c r="FA17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>803.73318402545135</v>
       </c>
       <c r="FB17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>787.6585203449423</v>
       </c>
       <c r="FC17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>771.9053499380434</v>
       </c>
       <c r="FD17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>756.46724293928253</v>
       </c>
       <c r="FE17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>741.33789808049687</v>
       </c>
       <c r="FF17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>726.51114011888694</v>
       </c>
       <c r="FG17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>711.98091731650914</v>
       </c>
       <c r="FH17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>697.74129897017895</v>
       </c>
       <c r="FI17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>683.78647299077534</v>
       </c>
       <c r="FJ17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>670.11074353095978</v>
       </c>
       <c r="FK17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>656.70852866034056</v>
       </c>
       <c r="FL17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>643.57435808713376</v>
       </c>
       <c r="FM17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>630.70287092539104</v>
       </c>
       <c r="FN17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>618.08881350688318</v>
       </c>
       <c r="FO17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>605.72703723674556</v>
       </c>
       <c r="FP17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>593.61249649201068</v>
       </c>
       <c r="FQ17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>581.74024656217046</v>
       </c>
       <c r="FR17" s="8">
-        <f t="shared" ref="FR17:IC17" si="26">FQ17*(1+$AV$22)</f>
+        <f t="shared" ref="FR17:IC17" si="36">FQ17*(1+$AV$22)</f>
         <v>570.10544163092709</v>
       </c>
       <c r="FS17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>558.70333279830857</v>
       </c>
       <c r="FT17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>547.52926614234241</v>
       </c>
       <c r="FU17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>536.5786808194955</v>
       </c>
       <c r="FV17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>525.84710720310557</v>
       </c>
       <c r="FW17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>515.33016505904345</v>
       </c>
       <c r="FX17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>505.02356175786258</v>
       </c>
       <c r="FY17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>494.92309052270531</v>
       </c>
       <c r="FZ17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>485.02462871225117</v>
       </c>
       <c r="GA17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>475.32413613800617</v>
       </c>
       <c r="GB17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>465.81765341524601</v>
       </c>
       <c r="GC17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>456.50130034694109</v>
       </c>
       <c r="GD17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>447.37127434000229</v>
       </c>
       <c r="GE17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>438.42384885320223</v>
       </c>
       <c r="GF17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>429.65537187613819</v>
       </c>
       <c r="GG17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>421.06226443861544</v>
       </c>
       <c r="GH17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>412.64101914984315</v>
       </c>
       <c r="GI17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>404.3881987668463</v>
       </c>
       <c r="GJ17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>396.30043479150936</v>
       </c>
       <c r="GK17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>388.37442609567915</v>
       </c>
       <c r="GL17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>380.60693757376555</v>
       </c>
       <c r="GM17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>372.99479882229025</v>
       </c>
       <c r="GN17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>365.53490284584444</v>
       </c>
       <c r="GO17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>358.22420478892752</v>
       </c>
       <c r="GP17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>351.05972069314896</v>
       </c>
       <c r="GQ17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>344.03852627928597</v>
       </c>
       <c r="GR17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>337.15775575370026</v>
       </c>
       <c r="GS17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>330.41460063862627</v>
       </c>
       <c r="GT17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>323.80630862585372</v>
       </c>
       <c r="GU17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>317.33018245333665</v>
       </c>
       <c r="GV17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>310.98357880426988</v>
       </c>
       <c r="GW17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>304.76390722818451</v>
       </c>
       <c r="GX17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>298.66862908362083</v>
       </c>
       <c r="GY17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>292.69525650194839</v>
       </c>
       <c r="GZ17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>286.84135137190941</v>
       </c>
       <c r="HA17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>281.1045243444712</v>
       </c>
       <c r="HB17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>275.48243385758178</v>
       </c>
       <c r="HC17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>269.97278518043015</v>
       </c>
       <c r="HD17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>264.57332947682153</v>
       </c>
       <c r="HE17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>259.28186288728511</v>
       </c>
       <c r="HF17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>254.09622562953942</v>
       </c>
       <c r="HG17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>249.01430111694862</v>
       </c>
       <c r="HH17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>244.03401509460963</v>
       </c>
       <c r="HI17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>239.15333479271743</v>
       </c>
       <c r="HJ17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>234.37026809686307</v>
       </c>
       <c r="HK17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>229.68286273492581</v>
       </c>
       <c r="HL17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>225.08920548022729</v>
       </c>
       <c r="HM17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>220.58742137062274</v>
       </c>
       <c r="HN17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>216.17567294321029</v>
       </c>
       <c r="HO17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>211.85215948434609</v>
       </c>
       <c r="HP17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>207.61511629465917</v>
       </c>
       <c r="HQ17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>203.462813968766</v>
       </c>
       <c r="HR17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>199.39355768939069</v>
       </c>
       <c r="HS17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>195.40568653560288</v>
       </c>
       <c r="HT17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>191.49757280489081</v>
       </c>
       <c r="HU17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>187.66762134879298</v>
       </c>
       <c r="HV17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>183.91426892181713</v>
       </c>
       <c r="HW17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>180.23598354338077</v>
       </c>
       <c r="HX17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>176.63126387251316</v>
       </c>
       <c r="HY17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>173.09863859506288</v>
       </c>
       <c r="HZ17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>169.63666582316162</v>
       </c>
       <c r="IA17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>166.2439325066984</v>
       </c>
       <c r="IB17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>162.91905385656443</v>
       </c>
       <c r="IC17" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>159.66067277943313</v>
       </c>
       <c r="ID17" s="8">
-        <f t="shared" ref="ID17:KO17" si="27">IC17*(1+$AV$22)</f>
+        <f t="shared" ref="ID17:KO17" si="37">IC17*(1+$AV$22)</f>
         <v>156.46745932384445</v>
       </c>
       <c r="IE17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>153.33811013736755</v>
       </c>
       <c r="IF17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>150.2713479346202</v>
       </c>
       <c r="IG17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>147.2659209759278</v>
       </c>
       <c r="IH17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>144.32060255640923</v>
       </c>
       <c r="II17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>141.43419050528104</v>
       </c>
       <c r="IJ17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>138.60550669517542</v>
       </c>
       <c r="IK17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>135.83339656127191</v>
       </c>
       <c r="IL17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>133.11672863004648</v>
       </c>
       <c r="IM17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>130.45439405744554</v>
       </c>
       <c r="IN17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>127.84530617629663</v>
       </c>
       <c r="IO17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>125.2884000527707</v>
       </c>
       <c r="IP17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>122.78263205171528</v>
       </c>
       <c r="IQ17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>120.32697941068098</v>
       </c>
       <c r="IR17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>117.92043982246736</v>
       </c>
       <c r="IS17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>115.562031026018</v>
       </c>
       <c r="IT17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>113.25079040549764</v>
       </c>
       <c r="IU17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>110.98577459738769</v>
       </c>
       <c r="IV17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>108.76605910543994</v>
       </c>
       <c r="IW17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>106.59073792333113</v>
       </c>
       <c r="IX17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>104.45892316486452</v>
       </c>
       <c r="IY17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>102.36974470156723</v>
       </c>
       <c r="IZ17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>100.32234980753589</v>
       </c>
       <c r="JA17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>98.315902811385172</v>
       </c>
       <c r="JB17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>96.349584755157466</v>
       </c>
       <c r="JC17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>94.422593060054311</v>
       </c>
       <c r="JD17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>92.53414119885322</v>
       </c>
       <c r="JE17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>90.683458374876153</v>
       </c>
       <c r="JF17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>88.869789207378631</v>
       </c>
       <c r="JG17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>87.092393423231059</v>
       </c>
       <c r="JH17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>85.350545554766441</v>
       </c>
       <c r="JI17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>83.643534643671117</v>
       </c>
       <c r="JJ17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>81.9706639507977</v>
       </c>
       <c r="JK17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>80.331250671781746</v>
       </c>
       <c r="JL17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>78.724625658346113</v>
       </c>
       <c r="JM17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>77.150133145179183</v>
       </c>
       <c r="JN17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>75.607130482275593</v>
       </c>
       <c r="JO17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>74.094987872630085</v>
       </c>
       <c r="JP17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>72.613088115177476</v>
       </c>
       <c r="JQ17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>71.160826352873926</v>
       </c>
       <c r="JR17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>69.737609825816449</v>
       </c>
       <c r="JS17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>68.342857629300113</v>
       </c>
       <c r="JT17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>66.976000476714106</v>
       </c>
       <c r="JU17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>65.636480467179823</v>
       </c>
       <c r="JV17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>64.323750857836231</v>
       </c>
       <c r="JW17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>63.037275840679506</v>
       </c>
       <c r="JX17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>61.776530323865913</v>
       </c>
       <c r="JY17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>60.540999717388594</v>
       </c>
       <c r="JZ17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>59.330179723040821</v>
       </c>
       <c r="KA17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>58.143576128580001</v>
       </c>
       <c r="KB17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>56.980704606008402</v>
       </c>
       <c r="KC17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>55.841090513888233</v>
       </c>
       <c r="KD17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>54.72426870361047</v>
       </c>
       <c r="KE17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>53.629783329538256</v>
       </c>
       <c r="KF17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>52.557187662947491</v>
       </c>
       <c r="KG17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>51.506043909688543</v>
       </c>
       <c r="KH17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>50.475923031494773</v>
       </c>
       <c r="KI17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>49.466404570864874</v>
       </c>
       <c r="KJ17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>48.477076479447575</v>
       </c>
       <c r="KK17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>47.507534949858623</v>
       </c>
       <c r="KL17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>46.557384250861453</v>
       </c>
       <c r="KM17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>45.626236565844223</v>
       </c>
       <c r="KN17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>44.713711834527338</v>
       </c>
       <c r="KO17" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>43.819437597836789</v>
       </c>
       <c r="KP17" s="8">
-        <f t="shared" ref="KP17:NA17" si="28">KO17*(1+$AV$22)</f>
+        <f t="shared" ref="KP17:NA17" si="38">KO17*(1+$AV$22)</f>
         <v>42.94304884588005</v>
       </c>
       <c r="KQ17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.084187868962445</v>
       </c>
       <c r="KR17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>41.242504111583195</v>
       </c>
       <c r="KS17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>40.417654029351532</v>
       </c>
       <c r="KT17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>39.609300948764499</v>
       </c>
       <c r="KU17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>38.817114929789206</v>
       </c>
       <c r="KV17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>38.04077263119342</v>
       </c>
       <c r="KW17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>37.279957178569553</v>
       </c>
       <c r="KX17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>36.534358034998164</v>
       </c>
       <c r="KY17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>35.803670874298199</v>
       </c>
       <c r="KZ17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>35.087597456812233</v>
       </c>
       <c r="LA17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>34.385845507675988</v>
       </c>
       <c r="LB17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>33.698128597522469</v>
       </c>
       <c r="LC17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>33.024166025572022</v>
       </c>
       <c r="LD17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>32.363682705060583</v>
       </c>
       <c r="LE17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>31.716409050959371</v>
       </c>
       <c r="LF17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>31.082080869940182</v>
       </c>
       <c r="LG17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>30.460439252541377</v>
       </c>
       <c r="LH17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>29.851230467490549</v>
       </c>
       <c r="LI17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>29.254205858140736</v>
       </c>
       <c r="LJ17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>28.669121740977921</v>
       </c>
       <c r="LK17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>28.095739306158361</v>
       </c>
       <c r="LL17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>27.533824520035193</v>
       </c>
       <c r="LM17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>26.983148029634489</v>
       </c>
       <c r="LN17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>26.443485069041799</v>
       </c>
       <c r="LO17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>25.914615367660961</v>
       </c>
       <c r="LP17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>25.39632306030774</v>
       </c>
       <c r="LQ17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>24.888396599101586</v>
       </c>
       <c r="LR17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>24.390628667119554</v>
       </c>
       <c r="LS17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>23.902816093777162</v>
       </c>
       <c r="LT17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>23.424759771901616</v>
       </c>
       <c r="LU17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>22.956264576463585</v>
       </c>
       <c r="LV17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>22.497139284934313</v>
       </c>
       <c r="LW17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>22.047196499235625</v>
       </c>
       <c r="LX17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>21.606252569250913</v>
       </c>
       <c r="LY17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>21.174127517865895</v>
       </c>
       <c r="LZ17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>20.750644967508578</v>
       </c>
       <c r="MA17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>20.335632068158407</v>
       </c>
       <c r="MB17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>19.92891942679524</v>
       </c>
       <c r="MC17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>19.530341038259333</v>
       </c>
       <c r="MD17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>19.139734217494148</v>
       </c>
       <c r="ME17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>18.756939533144266</v>
       </c>
       <c r="MF17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>18.381800742481381</v>
       </c>
       <c r="MG17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>18.014164727631755</v>
       </c>
       <c r="MH17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>17.653881433079121</v>
       </c>
       <c r="MI17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>17.300803804417537</v>
       </c>
       <c r="MJ17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>16.954787728329187</v>
       </c>
       <c r="MK17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>16.615691973762601</v>
       </c>
       <c r="ML17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>16.28337813428735</v>
       </c>
       <c r="MM17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>15.957710571601602</v>
       </c>
       <c r="MN17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>15.63855636016957</v>
       </c>
       <c r="MO17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>15.325785232966178</v>
       </c>
       <c r="MP17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>15.019269528306854</v>
       </c>
       <c r="MQ17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>14.718884137740716</v>
       </c>
       <c r="MR17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>14.424506454985901</v>
       </c>
       <c r="MS17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>14.136016325886182</v>
       </c>
       <c r="MT17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>13.853295999368457</v>
       </c>
       <c r="MU17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>13.576230079381087</v>
       </c>
       <c r="MV17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>13.304705477793465</v>
       </c>
       <c r="MW17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>13.038611368237596</v>
       </c>
       <c r="MX17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>12.777839140872844</v>
       </c>
       <c r="MY17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>12.522282358055387</v>
       </c>
       <c r="MZ17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>12.271836710894279</v>
       </c>
       <c r="NA17" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>12.026399976676393</v>
       </c>
       <c r="NB17" s="8">
-        <f t="shared" ref="NB17:PM17" si="29">NA17*(1+$AV$22)</f>
+        <f t="shared" ref="NB17:PM17" si="39">NA17*(1+$AV$22)</f>
         <v>11.785871977142865</v>
       </c>
       <c r="NC17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>11.550154537600006</v>
       </c>
       <c r="ND17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>11.319151446848005</v>
       </c>
       <c r="NE17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>11.092768417911046</v>
       </c>
       <c r="NF17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>10.870913049552824</v>
       </c>
       <c r="NG17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>10.653494788561767</v>
       </c>
       <c r="NH17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>10.440424892790531</v>
       </c>
       <c r="NI17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>10.23161639493472</v>
       </c>
       <c r="NJ17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>10.026984067036025</v>
       </c>
       <c r="NK17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>9.8264443856953054</v>
       </c>
       <c r="NL17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>9.6299154979813988</v>
       </c>
       <c r="NM17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>9.4373171880217708</v>
       </c>
       <c r="NN17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>9.2485708442613355</v>
       </c>
       <c r="NO17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>9.0635994273761078</v>
       </c>
       <c r="NP17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>8.882327438828586</v>
       </c>
       <c r="NQ17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>8.7046808900520141</v>
       </c>
       <c r="NR17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>8.5305872722509744</v>
       </c>
       <c r="NS17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>8.3599755268059539</v>
       </c>
       <c r="NT17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>8.1927760162698355</v>
       </c>
       <c r="NU17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>8.0289204959444387</v>
       </c>
       <c r="NV17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>7.8683420860255495</v>
       </c>
       <c r="NW17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>7.7109752443050388</v>
       </c>
       <c r="NX17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>7.5567557394189375</v>
       </c>
       <c r="NY17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>7.4056206246305587</v>
       </c>
       <c r="NZ17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>7.2575082121379477</v>
       </c>
       <c r="OA17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>7.1123580478951887</v>
       </c>
       <c r="OB17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>6.9701108869372845</v>
       </c>
       <c r="OC17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>6.8307086691985388</v>
       </c>
       <c r="OD17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>6.6940944958145678</v>
       </c>
       <c r="OE17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>6.5602126058982764</v>
       </c>
       <c r="OF17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>6.4290083537803104</v>
       </c>
       <c r="OG17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>6.3004281867047043</v>
       </c>
       <c r="OH17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>6.1744196229706096</v>
       </c>
       <c r="OI17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>6.0509312305111971</v>
       </c>
       <c r="OJ17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>5.9299126059009728</v>
       </c>
       <c r="OK17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>5.8113143537829535</v>
       </c>
       <c r="OL17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>5.6950880667072941</v>
       </c>
       <c r="OM17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>5.5811863053731479</v>
       </c>
       <c r="ON17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>5.469562579265685</v>
       </c>
       <c r="OO17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>5.3601713276803711</v>
       </c>
       <c r="OP17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>5.2529679011267634</v>
       </c>
       <c r="OQ17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>5.1479085431042284</v>
       </c>
       <c r="OR17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>5.0449503722421438</v>
       </c>
       <c r="OS17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.9440513647973008</v>
       </c>
       <c r="OT17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.8451703375013544</v>
       </c>
       <c r="OU17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.7482669307513277</v>
       </c>
       <c r="OV17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.6533015921363008</v>
       </c>
       <c r="OW17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.5602355602935747</v>
       </c>
       <c r="OX17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.4690308490877033</v>
       </c>
       <c r="OY17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.3796502321059494</v>
       </c>
       <c r="OZ17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.2920572274638307</v>
       </c>
       <c r="PA17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.2062160829145538</v>
       </c>
       <c r="PB17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.1220917612562626</v>
       </c>
       <c r="PC17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>4.0396499260311369</v>
       </c>
       <c r="PD17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.9588569275105141</v>
       </c>
       <c r="PE17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.8796797889603036</v>
       </c>
       <c r="PF17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.8020861931810974</v>
       </c>
       <c r="PG17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.7260444693174755</v>
       </c>
       <c r="PH17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.6515235799311259</v>
       </c>
       <c r="PI17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.5784931083325033</v>
       </c>
       <c r="PJ17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.506923246165853</v>
       </c>
       <c r="PK17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.4367847812425358</v>
       </c>
       <c r="PL17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.368049085617685</v>
       </c>
       <c r="PM17" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>3.3006881039053311</v>
       </c>
       <c r="PN17" s="8">
-        <f t="shared" ref="PN17:QI17" si="30">PM17*(1+$AV$22)</f>
+        <f t="shared" ref="PN17:QI17" si="40">PM17*(1+$AV$22)</f>
         <v>3.2346743418272244</v>
       </c>
       <c r="PO17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>3.1699808549906798</v>
       </c>
       <c r="PP17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>3.1065812378908664</v>
       </c>
       <c r="PQ17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>3.044449613133049</v>
       </c>
       <c r="PR17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.9835606208703878</v>
       </c>
       <c r="PS17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.9238894084529798</v>
       </c>
       <c r="PT17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.8654116202839202</v>
       </c>
       <c r="PU17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.8081033878782415</v>
       </c>
       <c r="PV17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.7519413201206766</v>
       </c>
       <c r="PW17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.6969024937182628</v>
       </c>
       <c r="PX17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.6429644438438977</v>
       </c>
       <c r="PY17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.5901051549670195</v>
       </c>
       <c r="PZ17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.538303051867679</v>
       </c>
       <c r="QA17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.4875369908303253</v>
       </c>
       <c r="QB17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.4377862510137187</v>
       </c>
       <c r="QC17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.3890305259934443</v>
       </c>
       <c r="QD17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.3412499154735755</v>
       </c>
       <c r="QE17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.294424917164104</v>
       </c>
       <c r="QF17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.2485364188208221</v>
       </c>
       <c r="QG17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.2035656904444054</v>
       </c>
       <c r="QH17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.1594943766355175</v>
       </c>
       <c r="QI17" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>2.1163044891028071</v>
       </c>
       <c r="QJ17" s="8"/>
@@ -5194,172 +5205,172 @@
       <c r="ACI17" s="8"/>
       <c r="ACJ17" s="8"/>
     </row>
-    <row r="18" spans="2:764">
+    <row r="18" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:Q18" si="31">C17/C19</f>
+        <f t="shared" ref="C18:Q18" si="41">C17/C19</f>
         <v>0.39050772626931568</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.59509609012591125</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.54579813250333487</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.37879795963628299</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.35413839891451832</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.58486753480017961</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.47631874298540966</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.18674157303370786</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.35413839891451832</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.70576225045372054</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.33030234144123666</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.28059023836549374</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.34071200365130078</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.79049577336074939</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.34338588074023302</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18:V18" si="32">R17/R19</f>
+        <f t="shared" ref="R18:V18" si="42">R17/R19</f>
         <v>0.28466986520447796</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.35268220242175019</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.80299520219328313</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.35612748457847854</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.29621658670322137</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" ref="Y18:AF18" si="33">Y17/Y19</f>
+        <f t="shared" ref="Y18:AF18" si="43">Y17/Y19</f>
         <v>1.8609556607834696</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1.9821116928446771</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1.9130627633621646</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1.6008988764044945</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1.6657620985979196</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1.759652730180489</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1.8080214758967328</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" ref="AG18:AR18" si="34">AG17/AG19</f>
+        <f t="shared" ref="AG18:AR18" si="44">AG17/AG19</f>
         <v>1.8004820653415579</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AP18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AQ18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
       <c r="AR18" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
     </row>
-    <row r="19" spans="2:764">
+    <row r="19" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -5484,7 +5495,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="20" spans="2:764">
+    <row r="20" spans="2:764" x14ac:dyDescent="0.15">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5502,168 +5513,168 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="2:764">
+    <row r="21" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <f>C7/C5</f>
+        <f t="shared" ref="C21:P21" si="45">C7/C5</f>
         <v>0.60815586769370189</v>
       </c>
       <c r="D21" s="5">
-        <f>D7/D5</f>
+        <f t="shared" si="45"/>
         <v>0.60867519021099692</v>
       </c>
       <c r="E21" s="5">
-        <f>E7/E5</f>
+        <f t="shared" si="45"/>
         <v>0.60157938487115548</v>
       </c>
       <c r="F21" s="5">
-        <f>F7/F5</f>
+        <f t="shared" si="45"/>
         <v>0.60914855072463769</v>
       </c>
       <c r="G21" s="5">
-        <f>G7/G5</f>
+        <f t="shared" si="45"/>
         <v>0.61693586033050141</v>
       </c>
       <c r="H21" s="5">
-        <f>H7/H5</f>
+        <f t="shared" si="45"/>
         <v>0.61674884682678544</v>
       </c>
       <c r="I21" s="5">
-        <f>I7/I5</f>
+        <f t="shared" si="45"/>
         <v>0.61339345357381425</v>
       </c>
       <c r="J21" s="5">
-        <f>J7/J5</f>
+        <f t="shared" si="45"/>
         <v>0.5960696656421719</v>
       </c>
       <c r="K21" s="5">
-        <f>K7/K5</f>
+        <f t="shared" si="45"/>
         <v>0.61693586033050141</v>
       </c>
       <c r="L21" s="5">
-        <f>L7/L5</f>
+        <f t="shared" si="45"/>
         <v>0.60941099045738734</v>
       </c>
       <c r="M21" s="5">
-        <f>M7/M5</f>
+        <f t="shared" si="45"/>
         <v>0.59945742539599189</v>
       </c>
       <c r="N21" s="5">
-        <f>N7/N5</f>
+        <f t="shared" si="45"/>
         <v>0.59460000000000002</v>
       </c>
       <c r="O21" s="5">
-        <f>O7/O5</f>
+        <f t="shared" si="45"/>
         <v>0.60425987162030736</v>
       </c>
       <c r="P21" s="5">
-        <f>P7/P5</f>
+        <f t="shared" si="45"/>
         <v>0.61253141520062393</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" ref="Q21:V21" si="35">Q7/Q5</f>
+        <f t="shared" ref="Q21:V21" si="46">Q7/Q5</f>
         <v>0.59945742539599189</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.59460000000000002</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.60821727290410432</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.61640610104861771</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.60346285114203202</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.59865400000000002</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" ref="Y21:AC21" si="36">Y7/Y5</f>
+        <f t="shared" ref="Y21:AC21" si="47">Y7/Y5</f>
         <v>0.60863306261011563</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>0.60320303225940808</v>
       </c>
       <c r="AA21" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>0.60684253212105688</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>0.61109178659941732</v>
       </c>
       <c r="AC21" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>0.60531900483135415</v>
       </c>
       <c r="AD21" s="5">
-        <f t="shared" ref="AD21:AE21" si="37">AD7/AD5</f>
+        <f t="shared" ref="AD21:AE21" si="48">AD7/AD5</f>
         <v>0.602964298927118</v>
       </c>
       <c r="AE21" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AF21" s="5">
-        <f t="shared" ref="AF21:AR21" si="38">AF7/AF5</f>
+        <f t="shared" ref="AF21:AR21" si="49">AF7/AF5</f>
         <v>0.60693465593784679</v>
       </c>
       <c r="AG21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AH21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AI21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AJ21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AK21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AL21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AM21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AN21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AO21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AP21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AQ21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AR21" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AU21" s="1" t="s">
@@ -5672,176 +5683,177 @@
       <c r="AV21" s="5">
         <v>0</v>
       </c>
-      <c r="AX21" s="13" t="s">
+      <c r="AX21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AY21" s="14">
+      <c r="AY21" s="21">
         <f>Main!H7</f>
         <v>177895.18000000002</v>
       </c>
+      <c r="AZ21" s="20"/>
     </row>
-    <row r="22" spans="2:764">
+    <row r="22" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="5">
-        <f>C11/C5</f>
+        <f t="shared" ref="C22:P22" si="50">C11/C5</f>
         <v>0.21821477118260083</v>
       </c>
       <c r="D22" s="5">
-        <f>D11/D5</f>
+        <f t="shared" si="50"/>
         <v>0.25437289199152874</v>
       </c>
       <c r="E22" s="5">
-        <f>E11/E5</f>
+        <f t="shared" si="50"/>
         <v>0.20548628428927682</v>
       </c>
       <c r="F22" s="5">
-        <f>F11/F5</f>
+        <f t="shared" si="50"/>
         <v>0.19067028985507245</v>
       </c>
       <c r="G22" s="5">
-        <f>G11/G5</f>
+        <f t="shared" si="50"/>
         <v>0.21435907011483521</v>
       </c>
       <c r="H22" s="5">
-        <f>H11/H5</f>
+        <f t="shared" si="50"/>
         <v>0.25210752346111021</v>
       </c>
       <c r="I22" s="5">
-        <f>I11/I5</f>
+        <f t="shared" si="50"/>
         <v>0.22636940547762191</v>
       </c>
       <c r="J22" s="5">
-        <f>J11/J5</f>
+        <f t="shared" si="50"/>
         <v>0.14259104032783831</v>
       </c>
       <c r="K22" s="5">
-        <f>K11/K5</f>
+        <f t="shared" si="50"/>
         <v>0.21435907011483521</v>
       </c>
       <c r="L22" s="5">
-        <f>L11/L5</f>
+        <f t="shared" si="50"/>
         <v>0.20853899308983218</v>
       </c>
       <c r="M22" s="5">
-        <f>M11/M5</f>
+        <f t="shared" si="50"/>
         <v>0.20819112627986347</v>
       </c>
       <c r="N22" s="5">
-        <f>N11/N5</f>
+        <f t="shared" si="50"/>
         <v>0.15179999999999999</v>
       </c>
       <c r="O22" s="5">
-        <f>O11/O5</f>
+        <f t="shared" si="50"/>
         <v>0.20822797121182648</v>
       </c>
       <c r="P22" s="5">
-        <f>P11/P5</f>
+        <f t="shared" si="50"/>
         <v>0.24776843747291794</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" ref="Q22:V22" si="39">Q11/Q5</f>
+        <f t="shared" ref="Q22:V22" si="51">Q11/Q5</f>
         <v>0.20819112627986347</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.15179999999999999</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.21218537249562347</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.25164312332091171</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.2121965520259036</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.15585399999999999</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" ref="Y22:AC22" si="40">Y11/Y5</f>
+        <f t="shared" ref="Y22:AC22" si="52">Y11/Y5</f>
         <v>0.21857676936960166</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>0.22448299560572296</v>
       </c>
       <c r="AA22" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>0.21829512955137234</v>
       </c>
       <c r="AB22" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>0.21105265446323754</v>
       </c>
       <c r="AC22" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>0.19704700410890866</v>
       </c>
       <c r="AD22" s="5">
-        <f t="shared" ref="AD22:AE22" si="41">AD11/AD5</f>
+        <f t="shared" ref="AD22:AE22" si="53">AD11/AD5</f>
         <v>0.205720495745468</v>
       </c>
       <c r="AE22" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AF22" s="5">
-        <f t="shared" ref="AF22:AR22" si="42">AF11/AF5</f>
+        <f t="shared" ref="AF22:AR22" si="54">AF11/AF5</f>
         <v>0.20969085275619681</v>
       </c>
       <c r="AG22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AH22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AI22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AJ22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AK22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AL22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AM22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AN22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AO22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AP22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AQ22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AR22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AU22" s="1" t="s">
@@ -5850,176 +5862,177 @@
       <c r="AV22" s="5">
         <v>-0.02</v>
       </c>
-      <c r="AX22" s="15" t="s">
+      <c r="AX22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="AY22" s="16">
+      <c r="AY22" s="18">
         <f>AD17</f>
         <v>7702</v>
       </c>
+      <c r="AZ22" s="20"/>
     </row>
-    <row r="23" spans="2:764">
+    <row r="23" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <f>C17/C5</f>
+        <f t="shared" ref="C23:P23" si="55">C17/C5</f>
         <v>0.16030811055731761</v>
       </c>
       <c r="D23" s="5">
-        <f>D17/D5</f>
+        <f t="shared" si="55"/>
         <v>0.21131069103459094</v>
       </c>
       <c r="E23" s="5">
-        <f>E17/E5</f>
+        <f t="shared" si="55"/>
         <v>0.20407315045719035</v>
       </c>
       <c r="F23" s="5">
-        <f>F17/F5</f>
+        <f t="shared" si="55"/>
         <v>0.15471014492753624</v>
       </c>
       <c r="G23" s="5">
-        <f>G17/G5</f>
+        <f t="shared" si="55"/>
         <v>0.1462048361497526</v>
       </c>
       <c r="H23" s="5">
-        <f>H17/H5</f>
+        <f t="shared" si="55"/>
         <v>0.20717353268649594</v>
       </c>
       <c r="I23" s="5">
-        <f>I17/I5</f>
+        <f t="shared" si="55"/>
         <v>0.177187708750835</v>
       </c>
       <c r="J23" s="5">
-        <f>J17/J5</f>
+        <f t="shared" si="55"/>
         <v>7.7395920648225758E-2</v>
       </c>
       <c r="K23" s="5">
-        <f>K17/K5</f>
+        <f t="shared" si="55"/>
         <v>0.1462048361497526</v>
       </c>
       <c r="L23" s="5">
-        <f>L17/L5</f>
+        <f t="shared" si="55"/>
         <v>0.2559230009871668</v>
       </c>
       <c r="M23" s="5">
-        <f>M17/M5</f>
+        <f t="shared" si="55"/>
         <v>0.1271549838102739</v>
       </c>
       <c r="N23" s="5">
-        <f>N17/N5</f>
+        <f t="shared" si="55"/>
         <v>0.1236</v>
       </c>
       <c r="O23" s="5">
-        <f>O17/O5</f>
+        <f t="shared" si="55"/>
         <v>0.14520521299358102</v>
       </c>
       <c r="P23" s="5">
-        <f>P17/P5</f>
+        <f t="shared" si="55"/>
         <v>0.29985267354190137</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" ref="Q23:V23" si="43">Q17/Q5</f>
+        <f t="shared" ref="Q23:V23" si="56">Q17/Q5</f>
         <v>0.13153058545550014</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>0.1246</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>0.15013518770667189</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>0.30459398561400469</v>
       </c>
       <c r="U23" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>0.13641113153058548</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>0.12965399999999999</v>
       </c>
       <c r="Y23" s="5">
-        <f t="shared" ref="Y23:AC23" si="44">Y17/Y5</f>
+        <f t="shared" ref="Y23:AC23" si="57">Y17/Y5</f>
         <v>0.18576769369601651</v>
       </c>
       <c r="Z23" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>0.18922464960326552</v>
       </c>
       <c r="AA23" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>0.18410381184103811</v>
       </c>
       <c r="AB23" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>0.1548762989695204</v>
       </c>
       <c r="AC23" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>0.16629791845396669</v>
       </c>
       <c r="AD23" s="5">
-        <f t="shared" ref="AD23:AE23" si="45">AD17/AD5</f>
+        <f t="shared" ref="AD23:AE23" si="58">AD17/AD5</f>
         <v>0.17808916019237883</v>
       </c>
       <c r="AE23" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0.18298441546429892</v>
       </c>
       <c r="AF23" s="5">
-        <f t="shared" ref="AF23:AR23" si="46">AF17/AF5</f>
+        <f t="shared" ref="AF23:AR23" si="59">AF17/AF5</f>
         <v>0.18222137439881611</v>
       </c>
       <c r="AG23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AH23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AI23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AJ23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AK23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AL23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AM23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AN23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AO23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AP23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AQ23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AR23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AU23" s="1" t="s">
@@ -6028,176 +6041,177 @@
       <c r="AV23" s="5">
         <v>0.03</v>
       </c>
-      <c r="AX23" s="13" t="s">
+      <c r="AX23" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AY23" s="17">
+      <c r="AY23" s="22">
         <f>AY21/AY22</f>
         <v>23.097270838743185</v>
       </c>
+      <c r="AZ23" s="20"/>
     </row>
-    <row r="24" spans="2:764">
+    <row r="24" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <f>C16/C15</f>
+        <f t="shared" ref="C24:P24" si="60">C16/C15</f>
         <v>0.24530716723549489</v>
       </c>
       <c r="D24" s="5">
-        <f>D16/D15</f>
+        <f t="shared" si="60"/>
         <v>0.23574468085106384</v>
       </c>
       <c r="E24" s="5">
-        <f>E16/E15</f>
+        <f t="shared" si="60"/>
         <v>0.27366863905325445</v>
       </c>
       <c r="F24" s="5">
-        <f>F16/F15</f>
+        <f t="shared" si="60"/>
         <v>0.23339317773788151</v>
       </c>
       <c r="G24" s="5">
-        <f>G16/G15</f>
+        <f t="shared" si="60"/>
         <v>0.20949015648662292</v>
       </c>
       <c r="H24" s="5">
-        <f>H16/H15</f>
+        <f t="shared" si="60"/>
         <v>0.23020094562647755</v>
       </c>
       <c r="I24" s="5">
-        <f>I16/I15</f>
+        <f t="shared" si="60"/>
         <v>0.20225563909774436</v>
       </c>
       <c r="J24" s="5">
-        <f>J16/J15</f>
+        <f t="shared" si="60"/>
         <v>0.36076923076923079</v>
       </c>
       <c r="K24" s="5">
-        <f>K16/K15</f>
+        <f t="shared" si="60"/>
         <v>0.20949015648662292</v>
       </c>
       <c r="L24" s="5">
-        <f>L16/L15</f>
+        <f t="shared" si="60"/>
         <v>0.28663150653519837</v>
       </c>
       <c r="M24" s="5">
-        <f>M16/M15</f>
+        <f t="shared" si="60"/>
         <v>0.15768115942028985</v>
       </c>
       <c r="N24" s="5">
-        <f>N16/N15</f>
+        <f t="shared" si="60"/>
         <v>0.19635890767230169</v>
       </c>
       <c r="O24" s="5">
-        <f>O16/O15</f>
+        <f t="shared" si="60"/>
         <v>0.21172122492080253</v>
       </c>
       <c r="P24" s="5">
-        <f>P16/P15</f>
+        <f t="shared" si="60"/>
         <v>0.1951616655036055</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" ref="Q24:V24" si="47">Q16/Q15</f>
+        <f t="shared" ref="Q24:V24" si="61">Q16/Q15</f>
         <v>0.15323943661971831</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0.19509043927648578</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0.20620253099465718</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0.19270920663066671</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0.14857136614648478</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0.18892239168241021</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" ref="Y24:AC24" si="48">Y16/Y15</f>
+        <f t="shared" ref="Y24:AC24" si="62">Y16/Y15</f>
         <v>0.245418048525048</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.23058684054534678</v>
       </c>
       <c r="AA24" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.24840986320467021</v>
       </c>
       <c r="AB24" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.23603217158176942</v>
       </c>
       <c r="AC24" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.23310775637688705</v>
       </c>
       <c r="AD24" s="5">
-        <f t="shared" ref="AD24:AE24" si="49">AD16/AD15</f>
+        <f t="shared" ref="AD24:AE24" si="63">AD16/AD15</f>
         <v>0.19062631357713325</v>
       </c>
       <c r="AE24" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>0.18647759853038384</v>
       </c>
       <c r="AF24" s="5">
-        <f t="shared" ref="AF24:AR24" si="50">AF16/AF15</f>
+        <f t="shared" ref="AF24:AR24" si="64">AF16/AF15</f>
         <v>0.18711235302551599</v>
       </c>
       <c r="AG24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AH24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AI24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AJ24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AK24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AL24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AM24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AN24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AO24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AP24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AQ24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AR24" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AU24" s="1" t="s">
@@ -6207,15 +6221,16 @@
         <f>NPV(AV23,AD17:QI17)</f>
         <v>193080.23127204677</v>
       </c>
-      <c r="AX24" s="13" t="s">
+      <c r="AX24" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AY24" s="18">
+      <c r="AY24" s="23">
         <f>AY22/AY21</f>
         <v>4.3295158418569853E-2</v>
       </c>
+      <c r="AZ24" s="20"/>
     </row>
-    <row r="25" spans="2:764">
+    <row r="25" spans="2:764" x14ac:dyDescent="0.15">
       <c r="L25" s="2"/>
       <c r="P25" s="2"/>
       <c r="AU25" s="1" t="s">
@@ -6225,77 +6240,78 @@
         <f>Main!H5-Main!H6</f>
         <v>7427</v>
       </c>
-      <c r="AX25" s="15"/>
+      <c r="AX25" s="17"/>
       <c r="AY25" s="19"/>
+      <c r="AZ25" s="20"/>
     </row>
-    <row r="26" spans="2:764" ht="15">
+    <row r="26" spans="2:764" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <f>G5/C5-1</f>
+        <f t="shared" ref="G26:V26" si="65">G5/C5-1</f>
         <v>-2.9361123697326685E-2</v>
       </c>
       <c r="H26" s="5">
-        <f>H5/D5-1</f>
+        <f t="shared" si="65"/>
         <v>-1.3726566789552086E-2</v>
       </c>
       <c r="I26" s="5">
-        <f>I5/E5-1</f>
+        <f t="shared" si="65"/>
         <v>-4.4887780548628076E-3</v>
       </c>
       <c r="J26" s="5">
-        <f>J5/F5-1</f>
+        <f t="shared" si="65"/>
         <v>-2.7445652173913038E-2</v>
       </c>
       <c r="K26" s="5">
-        <f>K5/G5-1</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <f>L5/H5-1</f>
+        <f t="shared" si="65"/>
         <v>-3.3243200254493344E-2</v>
       </c>
       <c r="M26" s="5">
-        <f>M5/I5-1</f>
+        <f t="shared" si="65"/>
         <v>-4.5841683366733443E-2</v>
       </c>
       <c r="N26" s="5">
-        <f>N5/J5-1</f>
+        <f t="shared" si="65"/>
         <v>-6.864114743410632E-2</v>
       </c>
       <c r="O26" s="5">
-        <f>O5/K5-1</f>
+        <f t="shared" si="65"/>
         <v>-4.005228270002803E-2</v>
       </c>
       <c r="P26" s="5">
-        <f>P5/L5-1</f>
+        <f t="shared" si="65"/>
         <v>-5.075682790391578E-2</v>
       </c>
       <c r="Q26" s="5">
-        <f>Q5/M5-1</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <f>R5/N5-1</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S26" s="5">
-        <f>S5/O5-1</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="T26" s="5">
-        <f>T5/P5-1</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U26" s="5">
-        <f>U5/Q5-1</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V26" s="5">
-        <f>V5/R5-1</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Z26" s="5">
@@ -6303,75 +6319,75 @@
         <v>3.169180525117099E-2</v>
       </c>
       <c r="AA26" s="5">
-        <f t="shared" ref="AA26:AR26" si="51">AA5/Z5-1</f>
+        <f t="shared" ref="AA26:AR26" si="66">AA5/Z5-1</f>
         <v>-2.4220588541558175E-2</v>
       </c>
       <c r="AB26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>-1.8269518077432045E-2</v>
       </c>
       <c r="AC26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>-3.7045088916909386E-2</v>
       </c>
       <c r="AD26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>-2.3614936560256483E-2</v>
       </c>
       <c r="AE26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AF26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AG26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AH26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AI26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AK26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AL26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AM26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AN26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AO26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AP26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AR26" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AU26" s="1" t="s">
@@ -6384,7 +6400,7 @@
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
     </row>
-    <row r="27" spans="2:764">
+    <row r="27" spans="2:764" x14ac:dyDescent="0.15">
       <c r="P27" s="2"/>
       <c r="T27" s="2"/>
       <c r="AU27" s="1" t="s">
@@ -6395,7 +6411,7 @@
         <v>45.809282904283016</v>
       </c>
     </row>
-    <row r="28" spans="2:764">
+    <row r="28" spans="2:764" x14ac:dyDescent="0.15">
       <c r="P28" s="2"/>
       <c r="T28" s="2"/>
       <c r="AU28" s="1" t="s">
@@ -6405,7 +6421,7 @@
         <v>41.73</v>
       </c>
     </row>
-    <row r="29" spans="2:764">
+    <row r="29" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
@@ -6426,19 +6442,19 @@
         <v>10176</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" ref="S29:V29" si="52">R29+S17</f>
+        <f t="shared" ref="S29:V29" si="67">R29+S17</f>
         <v>11719.69</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>15234.400000000001</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>16793.170000000002</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>18089.710000000003</v>
       </c>
       <c r="AD29" s="2">
@@ -6450,59 +6466,59 @@
         <v>26003.420000000002</v>
       </c>
       <c r="AF29" s="2">
-        <f t="shared" ref="AF29:AR29" si="53">AE29+AF17</f>
+        <f t="shared" ref="AF29:AR29" si="68">AE29+AF17</f>
         <v>33884.130000000005</v>
       </c>
       <c r="AG29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>41764.840000000004</v>
       </c>
       <c r="AH29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>49645.55</v>
       </c>
       <c r="AI29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>57526.26</v>
       </c>
       <c r="AJ29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>65406.97</v>
       </c>
       <c r="AK29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>73287.679999999993</v>
       </c>
       <c r="AL29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>81168.389999999985</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>89049.099999999977</v>
       </c>
       <c r="AN29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>96929.809999999969</v>
       </c>
       <c r="AO29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>104810.51999999996</v>
       </c>
       <c r="AP29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>112691.22999999995</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>120571.93999999994</v>
       </c>
       <c r="AR29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>128452.64999999994</v>
       </c>
     </row>
-    <row r="30" spans="2:764">
+    <row r="30" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6533,7 +6549,7 @@
         <v>9.7754203313755506E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:764">
+    <row r="31" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
@@ -6556,7 +6572,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:764">
+    <row r="32" spans="2:764" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
@@ -6579,7 +6595,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="2:35">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
@@ -6602,7 +6618,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="2:35">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
@@ -6625,7 +6641,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="2:35">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
@@ -6649,7 +6665,7 @@
       <c r="R35" s="2"/>
       <c r="AI35" s="5"/>
     </row>
-    <row r="36" spans="2:35">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
@@ -6672,7 +6688,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="2:35">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>29</v>
       </c>
@@ -6696,7 +6712,7 @@
       <c r="R37" s="2"/>
       <c r="AI37" s="5"/>
     </row>
-    <row r="38" spans="2:35">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
@@ -6719,7 +6735,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="2:35">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
@@ -6746,7 +6762,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="2:35">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -6773,7 +6789,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="2:35">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.15">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -6791,7 +6807,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="2:35">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>32</v>
       </c>
@@ -6816,7 +6832,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="2:35">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
@@ -6841,7 +6857,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="2:35">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
@@ -6868,7 +6884,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="2:35">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
@@ -6893,7 +6909,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="2:35">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
@@ -6918,7 +6934,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="2:35">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
@@ -6943,7 +6959,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="2:35">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
@@ -6968,7 +6984,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
@@ -6993,7 +7009,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>39</v>
       </c>

--- a/investing spreadsheets/KO.xlsx
+++ b/investing spreadsheets/KO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billymbp/stock-exchange-berkeley/investing spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOOK\Desktop\stock-exchange-berkeley\investing spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27960" windowHeight="14380" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="27960" windowHeight="14385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -273,10 +273,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0&quot;x&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0&quot;x&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -287,20 +287,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -310,12 +310,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,35 +340,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,6 +375,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -764,26 +766,26 @@
   <dimension ref="C2:CH18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="56.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="56.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1"/>
     <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.83203125" style="1"/>
-    <col min="10" max="10" width="13.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="9" width="8.875" style="1"/>
+    <col min="10" max="10" width="13.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,16 +795,16 @@
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="17">
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
@@ -812,14 +814,14 @@
       <c r="J3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="17">
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+    <row r="4" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,14 +832,14 @@
       <c r="J4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="17">
         <v>2.7</v>
       </c>
     </row>
-    <row r="5" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+    <row r="5" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
@@ -849,14 +851,14 @@
       <c r="J5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="17">
         <v>4.2</v>
       </c>
     </row>
-    <row r="6" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+    <row r="6" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,14 +869,14 @@
       <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="17">
         <v>12.6</v>
       </c>
     </row>
-    <row r="7" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+    <row r="7" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,21 +887,21 @@
       <c r="J7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="17">
         <f>SUM(K2:K6)</f>
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="8" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+    <row r="8" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+    <row r="9" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="J9" s="2" t="s">
         <v>78</v>
       </c>
@@ -907,24 +909,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+    <row r="10" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="3:86" ht="15" x14ac:dyDescent="0.2">
-      <c r="C11" s="10"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+    <row r="11" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="J11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <f>K9/K7</f>
         <v>0.26615969581749055</v>
       </c>
     </row>
-    <row r="13" spans="3:86" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1006,11 +1008,11 @@
       <c r="CG13" s="2"/>
       <c r="CH13" s="2"/>
     </row>
-    <row r="15" spans="3:86" x14ac:dyDescent="0.15">
-      <c r="F15" s="5"/>
+    <row r="15" spans="3:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="4"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E18" s="15"/>
+    <row r="18" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,36 +1024,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:ACJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY24" sqref="AY24"/>
+      <selection pane="bottomRight" activeCell="AX27" sqref="AX27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="30" width="8.83203125" style="1"/>
-    <col min="31" max="31" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="46" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
+    <col min="7" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.875" style="1"/>
+    <col min="12" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="30" width="8.875" style="1"/>
+    <col min="31" max="31" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="46" width="8.875" style="1"/>
     <col min="47" max="47" width="11" style="1" customWidth="1"/>
     <col min="48" max="48" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.83203125" style="1"/>
+    <col min="49" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" x14ac:dyDescent="0.15">
-      <c r="C1" s="3">
+    <row r="1" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C1" s="5">
         <v>41362</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="5">
         <v>41453</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="5">
         <v>41544</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="5">
         <v>42097</v>
       </c>
       <c r="H1" s="6">
@@ -1060,23 +1069,23 @@
       <c r="I1" s="6">
         <v>41908</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="5">
         <v>42188</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="5">
         <v>42279</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="5">
         <v>42369</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="5">
         <v>42461</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="5">
         <v>42552</v>
       </c>
     </row>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="2:44" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>43248</v>
       </c>
     </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>16999.29</v>
       </c>
     </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1684,7 +1693,7 @@
         <v>26248.71</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1835,7 +1844,7 @@
         <v>15817</v>
       </c>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>17180</v>
       </c>
     </row>
-    <row r="11" spans="2:44" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
@@ -2316,7 +2325,7 @@
         <v>9068.7099999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
@@ -2481,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2783,7 +2792,7 @@
         <v>-158</v>
       </c>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>9694.7099999999991</v>
       </c>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -3099,7 +3108,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="17" spans="2:764" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:764" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
@@ -5205,172 +5214,172 @@
       <c r="ACI17" s="8"/>
       <c r="ACJ17" s="8"/>
     </row>
-    <row r="18" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="9">
         <f t="shared" ref="C18:Q18" si="41">C17/C19</f>
         <v>0.39050772626931568</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="9">
         <f t="shared" si="41"/>
         <v>0.59509609012591125</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="9">
         <f t="shared" si="41"/>
         <v>0.54579813250333487</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="9">
         <f t="shared" si="41"/>
         <v>0.37879795963628299</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="9">
         <f t="shared" si="41"/>
         <v>0.35413839891451832</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="9">
         <f t="shared" si="41"/>
         <v>0.58486753480017961</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="9">
         <f t="shared" si="41"/>
         <v>0.47631874298540966</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="9">
         <f t="shared" si="41"/>
         <v>0.18674157303370786</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="9">
         <f t="shared" si="41"/>
         <v>0.35413839891451832</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="9">
         <f t="shared" si="41"/>
         <v>0.70576225045372054</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="9">
         <f t="shared" si="41"/>
         <v>0.33030234144123666</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="9">
         <f t="shared" si="41"/>
         <v>0.28059023836549374</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="9">
         <f t="shared" si="41"/>
         <v>0.34071200365130078</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="9">
         <f t="shared" si="41"/>
         <v>0.79049577336074939</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="9">
         <f t="shared" si="41"/>
         <v>0.34338588074023302</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="9">
         <f t="shared" ref="R18:V18" si="42">R17/R19</f>
         <v>0.28466986520447796</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="9">
         <f t="shared" si="42"/>
         <v>0.35268220242175019</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="9">
         <f t="shared" si="42"/>
         <v>0.80299520219328313</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="9">
         <f t="shared" si="42"/>
         <v>0.35612748457847854</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="9">
         <f t="shared" si="42"/>
         <v>0.29621658670322137</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="9">
         <f t="shared" ref="Y18:AF18" si="43">Y17/Y19</f>
         <v>1.8609556607834696</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="9">
         <f t="shared" si="43"/>
         <v>1.9821116928446771</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AA18" s="9">
         <f t="shared" si="43"/>
         <v>1.9130627633621646</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AB18" s="9">
         <f t="shared" si="43"/>
         <v>1.6008988764044945</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AC18" s="9">
         <f t="shared" si="43"/>
         <v>1.6657620985979196</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AD18" s="9">
         <f t="shared" si="43"/>
         <v>1.759652730180489</v>
       </c>
-      <c r="AE18" s="4">
+      <c r="AE18" s="9">
         <f t="shared" si="43"/>
         <v>1.8080214758967328</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AF18" s="9">
         <f t="shared" si="43"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AG18" s="9">
         <f t="shared" ref="AG18:AR18" si="44">AG17/AG19</f>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AH18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AI18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AJ18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AK18" s="4">
+      <c r="AK18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AL18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AM18" s="4">
+      <c r="AM18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AN18" s="4">
+      <c r="AN18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AO18" s="4">
+      <c r="AO18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="AP18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AQ18" s="4">
+      <c r="AQ18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
-      <c r="AR18" s="4">
+      <c r="AR18" s="9">
         <f t="shared" si="44"/>
         <v>1.8004820653415579</v>
       </c>
     </row>
-    <row r="19" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="20" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:764" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5513,724 +5522,720 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f t="shared" ref="C21:P21" si="45">C7/C5</f>
         <v>0.60815586769370189</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="45"/>
         <v>0.60867519021099692</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <f t="shared" si="45"/>
         <v>0.60157938487115548</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f t="shared" si="45"/>
         <v>0.60914855072463769</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f t="shared" si="45"/>
         <v>0.61693586033050141</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <f t="shared" si="45"/>
         <v>0.61674884682678544</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <f t="shared" si="45"/>
         <v>0.61339345357381425</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <f t="shared" si="45"/>
         <v>0.5960696656421719</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <f t="shared" si="45"/>
         <v>0.61693586033050141</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <f t="shared" si="45"/>
         <v>0.60941099045738734</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <f t="shared" si="45"/>
         <v>0.59945742539599189</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <f t="shared" si="45"/>
         <v>0.59460000000000002</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <f t="shared" si="45"/>
         <v>0.60425987162030736</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
         <f t="shared" si="45"/>
         <v>0.61253141520062393</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="4">
         <f t="shared" ref="Q21:V21" si="46">Q7/Q5</f>
         <v>0.59945742539599189</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <f t="shared" si="46"/>
         <v>0.59460000000000002</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="4">
         <f t="shared" si="46"/>
         <v>0.60821727290410432</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="4">
         <f t="shared" si="46"/>
         <v>0.61640610104861771</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="4">
         <f t="shared" si="46"/>
         <v>0.60346285114203202</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" s="4">
         <f t="shared" si="46"/>
         <v>0.59865400000000002</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Y21" s="4">
         <f t="shared" ref="Y21:AC21" si="47">Y7/Y5</f>
         <v>0.60863306261011563</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="Z21" s="4">
         <f t="shared" si="47"/>
         <v>0.60320303225940808</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AA21" s="4">
         <f t="shared" si="47"/>
         <v>0.60684253212105688</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AB21" s="4">
         <f t="shared" si="47"/>
         <v>0.61109178659941732</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AC21" s="4">
         <f t="shared" si="47"/>
         <v>0.60531900483135415</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AD21" s="4">
         <f t="shared" ref="AD21:AE21" si="48">AD7/AD5</f>
         <v>0.602964298927118</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AE21" s="4">
         <f t="shared" si="48"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AF21" s="4">
         <f t="shared" ref="AF21:AR21" si="49">AF7/AF5</f>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AG21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AH21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AI21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AJ21" s="5">
+      <c r="AJ21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AK21" s="5">
+      <c r="AK21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AL21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AM21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AN21" s="5">
+      <c r="AN21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AO21" s="5">
+      <c r="AO21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="AP21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AQ21" s="5">
+      <c r="AQ21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
-      <c r="AR21" s="5">
+      <c r="AR21" s="4">
         <f t="shared" si="49"/>
         <v>0.60693465593784679</v>
       </c>
       <c r="AU21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AV21" s="5">
+      <c r="AV21" s="4">
         <v>0</v>
       </c>
-      <c r="AX21" s="20" t="s">
+      <c r="AX21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AY21" s="21">
+      <c r="AY21" s="2">
         <f>Main!H7</f>
         <v>177895.18000000002</v>
       </c>
-      <c r="AZ21" s="20"/>
     </row>
-    <row r="22" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f t="shared" ref="C22:P22" si="50">C11/C5</f>
         <v>0.21821477118260083</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="50"/>
         <v>0.25437289199152874</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="50"/>
         <v>0.20548628428927682</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f t="shared" si="50"/>
         <v>0.19067028985507245</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <f t="shared" si="50"/>
         <v>0.21435907011483521</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <f t="shared" si="50"/>
         <v>0.25210752346111021</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <f t="shared" si="50"/>
         <v>0.22636940547762191</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <f t="shared" si="50"/>
         <v>0.14259104032783831</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <f t="shared" si="50"/>
         <v>0.21435907011483521</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <f t="shared" si="50"/>
         <v>0.20853899308983218</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <f t="shared" si="50"/>
         <v>0.20819112627986347</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <f t="shared" si="50"/>
         <v>0.15179999999999999</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <f t="shared" si="50"/>
         <v>0.20822797121182648</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="4">
         <f t="shared" si="50"/>
         <v>0.24776843747291794</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="4">
         <f t="shared" ref="Q22:V22" si="51">Q11/Q5</f>
         <v>0.20819112627986347</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <f t="shared" si="51"/>
         <v>0.15179999999999999</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="4">
         <f t="shared" si="51"/>
         <v>0.21218537249562347</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="4">
         <f t="shared" si="51"/>
         <v>0.25164312332091171</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="4">
         <f t="shared" si="51"/>
         <v>0.2121965520259036</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="4">
         <f t="shared" si="51"/>
         <v>0.15585399999999999</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="4">
         <f t="shared" ref="Y22:AC22" si="52">Y11/Y5</f>
         <v>0.21857676936960166</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z22" s="4">
         <f t="shared" si="52"/>
         <v>0.22448299560572296</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="4">
         <f t="shared" si="52"/>
         <v>0.21829512955137234</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB22" s="4">
         <f t="shared" si="52"/>
         <v>0.21105265446323754</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AC22" s="4">
         <f t="shared" si="52"/>
         <v>0.19704700410890866</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AD22" s="4">
         <f t="shared" ref="AD22:AE22" si="53">AD11/AD5</f>
         <v>0.205720495745468</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AE22" s="4">
         <f t="shared" si="53"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AF22" s="4">
         <f t="shared" ref="AF22:AR22" si="54">AF11/AF5</f>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AG22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AH22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AI22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AJ22" s="5">
+      <c r="AJ22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AK22" s="5">
+      <c r="AK22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AL22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AM22" s="5">
+      <c r="AM22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AN22" s="5">
+      <c r="AN22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AO22" s="5">
+      <c r="AO22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AP22" s="5">
+      <c r="AP22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AQ22" s="5">
+      <c r="AQ22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
-      <c r="AR22" s="5">
+      <c r="AR22" s="4">
         <f t="shared" si="54"/>
         <v>0.20969085275619681</v>
       </c>
       <c r="AU22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AV22" s="5">
+      <c r="AV22" s="4">
         <v>-0.02</v>
       </c>
-      <c r="AX22" s="17" t="s">
+      <c r="AX22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AY22" s="18">
+      <c r="AY22" s="11">
         <f>AD17</f>
         <v>7702</v>
       </c>
-      <c r="AZ22" s="20"/>
     </row>
-    <row r="23" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f t="shared" ref="C23:P23" si="55">C17/C5</f>
         <v>0.16030811055731761</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="55"/>
         <v>0.21131069103459094</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f t="shared" si="55"/>
         <v>0.20407315045719035</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" si="55"/>
         <v>0.15471014492753624</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <f t="shared" si="55"/>
         <v>0.1462048361497526</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <f t="shared" si="55"/>
         <v>0.20717353268649594</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <f t="shared" si="55"/>
         <v>0.177187708750835</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <f t="shared" si="55"/>
         <v>7.7395920648225758E-2</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <f t="shared" si="55"/>
         <v>0.1462048361497526</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <f t="shared" si="55"/>
         <v>0.2559230009871668</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <f t="shared" si="55"/>
         <v>0.1271549838102739</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <f t="shared" si="55"/>
         <v>0.1236</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="4">
         <f t="shared" si="55"/>
         <v>0.14520521299358102</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
         <f t="shared" si="55"/>
         <v>0.29985267354190137</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="4">
         <f t="shared" ref="Q23:V23" si="56">Q17/Q5</f>
         <v>0.13153058545550014</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <f t="shared" si="56"/>
         <v>0.1246</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="4">
         <f t="shared" si="56"/>
         <v>0.15013518770667189</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="4">
         <f t="shared" si="56"/>
         <v>0.30459398561400469</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="4">
         <f t="shared" si="56"/>
         <v>0.13641113153058548</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="4">
         <f t="shared" si="56"/>
         <v>0.12965399999999999</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Y23" s="4">
         <f t="shared" ref="Y23:AC23" si="57">Y17/Y5</f>
         <v>0.18576769369601651</v>
       </c>
-      <c r="Z23" s="5">
+      <c r="Z23" s="4">
         <f t="shared" si="57"/>
         <v>0.18922464960326552</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AA23" s="4">
         <f t="shared" si="57"/>
         <v>0.18410381184103811</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AB23" s="4">
         <f t="shared" si="57"/>
         <v>0.1548762989695204</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AC23" s="4">
         <f t="shared" si="57"/>
         <v>0.16629791845396669</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AD23" s="4">
         <f t="shared" ref="AD23:AE23" si="58">AD17/AD5</f>
         <v>0.17808916019237883</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AE23" s="4">
         <f t="shared" si="58"/>
         <v>0.18298441546429892</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AF23" s="4">
         <f t="shared" ref="AF23:AR23" si="59">AF17/AF5</f>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AG23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AH23" s="5">
+      <c r="AH23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AI23" s="5">
+      <c r="AI23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AJ23" s="5">
+      <c r="AJ23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AK23" s="5">
+      <c r="AK23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AL23" s="5">
+      <c r="AL23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AM23" s="5">
+      <c r="AM23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AN23" s="5">
+      <c r="AN23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AO23" s="5">
+      <c r="AO23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AP23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AQ23" s="5">
+      <c r="AQ23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
-      <c r="AR23" s="5">
+      <c r="AR23" s="4">
         <f t="shared" si="59"/>
         <v>0.18222137439881611</v>
       </c>
       <c r="AU23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AV23" s="5">
+      <c r="AV23" s="4">
         <v>0.03</v>
       </c>
-      <c r="AX23" s="20" t="s">
+      <c r="AX23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AY23" s="22">
+      <c r="AY23" s="3">
         <f>AY21/AY22</f>
         <v>23.097270838743185</v>
       </c>
-      <c r="AZ23" s="20"/>
     </row>
-    <row r="24" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <f t="shared" ref="C24:P24" si="60">C16/C15</f>
         <v>0.24530716723549489</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="60"/>
         <v>0.23574468085106384</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <f t="shared" si="60"/>
         <v>0.27366863905325445</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f t="shared" si="60"/>
         <v>0.23339317773788151</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <f t="shared" si="60"/>
         <v>0.20949015648662292</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <f t="shared" si="60"/>
         <v>0.23020094562647755</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <f t="shared" si="60"/>
         <v>0.20225563909774436</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f t="shared" si="60"/>
         <v>0.36076923076923079</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <f t="shared" si="60"/>
         <v>0.20949015648662292</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <f t="shared" si="60"/>
         <v>0.28663150653519837</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <f t="shared" si="60"/>
         <v>0.15768115942028985</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <f t="shared" si="60"/>
         <v>0.19635890767230169</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="4">
         <f t="shared" si="60"/>
         <v>0.21172122492080253</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="4">
         <f t="shared" si="60"/>
         <v>0.1951616655036055</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="4">
         <f t="shared" ref="Q24:V24" si="61">Q16/Q15</f>
         <v>0.15323943661971831</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <f t="shared" si="61"/>
         <v>0.19509043927648578</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="4">
         <f t="shared" si="61"/>
         <v>0.20620253099465718</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="4">
         <f t="shared" si="61"/>
         <v>0.19270920663066671</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="4">
         <f t="shared" si="61"/>
         <v>0.14857136614648478</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="4">
         <f t="shared" si="61"/>
         <v>0.18892239168241021</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="Y24" s="4">
         <f t="shared" ref="Y24:AC24" si="62">Y16/Y15</f>
         <v>0.245418048525048</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="Z24" s="4">
         <f t="shared" si="62"/>
         <v>0.23058684054534678</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AA24" s="4">
         <f t="shared" si="62"/>
         <v>0.24840986320467021</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AB24" s="4">
         <f t="shared" si="62"/>
         <v>0.23603217158176942</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AC24" s="4">
         <f t="shared" si="62"/>
         <v>0.23310775637688705</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AD24" s="4">
         <f t="shared" ref="AD24:AE24" si="63">AD16/AD15</f>
         <v>0.19062631357713325</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AE24" s="4">
         <f t="shared" si="63"/>
         <v>0.18647759853038384</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AF24" s="4">
         <f t="shared" ref="AF24:AR24" si="64">AF16/AF15</f>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AG24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AH24" s="5">
+      <c r="AH24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AI24" s="5">
+      <c r="AI24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AJ24" s="5">
+      <c r="AJ24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AK24" s="5">
+      <c r="AK24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AL24" s="5">
+      <c r="AL24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AM24" s="5">
+      <c r="AM24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AN24" s="5">
+      <c r="AN24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AO24" s="5">
+      <c r="AO24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AP24" s="5">
+      <c r="AP24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AQ24" s="5">
+      <c r="AQ24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
-      <c r="AR24" s="5">
+      <c r="AR24" s="4">
         <f t="shared" si="64"/>
         <v>0.18711235302551599</v>
       </c>
       <c r="AU24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV24" s="9">
+      <c r="AV24" s="12">
         <f>NPV(AV23,AD17:QI17)</f>
         <v>193080.23127204677</v>
       </c>
-      <c r="AX24" s="20" t="s">
+      <c r="AX24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AY24" s="23">
+      <c r="AY24" s="4">
         <f>AY22/AY21</f>
         <v>4.3295158418569853E-2</v>
       </c>
-      <c r="AZ24" s="20"/>
     </row>
-    <row r="25" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:764" x14ac:dyDescent="0.2">
       <c r="L25" s="2"/>
       <c r="P25" s="2"/>
       <c r="AU25" s="1" t="s">
@@ -6240,178 +6245,177 @@
         <f>Main!H5-Main!H6</f>
         <v>7427</v>
       </c>
-      <c r="AX25" s="17"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="20"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="13"/>
     </row>
-    <row r="26" spans="2:764" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
         <f t="shared" ref="G26:V26" si="65">G5/C5-1</f>
         <v>-2.9361123697326685E-2</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <f t="shared" si="65"/>
         <v>-1.3726566789552086E-2</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <f t="shared" si="65"/>
         <v>-4.4887780548628076E-3</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <f t="shared" si="65"/>
         <v>-2.7445652173913038E-2</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <f t="shared" si="65"/>
         <v>-3.3243200254493344E-2</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <f t="shared" si="65"/>
         <v>-4.5841683366733443E-2</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <f t="shared" si="65"/>
         <v>-6.864114743410632E-2</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <f t="shared" si="65"/>
         <v>-4.005228270002803E-2</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="4">
         <f t="shared" si="65"/>
         <v>-5.075682790391578E-2</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="4">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="4">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="4">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="4">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="4">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="4">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="5">
+      <c r="Z26" s="4">
         <f>Z5/Y5-1</f>
         <v>3.169180525117099E-2</v>
       </c>
-      <c r="AA26" s="5">
+      <c r="AA26" s="4">
         <f t="shared" ref="AA26:AR26" si="66">AA5/Z5-1</f>
         <v>-2.4220588541558175E-2</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AB26" s="4">
         <f t="shared" si="66"/>
         <v>-1.8269518077432045E-2</v>
       </c>
-      <c r="AC26" s="5">
+      <c r="AC26" s="4">
         <f t="shared" si="66"/>
         <v>-3.7045088916909386E-2</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AD26" s="4">
         <f t="shared" si="66"/>
         <v>-2.3614936560256483E-2</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AE26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AF26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AG26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AH26" s="5">
+      <c r="AH26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="5">
+      <c r="AI26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AJ26" s="5">
+      <c r="AJ26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="5">
+      <c r="AK26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="5">
+      <c r="AL26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AM26" s="5">
+      <c r="AM26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="5">
+      <c r="AN26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AO26" s="5">
+      <c r="AO26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP26" s="5">
+      <c r="AP26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AQ26" s="5">
+      <c r="AQ26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AR26" s="5">
+      <c r="AR26" s="4">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AU26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV26" s="9">
+      <c r="AV26" s="12">
         <f>AV24+AV25</f>
         <v>200507.23127204677</v>
       </c>
-      <c r="AX26" s="11"/>
-      <c r="AY26" s="11"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
     </row>
-    <row r="27" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:764" x14ac:dyDescent="0.2">
       <c r="P27" s="2"/>
       <c r="T27" s="2"/>
       <c r="AU27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AV27" s="4">
+      <c r="AV27" s="9">
         <f>AV26/Main!H3</f>
         <v>45.809282904283016</v>
       </c>
     </row>
-    <row r="28" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:764" x14ac:dyDescent="0.2">
       <c r="P28" s="2"/>
       <c r="T28" s="2"/>
       <c r="AU28" s="1" t="s">
@@ -6421,7 +6425,7 @@
         <v>41.73</v>
       </c>
     </row>
-    <row r="29" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
@@ -6518,7 +6522,7 @@
         <v>128452.64999999994</v>
       </c>
     </row>
-    <row r="30" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6544,12 +6548,12 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="AV30" s="5">
+      <c r="AV30" s="4">
         <f>AV27/AV28-1</f>
         <v>9.7754203313755506E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
@@ -6572,7 +6576,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:764" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:764" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
@@ -6595,7 +6599,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
@@ -6618,7 +6622,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
@@ -6641,7 +6645,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
@@ -6663,9 +6667,9 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="AI35" s="5"/>
+      <c r="AI35" s="4"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
@@ -6688,7 +6692,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>29</v>
       </c>
@@ -6710,9 +6714,9 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="AI37" s="5"/>
+      <c r="AI37" s="4"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
@@ -6735,7 +6739,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
@@ -6762,7 +6766,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -6789,7 +6793,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -6807,7 +6811,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>32</v>
       </c>
@@ -6832,7 +6836,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
@@ -6857,7 +6861,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
@@ -6884,7 +6888,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
@@ -6909,7 +6913,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
@@ -6934,7 +6938,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
@@ -6959,7 +6963,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
@@ -6984,7 +6988,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
@@ -7009,7 +7013,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>39</v>
       </c>
@@ -7038,6 +7042,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>